--- a/src/datas.xlsx
+++ b/src/datas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="676">
   <si>
     <t>bike_id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>time</t>
   </si>
   <si>
+    <t>picture_url</t>
+  </si>
+  <si>
     <t>picture_fileName</t>
   </si>
   <si>
@@ -40,9 +43,6 @@
     <t>11007-R07223168-01</t>
   </si>
   <si>
-    <t>TE-29787</t>
-  </si>
-  <si>
     <t>11207-B06409032-01</t>
   </si>
   <si>
@@ -55,18 +55,12 @@
     <t>11007-b06902034-01</t>
   </si>
   <si>
-    <t>113-b09704094-01</t>
-  </si>
-  <si>
     <t>110-b05103024-02</t>
   </si>
   <si>
     <t>111-r08621115-01</t>
   </si>
   <si>
-    <t>113-b09801009-01</t>
-  </si>
-  <si>
     <t>10907-B05610057-01</t>
   </si>
   <si>
@@ -79,15 +73,9 @@
     <t>111-r08631025-01</t>
   </si>
   <si>
-    <t>TE-30142</t>
-  </si>
-  <si>
     <t>99907-21104-01</t>
   </si>
   <si>
-    <t>110-b05502001-02</t>
-  </si>
-  <si>
     <t>110-r07241215-02</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>113-b09601042-01</t>
   </si>
   <si>
-    <t>TE-30067</t>
-  </si>
-  <si>
     <t>10907-B05507042-01</t>
   </si>
   <si>
@@ -139,12 +124,6 @@
     <t>TE-30051</t>
   </si>
   <si>
-    <t>110-b07207008-00</t>
-  </si>
-  <si>
-    <t>111-B07901027-01</t>
-  </si>
-  <si>
     <t>TE-30052</t>
   </si>
   <si>
@@ -169,9 +148,6 @@
     <t>111-r09223137-01</t>
   </si>
   <si>
-    <t>113-b09502086-01</t>
-  </si>
-  <si>
     <t>TE-30058</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t>11007-B06305038-01</t>
   </si>
   <si>
-    <t>113-b09101025-01</t>
-  </si>
-  <si>
     <t>109-t08502206-01</t>
   </si>
   <si>
@@ -226,9 +199,6 @@
     <t>110-R07922076-02</t>
   </si>
   <si>
-    <t>113-b08605018-01</t>
-  </si>
-  <si>
     <t>113-b09703062-01</t>
   </si>
   <si>
@@ -256,12 +226,6 @@
     <t>TE-29789</t>
   </si>
   <si>
-    <t>113-b09204004-01</t>
-  </si>
-  <si>
-    <t>113-b09607009-01</t>
-  </si>
-  <si>
     <t>113-b09703076-01</t>
   </si>
   <si>
@@ -274,51 +238,15 @@
     <t>111-B07701152-01</t>
   </si>
   <si>
-    <t>113-b09505045-01</t>
-  </si>
-  <si>
-    <t>TE-29688</t>
-  </si>
-  <si>
-    <t>111-r08521127-01</t>
-  </si>
-  <si>
     <t>11007-B06207026-02</t>
   </si>
   <si>
-    <t>113-b09702052-01</t>
-  </si>
-  <si>
-    <t>113-b08303078-01</t>
-  </si>
-  <si>
-    <t>113-b09605029-01</t>
-  </si>
-  <si>
-    <t>113-b08203024-01</t>
-  </si>
-  <si>
-    <t>112-b07302326-01</t>
-  </si>
-  <si>
     <t>113-b09703064-01</t>
   </si>
   <si>
     <t>112-b07901113-03</t>
   </si>
   <si>
-    <t>113-b09501087-01</t>
-  </si>
-  <si>
-    <t>113-b09603021-01</t>
-  </si>
-  <si>
-    <t>113-b09603039-01</t>
-  </si>
-  <si>
-    <t>113-b08507054-01</t>
-  </si>
-  <si>
     <t>10707-R03245016-02</t>
   </si>
   <si>
@@ -328,93 +256,33 @@
     <t>113-b09702101-01</t>
   </si>
   <si>
-    <t>TE-29910</t>
-  </si>
-  <si>
-    <t>112-b08102096-03</t>
-  </si>
-  <si>
-    <t>113-b08103001-01</t>
-  </si>
-  <si>
-    <t>109-10-92862-01</t>
-  </si>
-  <si>
-    <t>113-b08601028-01</t>
-  </si>
-  <si>
     <t>TE-29908</t>
   </si>
   <si>
-    <t>113-b09703074-01</t>
-  </si>
-  <si>
     <t>112-B07203022-01</t>
   </si>
   <si>
-    <t>113-b09107034-01</t>
-  </si>
-  <si>
     <t>116-b09401100-02</t>
   </si>
   <si>
     <t>TE-29907</t>
   </si>
   <si>
-    <t>111-r08942040-01</t>
-  </si>
-  <si>
-    <t>113-b08310038-01</t>
-  </si>
-  <si>
-    <t>TE-29906</t>
-  </si>
-  <si>
-    <t>113-b08703054-01</t>
-  </si>
-  <si>
-    <t>112-b08705055-05</t>
-  </si>
-  <si>
-    <t>113-b08901047-01</t>
-  </si>
-  <si>
-    <t>TE-29897</t>
-  </si>
-  <si>
-    <t>111-B07611001-01</t>
-  </si>
-  <si>
-    <t>113-b08303074-01</t>
-  </si>
-  <si>
-    <t>113-b09703012-01</t>
-  </si>
-  <si>
     <t>113-b08701126-02</t>
   </si>
   <si>
-    <t>111-b07303091-02</t>
-  </si>
-  <si>
     <t>113-b09501124-01</t>
   </si>
   <si>
     <t>113-b09a01319-01</t>
   </si>
   <si>
-    <t>113-b09505048-01</t>
-  </si>
-  <si>
     <t>TE-29904</t>
   </si>
   <si>
     <t>112-b07602006-02</t>
   </si>
   <si>
-    <t>113-b08310011-01</t>
-  </si>
-  <si>
     <t>11007-B06107024-01</t>
   </si>
   <si>
@@ -430,9 +298,6 @@
     <t>111-B07102136-01</t>
   </si>
   <si>
-    <t>11007-B06109032-01</t>
-  </si>
-  <si>
     <t>10907-B05A01348-01</t>
   </si>
   <si>
@@ -442,12 +307,6 @@
     <t>11007-B06207038-01</t>
   </si>
   <si>
-    <t>11107-B07106050-01</t>
-  </si>
-  <si>
-    <t>110-08-65996-03</t>
-  </si>
-  <si>
     <t>112-r09223130-01</t>
   </si>
   <si>
@@ -466,73 +325,757 @@
     <t>113-b08302226-01</t>
   </si>
   <si>
-    <t>TE-29892</t>
-  </si>
-  <si>
     <t>111-b07208014-02</t>
   </si>
   <si>
+    <t>113-b09105044-01</t>
+  </si>
+  <si>
+    <t>TE-30176</t>
+  </si>
+  <si>
+    <t>113-b08504010-01</t>
+  </si>
+  <si>
+    <t>112-b08504038-02</t>
+  </si>
+  <si>
+    <t>113-b08501015-01</t>
+  </si>
+  <si>
+    <t>113-b09504089-03</t>
+  </si>
+  <si>
+    <t>113-b09504034-01</t>
+  </si>
+  <si>
+    <t>111-r09944058-01</t>
+  </si>
+  <si>
+    <t>10907-B05610025-01</t>
+  </si>
+  <si>
+    <t>112-b08504094-03</t>
+  </si>
+  <si>
+    <t>TE-30174</t>
+  </si>
+  <si>
+    <t>112-b08505004-01</t>
+  </si>
+  <si>
+    <t>11107-B07502142-01</t>
+  </si>
+  <si>
+    <t>113-b08901045-01</t>
+  </si>
+  <si>
+    <t>TE-30173</t>
+  </si>
+  <si>
+    <t>112-b08901024-02</t>
+  </si>
+  <si>
+    <t>TE-30171</t>
+  </si>
+  <si>
+    <t>113-b08901167-03</t>
+  </si>
+  <si>
+    <t>TE-30172</t>
+  </si>
+  <si>
+    <t>111-R08941015-02</t>
+  </si>
+  <si>
+    <t>11007-B06609021-02</t>
+  </si>
+  <si>
+    <t>TE-30166</t>
+  </si>
+  <si>
+    <t>113-b08b02003-01</t>
+  </si>
+  <si>
+    <t>113-b08b02011-01</t>
+  </si>
+  <si>
+    <t>113-b08613004-01</t>
+  </si>
+  <si>
+    <t>113-b09201029-01</t>
+  </si>
+  <si>
+    <t>113-b09702089-01</t>
+  </si>
+  <si>
+    <t>TE-30165</t>
+  </si>
+  <si>
+    <t>113-b09610037-01</t>
+  </si>
+  <si>
+    <t>113-b09504118-01</t>
+  </si>
+  <si>
+    <t>113-b09504011-01</t>
+  </si>
+  <si>
+    <t>111-R06941121-00</t>
+  </si>
+  <si>
+    <t>112-b08901203-02</t>
+  </si>
+  <si>
+    <t>TE-30161</t>
+  </si>
+  <si>
+    <t>TE-30162</t>
+  </si>
+  <si>
+    <t>TE-30168</t>
+  </si>
+  <si>
+    <t>113-b08606020-01</t>
+  </si>
+  <si>
+    <t>11107-B07603013-01</t>
+  </si>
+  <si>
+    <t>113-b09504059-01</t>
+  </si>
+  <si>
+    <t>113-b09902107-01</t>
+  </si>
+  <si>
+    <t>107-B03203051-02</t>
+  </si>
+  <si>
+    <t>110-R07223146-02</t>
+  </si>
+  <si>
+    <t>112-B07203007-03</t>
+  </si>
+  <si>
+    <t>112-B07502039-02</t>
+  </si>
+  <si>
+    <t>111-B07203029-02</t>
+  </si>
+  <si>
+    <t>113-b08203071-01</t>
+  </si>
+  <si>
+    <t>11007-b06603026-01</t>
+  </si>
+  <si>
+    <t>109-B06902031-01</t>
+  </si>
+  <si>
+    <t>111-B06902017-02</t>
+  </si>
+  <si>
+    <t>111-r08941031-01</t>
+  </si>
+  <si>
+    <t>TE-30170</t>
+  </si>
+  <si>
+    <t>113-b09704038-01</t>
+  </si>
+  <si>
+    <t>112-f05549029-03</t>
+  </si>
+  <si>
+    <t>11007-b06103060-01</t>
+  </si>
+  <si>
+    <t>108-B04A01105-01</t>
+  </si>
+  <si>
+    <t>109-r05330015-02</t>
+  </si>
+  <si>
+    <t>113-b09401035-01</t>
+  </si>
+  <si>
+    <t>TE-30163</t>
+  </si>
+  <si>
+    <t>TE-29790</t>
+  </si>
+  <si>
+    <t>113-b09403018-01</t>
+  </si>
+  <si>
+    <t>113-b09501008-01</t>
+  </si>
+  <si>
+    <t>111-r09749086-01</t>
+  </si>
+  <si>
+    <t>111-B06502105-02</t>
+  </si>
+  <si>
+    <t>111-r08644003-01</t>
+  </si>
+  <si>
     <t>化學系</t>
   </si>
   <si>
+    <t>應力所</t>
+  </si>
+  <si>
+    <t>新體育館</t>
+  </si>
+  <si>
+    <t>農化系</t>
+  </si>
+  <si>
+    <t>舟山路</t>
+  </si>
+  <si>
+    <t>範圍C區 研一、大一女舍</t>
+  </si>
+  <si>
+    <t>樂學館</t>
+  </si>
+  <si>
+    <t>小福</t>
+  </si>
+  <si>
+    <t>第一活動中心</t>
+  </si>
+  <si>
+    <t>範圍C區 管理學院</t>
+  </si>
+  <si>
+    <t>範圍C區 女一舍門口</t>
+  </si>
+  <si>
+    <t>普通大樓</t>
+  </si>
+  <si>
+    <t>思亮館</t>
+  </si>
+  <si>
+    <t>女八九宿舍</t>
+  </si>
+  <si>
+    <t>新生大樓</t>
+  </si>
+  <si>
+    <t>化工系館</t>
+  </si>
+  <si>
+    <t>資工所</t>
+  </si>
+  <si>
     <t>機械系</t>
   </si>
   <si>
-    <t>應力所</t>
-  </si>
-  <si>
-    <t>新體育館</t>
-  </si>
-  <si>
-    <t>農化系</t>
-  </si>
-  <si>
-    <t>舟山路</t>
-  </si>
-  <si>
-    <t>範圍C區 研一、大一女舍</t>
-  </si>
-  <si>
-    <t>樂學館</t>
-  </si>
-  <si>
-    <t>小福</t>
-  </si>
-  <si>
-    <t>第一活動中心</t>
-  </si>
-  <si>
-    <t>範圍C區 管理學院</t>
-  </si>
-  <si>
-    <t>範圍C區 女一舍門口</t>
-  </si>
-  <si>
-    <t>普通大樓</t>
-  </si>
-  <si>
-    <t>思亮館</t>
-  </si>
-  <si>
-    <t>女八九宿舍</t>
-  </si>
-  <si>
     <t>博理館</t>
   </si>
   <si>
-    <t>社會系館</t>
-  </si>
-  <si>
-    <t>計算機中心</t>
-  </si>
-  <si>
-    <t>工綜館</t>
-  </si>
-  <si>
-    <t>共同教室</t>
-  </si>
-  <si>
-    <t>新生大樓</t>
+    <t>電機二館</t>
+  </si>
+  <si>
+    <t>獸醫系館</t>
+  </si>
+  <si>
+    <t>圖資系</t>
+  </si>
+  <si>
+    <t>範圍B區 鄭江樓</t>
+  </si>
+  <si>
+    <t>駐警隊</t>
+  </si>
+  <si>
+    <t>學生心理輔導中心</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353524.jpg?v=48</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353519.jpg?v=48</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353492.jpg?v=49</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353470.jpg?v=49</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353418.jpg?v=50</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353339.jpg?v=51</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353313.jpg?v=51</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353287.jpg?v=52</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353277.jpg?v=52</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353267.jpg?v=53</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353252.jpg?v=54</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353247.jpg?v=55</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353217.jpg?v=55</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353202.jpg?v=56</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353197.jpg?v=56</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353177.jpg?v=57</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353172.jpg?v=58</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353167.jpg?v=58</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353162.jpg?v=59</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353120.jpg?v=59</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353105.jpg?v=04</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353100.jpg?v=04</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353095.jpg?v=05</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353080.jpg?v=06</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353075.jpg?v=06</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353070.jpg?v=07</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353040.jpg?v=07</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353035.jpg?v=08</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353030.jpg?v=08</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352994.jpg?v=09</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352984.jpg?v=11</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352979.jpg?v=11</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352974.jpg?v=12</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352954.jpg?v=13</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352949.jpg?v=13</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352944.jpg?v=14</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352939.jpg?v=14</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352929.jpg?v=15</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352924.jpg?v=16</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352919.jpg?v=16</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352914.jpg?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352899.jpg?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352864.jpg?v=19</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352848.jpg?v=20</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352843.jpg?v=20</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352838.jpg?v=21</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352823.jpg?v=22</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352813.jpg?v=22</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352803.jpg?v=23</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352798.jpg?v=23</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352763.jpg?v=25</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352758.jpg?v=26</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352748.jpg?v=27</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352738.jpg?v=27</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352723.jpg?v=28</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353736.jpg?v=32</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353729.jpg?v=32</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353719.jpg?v=33</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353703.jpg?v=33</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353693.jpg?v=34</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353680.jpg?v=36</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353670.jpg?v=36</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353665.jpg?v=37</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353622.jpg?v=38</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353611.jpg?v=38</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353605.jpg?v=40</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353577.jpg?v=41</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354277.jpg?v=50</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354247.jpg?v=51</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354242.jpg?v=51</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354216.jpg?v=52</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354210.jpg?v=52</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354204.jpg?v=53</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354159.jpg?v=53</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354149.jpg?v=54</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354139.jpg?v=55</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354128.jpg?v=55</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353979.jpg?v=56</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353968.jpg?v=57</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353953.jpg?v=58</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353938.jpg?v=58</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353927.jpg?v=59</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353893.jpg?v=59</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353888.jpg?v=00</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353883.jpg?v=01</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353878.jpg?v=01</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353873.jpg?v=02</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353858.jpg?v=04</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353853.jpg?v=04</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353848.jpg?v=05</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353817.jpg?v=05</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353811.jpg?v=06</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353806.jpg?v=06</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353801.jpg?v=07</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353796.jpg?v=08</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353791.jpg?v=08</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000353766.jpg?v=09</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354775.jpg?v=33</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354770.jpg?v=33</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354765.jpg?v=34</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354760.jpg?v=34</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354753.jpg?v=35</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354736.jpg?v=35</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354731.jpg?v=36</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354725.jpg?v=37</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354719.jpg?v=37</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354714.jpg?v=38</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354709.jpg?v=40</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354704.jpg?v=41</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354694.jpg?v=41</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354687.jpg?v=42</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354682.jpg?v=42</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354675.jpg?v=43</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354670.jpg?v=44</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354665.jpg?v=44</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354660.jpg?v=45</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354650.jpg?v=45</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354644.jpg?v=47</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354638.jpg?v=48</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354631.jpg?v=48</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354626.jpg?v=49</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354621.jpg?v=50</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354616.jpg?v=50</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354611.jpg?v=51</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354606.jpg?v=51</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354601.jpg?v=52</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354595.jpg?v=53</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354590.jpg?v=55</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354576.jpg?v=56</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354570.jpg?v=57</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354563.jpg?v=57</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354558.jpg?v=58</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354547.jpg?v=58</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354542.jpg?v=59</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354525.jpg?v=59</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354510.jpg?v=00</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354505.jpg?v=01</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354463.jpg?v=02</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354457.jpg?v=03</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354452.jpg?v=04</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354436.jpg?v=04</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354429.jpg?v=05</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354424.jpg?v=05</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354419.jpg?v=06</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354407.jpg?v=07</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354402.jpg?v=07</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354396.jpg?v=08</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354384.jpg?v=15</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354379.jpg?v=16</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354373.jpg?v=16</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354367.jpg?v=17</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354362.jpg?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354357.jpg?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354352.jpg?v=19</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354346.jpg?v=20</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354336.jpg?v=20</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354331.jpg?v=21</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354326.jpg?v=23</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354316.jpg?v=23</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354305.jpg?v=24</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354468.jpg?v=27</t>
   </si>
   <si>
     <t>1.jpg</t>
@@ -973,6 +1516,51 @@
     <t>146.jpg</t>
   </si>
   <si>
+    <t>147.jpg</t>
+  </si>
+  <si>
+    <t>148.jpg</t>
+  </si>
+  <si>
+    <t>149.jpg</t>
+  </si>
+  <si>
+    <t>150.jpg</t>
+  </si>
+  <si>
+    <t>151.jpg</t>
+  </si>
+  <si>
+    <t>152.jpg</t>
+  </si>
+  <si>
+    <t>153.jpg</t>
+  </si>
+  <si>
+    <t>154.jpg</t>
+  </si>
+  <si>
+    <t>155.jpg</t>
+  </si>
+  <si>
+    <t>156.jpg</t>
+  </si>
+  <si>
+    <t>157.jpg</t>
+  </si>
+  <si>
+    <t>158.jpg</t>
+  </si>
+  <si>
+    <t>159.jpg</t>
+  </si>
+  <si>
+    <t>160.jpg</t>
+  </si>
+  <si>
+    <t>161.jpg</t>
+  </si>
+  <si>
     <t>/Users/eason/Desktop/statistics/final-project/src/pictures/1.jpg</t>
   </si>
   <si>
@@ -1409,6 +1997,51 @@
   </si>
   <si>
     <t>/Users/eason/Desktop/statistics/final-project/src/pictures/146.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/147.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/148.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/149.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/150.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/151.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/152.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/153.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/154.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/155.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/156.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/157.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/158.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/159.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/160.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/161.jpg</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +2051,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,6 +2066,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1467,17 +2107,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1770,15 +2416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1795,2928 +2441,3877 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2">
         <v>44166.66</v>
       </c>
-      <c r="E2" t="s">
-        <v>173</v>
+      <c r="E2" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>354</v>
+      </c>
+      <c r="G2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2">
         <v>44166.65960648148</v>
       </c>
-      <c r="E3" t="s">
-        <v>174</v>
+      <c r="E3" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>355</v>
+      </c>
+      <c r="G3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D4" s="2">
-        <v>44166.65545138889</v>
-      </c>
-      <c r="E4" t="s">
-        <v>175</v>
+        <v>44166.65164351852</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>356</v>
+      </c>
+      <c r="G4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2">
-        <v>44166.65164351852</v>
-      </c>
-      <c r="E5" t="s">
-        <v>176</v>
+        <v>44166.64409722222</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>357</v>
+      </c>
+      <c r="G5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D6" s="2">
-        <v>44166.64409722222</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
+        <v>44166.63159722222</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>358</v>
+      </c>
+      <c r="G6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D7" s="2">
-        <v>44166.63159722222</v>
-      </c>
-      <c r="E7" t="s">
-        <v>178</v>
+        <v>44166.55712962963</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>359</v>
+      </c>
+      <c r="G7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2">
-        <v>44166.55712962963</v>
-      </c>
-      <c r="E8" t="s">
-        <v>179</v>
+        <v>44166.55384259259</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>360</v>
+      </c>
+      <c r="G8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D9" s="2">
-        <v>44166.55458333333</v>
-      </c>
-      <c r="E9" t="s">
-        <v>180</v>
+        <v>44166.44864583333</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>361</v>
+      </c>
+      <c r="G9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D10" s="2">
-        <v>44166.55384259259</v>
-      </c>
-      <c r="E10" t="s">
-        <v>181</v>
+        <v>44166.44826388889</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>362</v>
+      </c>
+      <c r="G10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D11" s="2">
-        <v>44166.44864583333</v>
-      </c>
-      <c r="E11" t="s">
-        <v>182</v>
+        <v>44166.44789351852</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>363</v>
+      </c>
+      <c r="G11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D12" s="2">
-        <v>44166.44847222222</v>
-      </c>
-      <c r="E12" t="s">
-        <v>183</v>
+        <v>44166.44721064815</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>364</v>
+      </c>
+      <c r="G12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D13" s="2">
-        <v>44166.44826388889</v>
-      </c>
-      <c r="E13" t="s">
-        <v>184</v>
+        <v>44166.44706018519</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>365</v>
+      </c>
+      <c r="G13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D14" s="2">
-        <v>44166.44789351852</v>
-      </c>
-      <c r="E14" t="s">
-        <v>185</v>
+        <v>44166.44560185185</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>366</v>
+      </c>
+      <c r="G14" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D15" s="2">
-        <v>44166.44721064815</v>
-      </c>
-      <c r="E15" t="s">
-        <v>186</v>
+        <v>44166.445</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>367</v>
+      </c>
+      <c r="G15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D16" s="2">
-        <v>44166.44706018519</v>
-      </c>
-      <c r="E16" t="s">
-        <v>187</v>
+        <v>44166.44481481481</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="F16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>368</v>
+      </c>
+      <c r="G16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D17" s="2">
-        <v>44166.44629629629</v>
-      </c>
-      <c r="E17" t="s">
-        <v>188</v>
+        <v>44166.44409722222</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F17" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>369</v>
+      </c>
+      <c r="G17" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D18" s="2">
-        <v>44166.44560185185</v>
-      </c>
-      <c r="E18" t="s">
-        <v>189</v>
+        <v>44166.44392361111</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>370</v>
+      </c>
+      <c r="G18" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D19" s="2">
-        <v>44166.44539351852</v>
-      </c>
-      <c r="E19" t="s">
-        <v>190</v>
+        <v>44166.44375</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>371</v>
+      </c>
+      <c r="G19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2">
-        <v>44166.445</v>
-      </c>
-      <c r="E20" t="s">
-        <v>191</v>
+        <v>44166.44359953704</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>372</v>
+      </c>
+      <c r="G20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D21" s="2">
-        <v>44166.44481481481</v>
-      </c>
-      <c r="E21" t="s">
-        <v>192</v>
+        <v>44166.4275</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>373</v>
+      </c>
+      <c r="G21" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D22" s="2">
-        <v>44166.44409722222</v>
-      </c>
-      <c r="E22" t="s">
-        <v>193</v>
+        <v>44166.42681712963</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>374</v>
+      </c>
+      <c r="G22" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D23" s="2">
-        <v>44166.44392361111</v>
-      </c>
-      <c r="E23" t="s">
-        <v>194</v>
+        <v>44166.42636574074</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="F23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>375</v>
+      </c>
+      <c r="G23" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D24" s="2">
-        <v>44166.44375</v>
-      </c>
-      <c r="E24" t="s">
-        <v>195</v>
+        <v>44166.42613425926</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="F24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>376</v>
+      </c>
+      <c r="G24" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D25" s="2">
-        <v>44166.44359953704</v>
-      </c>
-      <c r="E25" t="s">
-        <v>196</v>
+        <v>44166.425</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="F25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>377</v>
+      </c>
+      <c r="G25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D26" s="2">
-        <v>44166.42832175926</v>
-      </c>
-      <c r="E26" t="s">
-        <v>197</v>
+        <v>44166.4247800926</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>378</v>
+      </c>
+      <c r="G26" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D27" s="2">
-        <v>44166.4275</v>
-      </c>
-      <c r="E27" t="s">
-        <v>198</v>
+        <v>44166.42447916666</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="F27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>379</v>
+      </c>
+      <c r="G27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D28" s="2">
-        <v>44166.42681712963</v>
-      </c>
-      <c r="E28" t="s">
-        <v>199</v>
+        <v>44166.42315972222</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="F28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>380</v>
+      </c>
+      <c r="G28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D29" s="2">
-        <v>44166.42636574074</v>
-      </c>
-      <c r="E29" t="s">
-        <v>200</v>
+        <v>44166.42293981482</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="F29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>381</v>
+      </c>
+      <c r="G29" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D30" s="2">
-        <v>44166.42613425926</v>
-      </c>
-      <c r="E30" t="s">
-        <v>201</v>
+        <v>44166.42273148148</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>382</v>
+      </c>
+      <c r="G30" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D31" s="2">
-        <v>44166.425</v>
-      </c>
-      <c r="E31" t="s">
-        <v>202</v>
+        <v>44166.40590277778</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>383</v>
+      </c>
+      <c r="G31" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D32" s="2">
-        <v>44166.4247800926</v>
-      </c>
-      <c r="E32" t="s">
-        <v>203</v>
+        <v>44166.40474537037</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>384</v>
+      </c>
+      <c r="G32" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D33" s="2">
-        <v>44166.42447916666</v>
-      </c>
-      <c r="E33" t="s">
-        <v>204</v>
+        <v>44166.40447916667</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="F33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>385</v>
+      </c>
+      <c r="G33" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D34" s="2">
-        <v>44166.42315972222</v>
-      </c>
-      <c r="E34" t="s">
-        <v>205</v>
+        <v>44166.40395833334</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="F34" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>386</v>
+      </c>
+      <c r="G34" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D35" s="2">
-        <v>44166.42293981482</v>
-      </c>
-      <c r="E35" t="s">
-        <v>206</v>
+        <v>44166.40287037037</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="F35" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>387</v>
+      </c>
+      <c r="G35" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D36" s="2">
-        <v>44166.42273148148</v>
-      </c>
-      <c r="E36" t="s">
-        <v>207</v>
+        <v>44166.40261574074</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>388</v>
+      </c>
+      <c r="G36" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D37" s="2">
-        <v>44166.42224537037</v>
-      </c>
-      <c r="E37" t="s">
-        <v>208</v>
+        <v>44166.40230324074</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>389</v>
+      </c>
+      <c r="G37" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D38" s="2">
-        <v>44166.42167824074</v>
-      </c>
-      <c r="E38" t="s">
-        <v>209</v>
+        <v>44166.40185185185</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="F38" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>390</v>
+      </c>
+      <c r="G38" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D39" s="2">
-        <v>44166.40590277778</v>
-      </c>
-      <c r="E39" t="s">
-        <v>210</v>
+        <v>44166.40122685185</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="F39" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>391</v>
+      </c>
+      <c r="G39" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D40" s="2">
-        <v>44166.40474537037</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
+        <v>44166.40046296296</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>392</v>
+      </c>
+      <c r="G40" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D41" s="2">
-        <v>44166.40447916667</v>
-      </c>
-      <c r="E41" t="s">
-        <v>212</v>
+        <v>44166.40019675926</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="F41" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>393</v>
+      </c>
+      <c r="G41" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D42" s="2">
-        <v>44166.40395833334</v>
-      </c>
-      <c r="E42" t="s">
-        <v>213</v>
+        <v>44166.39993055556</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="F42" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>394</v>
+      </c>
+      <c r="G42" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D43" s="2">
-        <v>44166.40287037037</v>
-      </c>
-      <c r="E43" t="s">
-        <v>214</v>
+        <v>44166.39893518519</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>395</v>
+      </c>
+      <c r="G43" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D44" s="2">
-        <v>44166.40261574074</v>
-      </c>
-      <c r="E44" t="s">
-        <v>215</v>
+        <v>44166.39740740741</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="F44" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D45" s="2">
-        <v>44166.40230324074</v>
-      </c>
-      <c r="E45" t="s">
-        <v>216</v>
+        <v>44166.3816087963</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>397</v>
+      </c>
+      <c r="G45" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D46" s="2">
-        <v>44166.40185185185</v>
-      </c>
-      <c r="E46" t="s">
-        <v>217</v>
+        <v>44166.38109953704</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>398</v>
+      </c>
+      <c r="G46" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D47" s="2">
-        <v>44166.4016087963</v>
-      </c>
-      <c r="E47" t="s">
-        <v>218</v>
+        <v>44166.38086805555</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="F47" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>399</v>
+      </c>
+      <c r="G47" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D48" s="2">
-        <v>44166.40122685185</v>
-      </c>
-      <c r="E48" t="s">
-        <v>219</v>
+        <v>44166.38032407407</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D49" s="2">
-        <v>44166.40046296296</v>
-      </c>
-      <c r="E49" t="s">
-        <v>220</v>
+        <v>44166.37976851852</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>401</v>
+      </c>
+      <c r="G49" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D50" s="2">
-        <v>44166.40019675926</v>
-      </c>
-      <c r="E50" t="s">
-        <v>221</v>
+        <v>44166.37934027778</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="F50" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>402</v>
+      </c>
+      <c r="G50" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D51" s="2">
-        <v>44166.39993055556</v>
-      </c>
-      <c r="E51" t="s">
-        <v>222</v>
+        <v>44166.37912037037</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>403</v>
+      </c>
+      <c r="G51" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D52" s="2">
-        <v>44166.39910879629</v>
-      </c>
-      <c r="E52" t="s">
-        <v>223</v>
+        <v>44166.37709490741</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="F52" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>404</v>
+      </c>
+      <c r="G52" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D53" s="2">
-        <v>44166.39893518519</v>
-      </c>
-      <c r="E53" t="s">
-        <v>224</v>
+        <v>44166.37690972222</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="F53" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>405</v>
+      </c>
+      <c r="G53" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D54" s="2">
-        <v>44166.39740740741</v>
-      </c>
-      <c r="E54" t="s">
-        <v>225</v>
+        <v>44166.37641203704</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="F54" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>406</v>
+      </c>
+      <c r="G54" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D55" s="2">
-        <v>44166.3816087963</v>
-      </c>
-      <c r="E55" t="s">
-        <v>226</v>
+        <v>44166.37596064815</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="F55" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>407</v>
+      </c>
+      <c r="G55" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D56" s="2">
-        <v>44166.38109953704</v>
-      </c>
-      <c r="E56" t="s">
-        <v>227</v>
+        <v>44166.37541666667</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="F56" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D57" s="2">
-        <v>44166.38086805555</v>
-      </c>
-      <c r="E57" t="s">
-        <v>228</v>
+        <v>44167.57603009259</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="F57" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>409</v>
+      </c>
+      <c r="G57" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D58" s="2">
-        <v>44166.38032407407</v>
-      </c>
-      <c r="E58" t="s">
-        <v>229</v>
+        <v>44167.5739699074</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="F58" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>410</v>
+      </c>
+      <c r="G58" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D59" s="2">
-        <v>44166.37976851852</v>
-      </c>
-      <c r="E59" t="s">
-        <v>230</v>
+        <v>44167.57070601852</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>411</v>
+      </c>
+      <c r="G59" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D60" s="2">
-        <v>44166.37934027778</v>
-      </c>
-      <c r="E60" t="s">
-        <v>231</v>
+        <v>44167.56759259259</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="F60" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>412</v>
+      </c>
+      <c r="G60" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D61" s="2">
-        <v>44166.37912037037</v>
-      </c>
-      <c r="E61" t="s">
-        <v>232</v>
+        <v>44167.56696759259</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="F61" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>413</v>
+      </c>
+      <c r="G61" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D62" s="2">
-        <v>44166.37709490741</v>
-      </c>
-      <c r="E62" t="s">
-        <v>233</v>
+        <v>44167.55866898148</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="F62" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>414</v>
+      </c>
+      <c r="G62" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D63" s="2">
-        <v>44166.37690972222</v>
-      </c>
-      <c r="E63" t="s">
-        <v>234</v>
+        <v>44167.55510416667</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="F63" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>415</v>
+      </c>
+      <c r="G63" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D64" s="2">
-        <v>44166.37641203704</v>
-      </c>
-      <c r="E64" t="s">
-        <v>235</v>
+        <v>44167.55471064815</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="F64" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>416</v>
+      </c>
+      <c r="G64" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D65" s="2">
-        <v>44166.37596064815</v>
-      </c>
-      <c r="E65" t="s">
-        <v>236</v>
+        <v>44167.44489583333</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="F65" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>417</v>
+      </c>
+      <c r="G65" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D66" s="2">
-        <v>44166.37581018519</v>
-      </c>
-      <c r="E66" t="s">
-        <v>237</v>
+        <v>44167.44108796296</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>418</v>
+      </c>
+      <c r="G66" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D67" s="2">
-        <v>44166.37541666667</v>
-      </c>
-      <c r="E67" t="s">
-        <v>238</v>
+        <v>44167.43989583333</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="F67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>419</v>
+      </c>
+      <c r="G67" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D68" s="2">
-        <v>44167.57603009259</v>
-      </c>
-      <c r="E68" t="s">
-        <v>239</v>
+        <v>44167.38243055555</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F68" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>420</v>
+      </c>
+      <c r="G68" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D69" s="2">
-        <v>44167.5739699074</v>
-      </c>
-      <c r="E69" t="s">
-        <v>240</v>
+        <v>44168.65273148148</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="F69" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>421</v>
+      </c>
+      <c r="G69" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D70" s="2">
-        <v>44167.57070601852</v>
-      </c>
-      <c r="E70" t="s">
-        <v>241</v>
+        <v>44168.65001157407</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="F70" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>422</v>
+      </c>
+      <c r="G70" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D71" s="2">
-        <v>44167.56759259259</v>
-      </c>
-      <c r="E71" t="s">
-        <v>242</v>
+        <v>44168.64979166666</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="F71" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>423</v>
+      </c>
+      <c r="G71" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D72" s="2">
-        <v>44167.56696759259</v>
-      </c>
-      <c r="E72" t="s">
-        <v>243</v>
+        <v>44168.64513888889</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="F72" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>424</v>
+      </c>
+      <c r="G72" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D73" s="2">
-        <v>44167.55866898148</v>
-      </c>
-      <c r="E73" t="s">
-        <v>244</v>
+        <v>44168.64291666666</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="F73" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>425</v>
+      </c>
+      <c r="G73" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D74" s="2">
-        <v>44167.55510416667</v>
-      </c>
-      <c r="E74" t="s">
-        <v>245</v>
+        <v>44168.63456018519</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="F74" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>426</v>
+      </c>
+      <c r="G74" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D75" s="2">
-        <v>44167.55471064815</v>
-      </c>
-      <c r="E75" t="s">
-        <v>246</v>
+        <v>44168.56550925926</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="F75" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>427</v>
+      </c>
+      <c r="G75" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D76" s="2">
-        <v>44167.54844907407</v>
-      </c>
-      <c r="E76" t="s">
-        <v>247</v>
+        <v>44168.56454861111</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>267</v>
       </c>
       <c r="F76" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>428</v>
+      </c>
+      <c r="G76" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="D77" s="2">
-        <v>44167.54814814815</v>
-      </c>
-      <c r="E77" t="s">
-        <v>248</v>
+        <v>44168.56385416666</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="F77" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>429</v>
+      </c>
+      <c r="G77" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D78" s="2">
-        <v>44167.44489583333</v>
-      </c>
-      <c r="E78" t="s">
-        <v>249</v>
+        <v>44168.56138888889</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="F78" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>430</v>
+      </c>
+      <c r="G78" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D79" s="2">
-        <v>44167.44108796296</v>
-      </c>
-      <c r="E79" t="s">
-        <v>250</v>
+        <v>44168.38280092592</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="F79" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>431</v>
+      </c>
+      <c r="G79" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D80" s="2">
-        <v>44167.43989583333</v>
-      </c>
-      <c r="E80" t="s">
-        <v>251</v>
+        <v>44168.37902777778</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="F80" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>432</v>
+      </c>
+      <c r="G80" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D81" s="2">
-        <v>44167.38243055555</v>
-      </c>
-      <c r="E81" t="s">
-        <v>252</v>
+        <v>44168.37846064815</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="F81" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>433</v>
+      </c>
+      <c r="G81" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D82" s="2">
-        <v>44167.38210648148</v>
-      </c>
-      <c r="E82" t="s">
-        <v>253</v>
+        <v>44168.37760416666</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="F82" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>434</v>
+      </c>
+      <c r="G82" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D83" s="2">
-        <v>44167.36643518518</v>
-      </c>
-      <c r="E83" t="s">
-        <v>254</v>
+        <v>44168.37050925926</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="F83" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>435</v>
+      </c>
+      <c r="G83" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D84" s="2">
-        <v>44168.653125</v>
-      </c>
-      <c r="E84" t="s">
-        <v>255</v>
+        <v>44168.26869212963</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="F84" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>436</v>
+      </c>
+      <c r="G84" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D85" s="2">
-        <v>44168.65273148148</v>
-      </c>
-      <c r="E85" t="s">
-        <v>256</v>
+        <v>44168.26850694444</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="F85" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>437</v>
+      </c>
+      <c r="G85" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D86" s="2">
-        <v>44168.6521875</v>
-      </c>
-      <c r="E86" t="s">
-        <v>257</v>
+        <v>44168.268125</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="F86" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>438</v>
+      </c>
+      <c r="G86" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D87" s="2">
-        <v>44168.6519212963</v>
-      </c>
-      <c r="E87" t="s">
-        <v>258</v>
+        <v>44168.26785879629</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="F87" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>439</v>
+      </c>
+      <c r="G87" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D88" s="2">
-        <v>44168.65164351852</v>
-      </c>
-      <c r="E88" t="s">
-        <v>259</v>
+        <v>44168.26752314815</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="F88" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>440</v>
+      </c>
+      <c r="G88" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D89" s="2">
-        <v>44168.65087962963</v>
-      </c>
-      <c r="E89" t="s">
-        <v>260</v>
+        <v>44168.26678240741</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="F89" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>441</v>
+      </c>
+      <c r="G89" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D90" s="2">
-        <v>44168.65037037037</v>
-      </c>
-      <c r="E90" t="s">
-        <v>261</v>
+        <v>44168.26646990741</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="F90" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>442</v>
+      </c>
+      <c r="G90" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D91" s="2">
-        <v>44168.65001157407</v>
-      </c>
-      <c r="E91" t="s">
-        <v>262</v>
+        <v>44168.26612268519</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="F91" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>443</v>
+      </c>
+      <c r="G91" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D92" s="2">
-        <v>44168.64979166666</v>
-      </c>
-      <c r="E92" t="s">
-        <v>263</v>
+        <v>44168.2627662037</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="F92" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>444</v>
+      </c>
+      <c r="G92" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D93" s="2">
-        <v>44168.64946759259</v>
-      </c>
-      <c r="E93" t="s">
-        <v>264</v>
+        <v>44168.26045138889</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="F93" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>445</v>
+      </c>
+      <c r="G93" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D94" s="2">
-        <v>44168.64673611111</v>
-      </c>
-      <c r="E94" t="s">
-        <v>265</v>
+        <v>44168.2602662037</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="F94" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>446</v>
+      </c>
+      <c r="G94" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D95" s="2">
-        <v>44168.64606481481</v>
-      </c>
-      <c r="E95" t="s">
-        <v>266</v>
+        <v>44168.25969907407</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="F95" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>447</v>
+      </c>
+      <c r="G95" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D96" s="2">
-        <v>44168.64561342593</v>
-      </c>
-      <c r="E96" t="s">
-        <v>267</v>
+        <v>44168.25944444445</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="F96" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>448</v>
+      </c>
+      <c r="G96" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D97" s="2">
-        <v>44168.64513888889</v>
-      </c>
-      <c r="E97" t="s">
-        <v>268</v>
+        <v>44168.25916666666</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="F97" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>449</v>
+      </c>
+      <c r="G97" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D98" s="2">
-        <v>44168.64291666666</v>
-      </c>
-      <c r="E98" t="s">
-        <v>269</v>
+        <v>44168.25788194445</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="F98" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>450</v>
+      </c>
+      <c r="G98" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D99" s="2">
-        <v>44168.63456018519</v>
-      </c>
-      <c r="E99" t="s">
-        <v>270</v>
+        <v>44169.64560185185</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="F99" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>451</v>
+      </c>
+      <c r="G99" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D100" s="2">
-        <v>44168.57300925926</v>
-      </c>
-      <c r="E100" t="s">
-        <v>271</v>
+        <v>44169.64542824074</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="F100" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>452</v>
+      </c>
+      <c r="G100" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D101" s="2">
-        <v>44168.57271990741</v>
-      </c>
-      <c r="E101" t="s">
-        <v>272</v>
+        <v>44169.64171296296</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="F101" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>453</v>
+      </c>
+      <c r="G101" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D102" s="2">
-        <v>44168.57240740741</v>
-      </c>
-      <c r="E102" t="s">
-        <v>273</v>
+        <v>44169.64153935185</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="F102" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>454</v>
+      </c>
+      <c r="G102" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="D103" s="2">
-        <v>44168.57217592592</v>
-      </c>
-      <c r="E103" t="s">
-        <v>274</v>
+        <v>44169.64019675926</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="F103" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>455</v>
+      </c>
+      <c r="G103" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D104" s="2">
-        <v>44168.56591435185</v>
-      </c>
-      <c r="E104" t="s">
-        <v>275</v>
+        <v>44169.63493055556</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="F104" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>456</v>
+      </c>
+      <c r="G104" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D105" s="2">
-        <v>44168.56550925926</v>
-      </c>
-      <c r="E105" t="s">
-        <v>276</v>
+        <v>44169.63460648148</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="F105" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>457</v>
+      </c>
+      <c r="G105" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D106" s="2">
-        <v>44168.56478009259</v>
-      </c>
-      <c r="E106" t="s">
-        <v>277</v>
+        <v>44169.63193287037</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="F106" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>458</v>
+      </c>
+      <c r="G106" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D107" s="2">
-        <v>44168.56454861111</v>
-      </c>
-      <c r="E107" t="s">
-        <v>278</v>
+        <v>44169.62980324074</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>298</v>
       </c>
       <c r="F107" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>459</v>
+      </c>
+      <c r="G107" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D108" s="2">
-        <v>44168.56429398148</v>
-      </c>
-      <c r="E108" t="s">
-        <v>279</v>
+        <v>44169.62918981481</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F108" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>460</v>
+      </c>
+      <c r="G108" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D109" s="2">
-        <v>44168.56385416666</v>
-      </c>
-      <c r="E109" t="s">
-        <v>280</v>
+        <v>44169.62868055556</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="F109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>461</v>
+      </c>
+      <c r="G109" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D110" s="2">
-        <v>44168.56138888889</v>
-      </c>
-      <c r="E110" t="s">
-        <v>281</v>
+        <v>44169.62827546296</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="F110" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>462</v>
+      </c>
+      <c r="G110" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="D111" s="2">
-        <v>44168.559375</v>
-      </c>
-      <c r="E111" t="s">
-        <v>282</v>
+        <v>44169.62621527778</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="F111" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>463</v>
+      </c>
+      <c r="G111" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D112" s="2">
-        <v>44168.55542824074</v>
-      </c>
-      <c r="E112" t="s">
-        <v>283</v>
+        <v>44169.62101851852</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="F112" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>464</v>
+      </c>
+      <c r="G112" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D113" s="2">
-        <v>44168.55365740741</v>
-      </c>
-      <c r="E113" t="s">
-        <v>284</v>
+        <v>44169.62078703703</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="F113" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>465</v>
+      </c>
+      <c r="G113" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D114" s="2">
-        <v>44168.55328703704</v>
-      </c>
-      <c r="E114" t="s">
-        <v>285</v>
+        <v>44169.61978009259</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="F114" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>466</v>
+      </c>
+      <c r="G114" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D115" s="2">
-        <v>44168.54769675926</v>
-      </c>
-      <c r="E115" t="s">
-        <v>286</v>
+        <v>44169.61944444444</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="F115" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>467</v>
+      </c>
+      <c r="G115" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D116" s="2">
-        <v>44168.43638888889</v>
-      </c>
-      <c r="E116" t="s">
-        <v>287</v>
+        <v>44169.6190625</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="F116" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>468</v>
+      </c>
+      <c r="G116" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D117" s="2">
-        <v>44168.43572916667</v>
-      </c>
-      <c r="E117" t="s">
-        <v>288</v>
+        <v>44169.61887731482</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="F117" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>469</v>
+      </c>
+      <c r="G117" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D118" s="2">
-        <v>44168.43439814815</v>
-      </c>
-      <c r="E118" t="s">
-        <v>289</v>
+        <v>44169.61520833334</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="F118" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>470</v>
+      </c>
+      <c r="G118" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D119" s="2">
-        <v>44168.42828703704</v>
-      </c>
-      <c r="E119" t="s">
-        <v>290</v>
+        <v>44169.61425925926</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="F119" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>471</v>
+      </c>
+      <c r="G119" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D120" s="2">
-        <v>44168.38649305556</v>
-      </c>
-      <c r="E120" t="s">
-        <v>291</v>
+        <v>44169.61113425926</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="F120" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>472</v>
+      </c>
+      <c r="G120" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D121" s="2">
-        <v>44168.38280092592</v>
-      </c>
-      <c r="E121" t="s">
-        <v>292</v>
+        <v>44169.58083333333</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="F121" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>473</v>
+      </c>
+      <c r="G121" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D122" s="2">
-        <v>44168.37934027778</v>
-      </c>
-      <c r="E122" t="s">
-        <v>293</v>
+        <v>44169.58063657407</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="F122" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>474</v>
+      </c>
+      <c r="G122" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D123" s="2">
-        <v>44168.37902777778</v>
-      </c>
-      <c r="E123" t="s">
-        <v>294</v>
+        <v>44169.58046296296</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="F123" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>475</v>
+      </c>
+      <c r="G123" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D124" s="2">
-        <v>44168.37846064815</v>
-      </c>
-      <c r="E124" t="s">
-        <v>295</v>
+        <v>44169.58009259259</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="F124" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>476</v>
+      </c>
+      <c r="G124" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D125" s="2">
-        <v>44168.37811342593</v>
-      </c>
-      <c r="E125" t="s">
-        <v>296</v>
+        <v>44169.57982638889</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="F125" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>477</v>
+      </c>
+      <c r="G125" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D126" s="2">
-        <v>44168.37760416666</v>
-      </c>
-      <c r="E126" t="s">
-        <v>297</v>
+        <v>44169.57871527778</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>317</v>
       </c>
       <c r="F126" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>478</v>
+      </c>
+      <c r="G126" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D127" s="2">
-        <v>44168.37050925926</v>
-      </c>
-      <c r="E127" t="s">
-        <v>298</v>
+        <v>44169.57831018518</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="F127" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>479</v>
+      </c>
+      <c r="G127" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D128" s="2">
-        <v>44168.36049768519</v>
-      </c>
-      <c r="E128" t="s">
-        <v>299</v>
+        <v>44169.57664351852</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="F128" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>480</v>
+      </c>
+      <c r="G128" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="D129" s="2">
-        <v>44168.26869212963</v>
-      </c>
-      <c r="E129" t="s">
-        <v>300</v>
+        <v>44169.57638888889</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="F129" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>481</v>
+      </c>
+      <c r="G129" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="D130" s="2">
-        <v>44168.26850694444</v>
-      </c>
-      <c r="E130" t="s">
-        <v>301</v>
+        <v>44169.56824074074</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="F130" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>482</v>
+      </c>
+      <c r="G130" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="D131" s="2">
-        <v>44168.268125</v>
-      </c>
-      <c r="E131" t="s">
-        <v>302</v>
+        <v>44169.56736111111</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="F131" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>483</v>
+      </c>
+      <c r="G131" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D132" s="2">
-        <v>44168.26785879629</v>
-      </c>
-      <c r="E132" t="s">
-        <v>303</v>
+        <v>44169.55736111111</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="F132" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>484</v>
+      </c>
+      <c r="G132" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D133" s="2">
-        <v>44168.26752314815</v>
-      </c>
-      <c r="E133" t="s">
-        <v>304</v>
+        <v>44169.55640046296</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="F133" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>485</v>
+      </c>
+      <c r="G133" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D134" s="2">
-        <v>44168.26701388889</v>
-      </c>
-      <c r="E134" t="s">
-        <v>305</v>
+        <v>44169.55423611111</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="F134" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>486</v>
+      </c>
+      <c r="G134" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D135" s="2">
-        <v>44168.26678240741</v>
-      </c>
-      <c r="E135" t="s">
-        <v>306</v>
+        <v>44169.55365740741</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="F135" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>487</v>
+      </c>
+      <c r="G135" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D136" s="2">
-        <v>44168.26646990741</v>
-      </c>
-      <c r="E136" t="s">
-        <v>307</v>
+        <v>44169.54765046296</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="F136" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>488</v>
+      </c>
+      <c r="G136" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D137" s="2">
-        <v>44168.26612268519</v>
-      </c>
-      <c r="E137" t="s">
-        <v>308</v>
+        <v>44169.4474537037</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="F137" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>489</v>
+      </c>
+      <c r="G137" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D138" s="2">
-        <v>44168.26585648148</v>
-      </c>
-      <c r="E138" t="s">
-        <v>309</v>
+        <v>44169.44709490741</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="F138" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>490</v>
+      </c>
+      <c r="G138" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D139" s="2">
-        <v>44168.26457175926</v>
-      </c>
-      <c r="E139" t="s">
-        <v>310</v>
+        <v>44169.44126157407</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="F139" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>491</v>
+      </c>
+      <c r="G139" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D140" s="2">
-        <v>44168.2627662037</v>
-      </c>
-      <c r="E140" t="s">
-        <v>311</v>
+        <v>44169.43844907408</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="F140" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>492</v>
+      </c>
+      <c r="G140" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="D141" s="2">
-        <v>44168.26045138889</v>
-      </c>
-      <c r="E141" t="s">
-        <v>312</v>
+        <v>44169.4378125</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="F141" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>493</v>
+      </c>
+      <c r="G141" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C142" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D142" s="2">
-        <v>44168.2602662037</v>
-      </c>
-      <c r="E142" t="s">
-        <v>313</v>
+        <v>44169.43472222222</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="F142" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>494</v>
+      </c>
+      <c r="G142" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D143" s="2">
-        <v>44168.25969907407</v>
-      </c>
-      <c r="E143" t="s">
-        <v>314</v>
+        <v>44169.4268287037</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="F143" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>495</v>
+      </c>
+      <c r="G143" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D144" s="2">
-        <v>44168.25944444445</v>
-      </c>
-      <c r="E144" t="s">
-        <v>315</v>
+        <v>44169.42652777778</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="F144" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>496</v>
+      </c>
+      <c r="G144" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D145" s="2">
-        <v>44168.25916666666</v>
-      </c>
-      <c r="E145" t="s">
-        <v>316</v>
+        <v>44169.42633101852</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="F145" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>497</v>
+      </c>
+      <c r="G145" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="D146" s="2">
-        <v>44168.25841435185</v>
-      </c>
-      <c r="E146" t="s">
-        <v>317</v>
+        <v>44169.39200231482</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="F146" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>498</v>
+      </c>
+      <c r="G146" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" t="s">
+        <v>184</v>
+      </c>
+      <c r="D147" s="2">
+        <v>44169.39181712963</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F147" t="s">
+        <v>499</v>
+      </c>
+      <c r="G147" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="2">
+        <v>44169.38958333333</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F148" t="s">
+        <v>500</v>
+      </c>
+      <c r="G148" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149" t="s">
+        <v>177</v>
+      </c>
+      <c r="D149" s="2">
+        <v>44169.3790162037</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F149" t="s">
+        <v>501</v>
+      </c>
+      <c r="G149" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150" s="2">
+        <v>44169.37527777778</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F150" t="s">
+        <v>502</v>
+      </c>
+      <c r="G150" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151" t="s">
+        <v>191</v>
+      </c>
+      <c r="D151" s="2">
+        <v>44169.37415509259</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F151" t="s">
+        <v>503</v>
+      </c>
+      <c r="G151" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="C147" t="s">
+      <c r="B152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" t="s">
+        <v>172</v>
+      </c>
+      <c r="D152" s="2">
+        <v>44169.36972222223</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F152" t="s">
+        <v>504</v>
+      </c>
+      <c r="G152" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" t="s">
+        <v>172</v>
+      </c>
+      <c r="D153" s="2">
+        <v>44169.36800925926</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F153" t="s">
+        <v>505</v>
+      </c>
+      <c r="G153" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" t="s">
+        <v>172</v>
+      </c>
+      <c r="D154" s="2">
+        <v>44169.36739583333</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F154" t="s">
+        <v>506</v>
+      </c>
+      <c r="G154" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" t="s">
+        <v>172</v>
+      </c>
+      <c r="D155" s="2">
+        <v>44169.36724537037</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F155" t="s">
+        <v>507</v>
+      </c>
+      <c r="G155" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
         <v>161</v>
       </c>
-      <c r="D147" s="2">
-        <v>44168.25788194445</v>
-      </c>
-      <c r="E147" t="s">
-        <v>318</v>
-      </c>
-      <c r="F147" t="s">
-        <v>464</v>
+      <c r="C156" t="s">
+        <v>173</v>
+      </c>
+      <c r="D156" s="2">
+        <v>44169.36657407408</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F156" t="s">
+        <v>508</v>
+      </c>
+      <c r="G156" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" t="s">
+        <v>173</v>
+      </c>
+      <c r="D157" s="2">
+        <v>44169.36495370371</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F157" t="s">
+        <v>509</v>
+      </c>
+      <c r="G157" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158" t="s">
+        <v>173</v>
+      </c>
+      <c r="D158" s="2">
+        <v>44169.36329861111</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F158" t="s">
+        <v>510</v>
+      </c>
+      <c r="G158" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159" t="s">
+        <v>173</v>
+      </c>
+      <c r="D159" s="2">
+        <v>44169.36311342593</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F159" t="s">
+        <v>511</v>
+      </c>
+      <c r="G159" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" s="2">
+        <v>44169.3615625</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F160" t="s">
+        <v>512</v>
+      </c>
+      <c r="G160" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161" t="s">
+        <v>192</v>
+      </c>
+      <c r="D161" s="2">
+        <v>44169.36002314815</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F161" t="s">
+        <v>513</v>
+      </c>
+      <c r="G161" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" t="s">
+        <v>176</v>
+      </c>
+      <c r="D162" s="2">
+        <v>44169.44166666667</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F162" t="s">
+        <v>514</v>
+      </c>
+      <c r="G162" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
+    <hyperlink ref="E150" r:id="rId149"/>
+    <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/datas.xlsx
+++ b/src/datas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="995">
   <si>
     <t>bike_id</t>
   </si>
@@ -520,6 +520,240 @@
     <t>113-b09105044-01</t>
   </si>
   <si>
+    <t>111-b07601001-03</t>
+  </si>
+  <si>
+    <t>TE-29801</t>
+  </si>
+  <si>
+    <t>TE-29802</t>
+  </si>
+  <si>
+    <t>TE-29803</t>
+  </si>
+  <si>
+    <t>113-b09704053-01</t>
+  </si>
+  <si>
+    <t>113-b09703110-01</t>
+  </si>
+  <si>
+    <t>112-B07502158-02</t>
+  </si>
+  <si>
+    <t>113-b09603021-01</t>
+  </si>
+  <si>
+    <t>113-B09505013-01</t>
+  </si>
+  <si>
+    <t>113-b09601023-01</t>
+  </si>
+  <si>
+    <t>116-b09401081-01</t>
+  </si>
+  <si>
+    <t>113-b08704038-01</t>
+  </si>
+  <si>
+    <t>113-b09504071-01</t>
+  </si>
+  <si>
+    <t>111-R08521249-01</t>
+  </si>
+  <si>
+    <t>113-b09302308-01</t>
+  </si>
+  <si>
+    <t>10907-b05801019-01</t>
+  </si>
+  <si>
+    <t>113-b08102129-01</t>
+  </si>
+  <si>
+    <t>11007-D06330001-01</t>
+  </si>
+  <si>
+    <t>113-b08207018-01</t>
+  </si>
+  <si>
+    <t>113-b09504004-01</t>
+  </si>
+  <si>
+    <t>113-b09507052-01</t>
+  </si>
+  <si>
+    <t>110-r06227143-02</t>
+  </si>
+  <si>
+    <t>111-r09527013-01</t>
+  </si>
+  <si>
+    <t>11007-B06501108-02</t>
+  </si>
+  <si>
+    <t>112-B07705036-02</t>
+  </si>
+  <si>
+    <t>111-b06302206-02</t>
+  </si>
+  <si>
+    <t>TE-29804</t>
+  </si>
+  <si>
+    <t>TE-29805</t>
+  </si>
+  <si>
+    <t>111-r08522820-01</t>
+  </si>
+  <si>
+    <t>TE-29806</t>
+  </si>
+  <si>
+    <t>113-b09201028-01</t>
+  </si>
+  <si>
+    <t>113-b09613015-01</t>
+  </si>
+  <si>
+    <t>113-b09701146-01</t>
+  </si>
+  <si>
+    <t>113-b08507054-01</t>
+  </si>
+  <si>
+    <t>113-b09704032-01</t>
+  </si>
+  <si>
+    <t>11107-B07A01301-01</t>
+  </si>
+  <si>
+    <t>TE-29807</t>
+  </si>
+  <si>
+    <t>111-r09521805-01</t>
+  </si>
+  <si>
+    <t>113-b09101035-01</t>
+  </si>
+  <si>
+    <t>113-b09501083-01</t>
+  </si>
+  <si>
+    <t>TE-29808</t>
+  </si>
+  <si>
+    <t>113-b09703047-01</t>
+  </si>
+  <si>
+    <t>113-b08703133-01</t>
+  </si>
+  <si>
+    <t>116-b09401013-02</t>
+  </si>
+  <si>
+    <t>TE-29809</t>
+  </si>
+  <si>
+    <t>113-d09854001-01</t>
+  </si>
+  <si>
+    <t>TE-29810</t>
+  </si>
+  <si>
+    <t>TE-29811</t>
+  </si>
+  <si>
+    <t>111-r08941018-01</t>
+  </si>
+  <si>
+    <t>113-b09502144-01</t>
+  </si>
+  <si>
+    <t>113-b09704065-01</t>
+  </si>
+  <si>
+    <t>113-b09209025-01</t>
+  </si>
+  <si>
+    <t>113-b08901069-01</t>
+  </si>
+  <si>
+    <t>TE-29812</t>
+  </si>
+  <si>
+    <t>113-b08609003-01</t>
+  </si>
+  <si>
+    <t>10907-R06541137-01</t>
+  </si>
+  <si>
+    <t>111-B07106043-01</t>
+  </si>
+  <si>
+    <t>111-r09126004-01</t>
+  </si>
+  <si>
+    <t>110-r07631006-00</t>
+  </si>
+  <si>
+    <t>TE-29813</t>
+  </si>
+  <si>
+    <t>11007-R07941020-01</t>
+  </si>
+  <si>
+    <t>TE-29814</t>
+  </si>
+  <si>
+    <t>111-r09922137-01</t>
+  </si>
+  <si>
+    <t>TE-29815</t>
+  </si>
+  <si>
+    <t>TE-29816</t>
+  </si>
+  <si>
+    <t>113-b08502142-01</t>
+  </si>
+  <si>
+    <t>113-b08302154-01</t>
+  </si>
+  <si>
+    <t>11107-b07310026-01</t>
+  </si>
+  <si>
+    <t>113-b09502068-01</t>
+  </si>
+  <si>
+    <t>113-b08203054-01</t>
+  </si>
+  <si>
+    <t>112-b07901172-02</t>
+  </si>
+  <si>
+    <t>11107-B07502135-01</t>
+  </si>
+  <si>
+    <t>11007-R07247014-01</t>
+  </si>
+  <si>
+    <t>TE-29817</t>
+  </si>
+  <si>
+    <t>TE-29818</t>
+  </si>
+  <si>
+    <t>TE-29819</t>
+  </si>
+  <si>
+    <t>113-b08502059-01</t>
+  </si>
+  <si>
+    <t>110-B06201015-02</t>
+  </si>
+  <si>
     <t>範圍C區 研一、大一女舍</t>
   </si>
   <si>
@@ -592,6 +826,30 @@
     <t>博理館</t>
   </si>
   <si>
+    <t>範圍C區 卓越聯合中心</t>
+  </si>
+  <si>
+    <t>網球場</t>
+  </si>
+  <si>
+    <t>博雅館</t>
+  </si>
+  <si>
+    <t>社會系館</t>
+  </si>
+  <si>
+    <t>工綜館</t>
+  </si>
+  <si>
+    <t>農藝館</t>
+  </si>
+  <si>
+    <t>共同教室</t>
+  </si>
+  <si>
+    <t>圖資系</t>
+  </si>
+  <si>
     <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352723.jpg?v=27</t>
   </si>
   <si>
@@ -1072,6 +1330,243 @@
     <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354775.jpg?v=25</t>
   </si>
   <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354791.jpg?v=00</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354797.jpg?v=02</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354803.jpg?v=02</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354809.jpg?v=08</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354815.jpg?v=07</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354820.jpg?v=06</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354826.jpg?v=09</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354831.jpg?v=08</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354837.jpg?v=08</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354842.jpg?v=07</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354847.jpg?v=06</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354852.jpg?v=05</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354857.jpg?v=05</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354862.jpg?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354867.jpg?v=17</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354872.jpg?v=16</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354878.jpg?v=16</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354883.jpg?v=15</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354888.jpg?v=14</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354894.jpg?v=12</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354899.jpg?v=11</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354907.jpg?v=13</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354912.jpg?v=12</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354919.jpg?v=19</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354925.?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354931.jpg?v=14</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354936.jpg?v=13</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354942.jpg?v=28</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354948.jpg?v=26</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354954.jpg?v=25</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354960.?v=24</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354965.jpg?v=22</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354971.jpg?v=20</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354976.jpg?v=19</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354982.jpg?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354987.jpg?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354992.jpg?v=23</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000354998.jpg?v=23</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355003.jpg?v=22</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355009.jpg?v=21</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355014.jpg?v=20</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355020.jpg?v=30</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355026.jpg?v=30</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355031.jpg?v=29</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355037.jpg?v=28</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355042.jpg?v=27</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355047.jpg?v=26</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355053.jpg?v=26</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355058.jpg?v=25</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355064.jpg?v=32</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355070.jpg?v=31</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355075.jpg?v=30</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355080.jpg?v=30</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355086.jpg?v=29</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355099.jpg?v=30</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355104.jpg?v=30</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355110.jpg?v=29</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355115.jpg?v=33</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355120.jpg?v=32</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355126.jpg?v=31</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355132.jpg?v=37</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355137.jpg?v=36</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355142.jpg?v=34</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355148.jpg?v=33</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355154.jpg?v=32</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355160.jpg?v=34</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355165.jpg?v=51</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355171.jpg?v=50</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355176.jpg?v=49</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355181.jpg?v=49</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355186.jpg?v=48</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355191.jpg?v=47</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355196.jpg?v=47</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355201.jpg?v=46</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355206.jpg?v=45</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355211.jpg?v=45</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355216.jpg?v=51</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355221.jpg?v=51</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355226.jpg?v=50</t>
+  </si>
+  <si>
     <t>1.jpg</t>
   </si>
   <si>
@@ -1552,6 +2047,243 @@
     <t>160.jpg</t>
   </si>
   <si>
+    <t>161.jpg</t>
+  </si>
+  <si>
+    <t>162.jpg</t>
+  </si>
+  <si>
+    <t>163.jpg</t>
+  </si>
+  <si>
+    <t>164.jpg</t>
+  </si>
+  <si>
+    <t>165.jpg</t>
+  </si>
+  <si>
+    <t>166.jpg</t>
+  </si>
+  <si>
+    <t>167.jpg</t>
+  </si>
+  <si>
+    <t>168.jpg</t>
+  </si>
+  <si>
+    <t>169.jpg</t>
+  </si>
+  <si>
+    <t>170.jpg</t>
+  </si>
+  <si>
+    <t>171.jpg</t>
+  </si>
+  <si>
+    <t>172.jpg</t>
+  </si>
+  <si>
+    <t>173.jpg</t>
+  </si>
+  <si>
+    <t>174.jpg</t>
+  </si>
+  <si>
+    <t>175.jpg</t>
+  </si>
+  <si>
+    <t>176.jpg</t>
+  </si>
+  <si>
+    <t>177.jpg</t>
+  </si>
+  <si>
+    <t>178.jpg</t>
+  </si>
+  <si>
+    <t>179.jpg</t>
+  </si>
+  <si>
+    <t>180.jpg</t>
+  </si>
+  <si>
+    <t>181.jpg</t>
+  </si>
+  <si>
+    <t>182.jpg</t>
+  </si>
+  <si>
+    <t>183.jpg</t>
+  </si>
+  <si>
+    <t>184.jpg</t>
+  </si>
+  <si>
+    <t>185.jpg</t>
+  </si>
+  <si>
+    <t>186.jpg</t>
+  </si>
+  <si>
+    <t>187.jpg</t>
+  </si>
+  <si>
+    <t>188.jpg</t>
+  </si>
+  <si>
+    <t>189.jpg</t>
+  </si>
+  <si>
+    <t>190.jpg</t>
+  </si>
+  <si>
+    <t>191.jpg</t>
+  </si>
+  <si>
+    <t>192.jpg</t>
+  </si>
+  <si>
+    <t>193.jpg</t>
+  </si>
+  <si>
+    <t>194.jpg</t>
+  </si>
+  <si>
+    <t>195.jpg</t>
+  </si>
+  <si>
+    <t>196.jpg</t>
+  </si>
+  <si>
+    <t>197.jpg</t>
+  </si>
+  <si>
+    <t>198.jpg</t>
+  </si>
+  <si>
+    <t>199.jpg</t>
+  </si>
+  <si>
+    <t>200.jpg</t>
+  </si>
+  <si>
+    <t>201.jpg</t>
+  </si>
+  <si>
+    <t>202.jpg</t>
+  </si>
+  <si>
+    <t>203.jpg</t>
+  </si>
+  <si>
+    <t>204.jpg</t>
+  </si>
+  <si>
+    <t>205.jpg</t>
+  </si>
+  <si>
+    <t>206.jpg</t>
+  </si>
+  <si>
+    <t>207.jpg</t>
+  </si>
+  <si>
+    <t>208.jpg</t>
+  </si>
+  <si>
+    <t>209.jpg</t>
+  </si>
+  <si>
+    <t>210.jpg</t>
+  </si>
+  <si>
+    <t>211.jpg</t>
+  </si>
+  <si>
+    <t>212.jpg</t>
+  </si>
+  <si>
+    <t>213.jpg</t>
+  </si>
+  <si>
+    <t>214.jpg</t>
+  </si>
+  <si>
+    <t>215.jpg</t>
+  </si>
+  <si>
+    <t>216.jpg</t>
+  </si>
+  <si>
+    <t>217.jpg</t>
+  </si>
+  <si>
+    <t>218.jpg</t>
+  </si>
+  <si>
+    <t>219.jpg</t>
+  </si>
+  <si>
+    <t>220.jpg</t>
+  </si>
+  <si>
+    <t>221.jpg</t>
+  </si>
+  <si>
+    <t>222.jpg</t>
+  </si>
+  <si>
+    <t>223.jpg</t>
+  </si>
+  <si>
+    <t>224.jpg</t>
+  </si>
+  <si>
+    <t>225.jpg</t>
+  </si>
+  <si>
+    <t>226.jpg</t>
+  </si>
+  <si>
+    <t>227.jpg</t>
+  </si>
+  <si>
+    <t>228.jpg</t>
+  </si>
+  <si>
+    <t>229.jpg</t>
+  </si>
+  <si>
+    <t>230.jpg</t>
+  </si>
+  <si>
+    <t>231.jpg</t>
+  </si>
+  <si>
+    <t>232.jpg</t>
+  </si>
+  <si>
+    <t>233.jpg</t>
+  </si>
+  <si>
+    <t>234.jpg</t>
+  </si>
+  <si>
+    <t>235.jpg</t>
+  </si>
+  <si>
+    <t>236.jpg</t>
+  </si>
+  <si>
+    <t>237.jpg</t>
+  </si>
+  <si>
+    <t>238.jpg</t>
+  </si>
+  <si>
+    <t>239.jpg</t>
+  </si>
+  <si>
     <t>/Users/eason/Desktop/statistics/final-project/src/pictures/1.jpg</t>
   </si>
   <si>
@@ -2030,6 +2762,243 @@
   </si>
   <si>
     <t>/Users/eason/Desktop/statistics/final-project/src/pictures/160.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/161.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/162.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/163.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/164.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/165.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/166.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/167.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/168.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/169.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/170.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/171.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/172.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/173.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/174.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/175.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/176.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/177.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/178.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/179.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/180.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/181.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/182.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/183.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/184.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/185.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/186.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/187.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/188.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/189.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/190.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/191.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/192.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/193.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/194.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/195.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/196.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/197.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/198.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/199.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/200.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/201.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/202.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/203.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/204.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/205.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/206.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/207.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/208.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/209.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/210.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/211.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/212.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/213.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/214.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/215.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/216.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/217.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/218.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/219.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/220.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/221.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/222.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/223.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/224.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/225.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/226.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/227.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/228.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/229.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/230.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/231.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/232.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/233.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/234.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/235.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/236.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/237.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/238.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/239.jpg</t>
   </si>
 </sst>
 </file>
@@ -2404,7 +3373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2444,19 +3413,22 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D2" s="2">
         <v>44166.37541666667</v>
       </c>
+      <c r="E2" s="2">
+        <v>44172.57158564815</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>517</v>
       </c>
       <c r="H2" t="s">
-        <v>512</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2467,19 +3439,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D3" s="2">
         <v>44166.37596064815</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="G3" t="s">
-        <v>353</v>
+        <v>518</v>
       </c>
       <c r="H3" t="s">
-        <v>513</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2490,19 +3462,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D4" s="2">
         <v>44166.37641203704</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="G4" t="s">
-        <v>354</v>
+        <v>519</v>
       </c>
       <c r="H4" t="s">
-        <v>514</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2513,19 +3485,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D5" s="2">
         <v>44166.37690972222</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="G5" t="s">
-        <v>355</v>
+        <v>520</v>
       </c>
       <c r="H5" t="s">
-        <v>515</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2536,19 +3508,22 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D6" s="2">
         <v>44166.37709490741</v>
       </c>
+      <c r="E6" s="2">
+        <v>44172.54350694444</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="G6" t="s">
-        <v>356</v>
+        <v>521</v>
       </c>
       <c r="H6" t="s">
-        <v>516</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2559,19 +3534,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D7" s="2">
         <v>44166.37912037037</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="G7" t="s">
-        <v>357</v>
+        <v>522</v>
       </c>
       <c r="H7" t="s">
-        <v>517</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2582,19 +3557,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D8" s="2">
         <v>44166.37934027778</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>523</v>
       </c>
       <c r="H8" t="s">
-        <v>518</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2605,19 +3580,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D9" s="2">
         <v>44166.37976851852</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="G9" t="s">
-        <v>359</v>
+        <v>524</v>
       </c>
       <c r="H9" t="s">
-        <v>519</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2628,19 +3603,19 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D10" s="2">
         <v>44166.38032407407</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="G10" t="s">
-        <v>360</v>
+        <v>525</v>
       </c>
       <c r="H10" t="s">
-        <v>520</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2651,19 +3626,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D11" s="2">
         <v>44166.38086805555</v>
       </c>
+      <c r="E11" s="2">
+        <v>44172.57158564815</v>
+      </c>
       <c r="F11" s="3" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="G11" t="s">
-        <v>361</v>
+        <v>526</v>
       </c>
       <c r="H11" t="s">
-        <v>521</v>
+        <v>765</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2674,19 +3652,19 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D12" s="2">
         <v>44166.38109953704</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="G12" t="s">
-        <v>362</v>
+        <v>527</v>
       </c>
       <c r="H12" t="s">
-        <v>522</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2697,19 +3675,19 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D13" s="2">
         <v>44166.3816087963</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="G13" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="H13" t="s">
-        <v>523</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2720,19 +3698,19 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D14" s="2">
         <v>44166.39740740741</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="G14" t="s">
-        <v>364</v>
+        <v>529</v>
       </c>
       <c r="H14" t="s">
-        <v>524</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2743,19 +3721,19 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D15" s="2">
         <v>44166.39893518519</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
+        <v>530</v>
       </c>
       <c r="H15" t="s">
-        <v>525</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2766,19 +3744,19 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D16" s="2">
         <v>44166.39993055556</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="G16" t="s">
-        <v>366</v>
+        <v>531</v>
       </c>
       <c r="H16" t="s">
-        <v>526</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2789,19 +3767,19 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D17" s="2">
         <v>44166.40019675926</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
       <c r="G17" t="s">
-        <v>367</v>
+        <v>532</v>
       </c>
       <c r="H17" t="s">
-        <v>527</v>
+        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2812,19 +3790,19 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D18" s="2">
         <v>44166.40046296296</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="G18" t="s">
-        <v>368</v>
+        <v>533</v>
       </c>
       <c r="H18" t="s">
-        <v>528</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2835,19 +3813,19 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D19" s="2">
         <v>44166.40122685185</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="G19" t="s">
-        <v>369</v>
+        <v>534</v>
       </c>
       <c r="H19" t="s">
-        <v>529</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2858,19 +3836,19 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D20" s="2">
         <v>44166.40185185185</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="G20" t="s">
-        <v>370</v>
+        <v>535</v>
       </c>
       <c r="H20" t="s">
-        <v>530</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2881,19 +3859,19 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D21" s="2">
         <v>44166.40230324074</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="G21" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
       <c r="H21" t="s">
-        <v>531</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2904,19 +3882,19 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D22" s="2">
         <v>44166.40261574074</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="G22" t="s">
-        <v>372</v>
+        <v>537</v>
       </c>
       <c r="H22" t="s">
-        <v>532</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2927,19 +3905,19 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D23" s="2">
         <v>44166.40287037037</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="G23" t="s">
-        <v>373</v>
+        <v>538</v>
       </c>
       <c r="H23" t="s">
-        <v>533</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2950,19 +3928,19 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D24" s="2">
         <v>44166.40395833334</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="G24" t="s">
-        <v>374</v>
+        <v>539</v>
       </c>
       <c r="H24" t="s">
-        <v>534</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2973,19 +3951,19 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D25" s="2">
         <v>44166.40447916667</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="G25" t="s">
-        <v>375</v>
+        <v>540</v>
       </c>
       <c r="H25" t="s">
-        <v>535</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2996,19 +3974,19 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D26" s="2">
         <v>44166.40474537037</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>216</v>
+        <v>302</v>
       </c>
       <c r="G26" t="s">
-        <v>376</v>
+        <v>541</v>
       </c>
       <c r="H26" t="s">
-        <v>536</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3019,19 +3997,19 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2">
         <v>44166.40590277778</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="G27" t="s">
-        <v>377</v>
+        <v>542</v>
       </c>
       <c r="H27" t="s">
-        <v>537</v>
+        <v>781</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3042,19 +4020,19 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D28" s="2">
         <v>44166.42273148148</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="G28" t="s">
-        <v>378</v>
+        <v>543</v>
       </c>
       <c r="H28" t="s">
-        <v>538</v>
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3065,19 +4043,19 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D29" s="2">
         <v>44166.42293981482</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="G29" t="s">
-        <v>379</v>
+        <v>544</v>
       </c>
       <c r="H29" t="s">
-        <v>539</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3088,19 +4066,19 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D30" s="2">
         <v>44166.42315972222</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>380</v>
+        <v>545</v>
       </c>
       <c r="H30" t="s">
-        <v>540</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3111,19 +4089,19 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D31" s="2">
         <v>44166.42447916666</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>381</v>
+        <v>546</v>
       </c>
       <c r="H31" t="s">
-        <v>541</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3134,19 +4112,22 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D32" s="2">
         <v>44166.4247800926</v>
       </c>
+      <c r="E32" s="2">
+        <v>44172.64079861111</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>382</v>
+        <v>547</v>
       </c>
       <c r="H32" t="s">
-        <v>542</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3157,19 +4138,19 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D33" s="2">
         <v>44166.425</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>223</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>383</v>
+        <v>548</v>
       </c>
       <c r="H33" t="s">
-        <v>543</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3180,19 +4161,19 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D34" s="2">
         <v>44166.42613425926</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>384</v>
+        <v>549</v>
       </c>
       <c r="H34" t="s">
-        <v>544</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3203,19 +4184,19 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D35" s="2">
         <v>44166.42636574074</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="G35" t="s">
-        <v>385</v>
+        <v>550</v>
       </c>
       <c r="H35" t="s">
-        <v>545</v>
+        <v>789</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3226,19 +4207,19 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D36" s="2">
         <v>44166.42681712963</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>386</v>
+        <v>551</v>
       </c>
       <c r="H36" t="s">
-        <v>546</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3249,19 +4230,19 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D37" s="2">
         <v>44166.4275</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="G37" t="s">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="H37" t="s">
-        <v>547</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3272,19 +4253,19 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D38" s="2">
         <v>44166.44359953704</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="G38" t="s">
-        <v>388</v>
+        <v>553</v>
       </c>
       <c r="H38" t="s">
-        <v>548</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3295,19 +4276,19 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D39" s="2">
         <v>44166.44375</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="G39" t="s">
-        <v>389</v>
+        <v>554</v>
       </c>
       <c r="H39" t="s">
-        <v>549</v>
+        <v>793</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3318,19 +4299,19 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D40" s="2">
         <v>44166.44392361111</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
-        <v>390</v>
+        <v>555</v>
       </c>
       <c r="H40" t="s">
-        <v>550</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3341,19 +4322,19 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D41" s="2">
         <v>44166.44409722222</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="G41" t="s">
-        <v>391</v>
+        <v>556</v>
       </c>
       <c r="H41" t="s">
-        <v>551</v>
+        <v>795</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3364,19 +4345,22 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D42" s="2">
         <v>44166.44481481481</v>
       </c>
+      <c r="E42" s="2">
+        <v>44172.59908564815</v>
+      </c>
       <c r="F42" s="3" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="G42" t="s">
-        <v>392</v>
+        <v>557</v>
       </c>
       <c r="H42" t="s">
-        <v>552</v>
+        <v>796</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3387,19 +4371,19 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D43" s="2">
         <v>44166.445</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="G43" t="s">
-        <v>393</v>
+        <v>558</v>
       </c>
       <c r="H43" t="s">
-        <v>553</v>
+        <v>797</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3410,19 +4394,19 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D44" s="2">
         <v>44166.44560185185</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="G44" t="s">
-        <v>394</v>
+        <v>559</v>
       </c>
       <c r="H44" t="s">
-        <v>554</v>
+        <v>798</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3433,19 +4417,19 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D45" s="2">
         <v>44166.44706018519</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="G45" t="s">
-        <v>395</v>
+        <v>560</v>
       </c>
       <c r="H45" t="s">
-        <v>555</v>
+        <v>799</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3456,19 +4440,19 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D46" s="2">
         <v>44166.44721064815</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>236</v>
+        <v>322</v>
       </c>
       <c r="G46" t="s">
-        <v>396</v>
+        <v>561</v>
       </c>
       <c r="H46" t="s">
-        <v>556</v>
+        <v>800</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3479,19 +4463,19 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D47" s="2">
         <v>44166.44789351852</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="G47" t="s">
-        <v>397</v>
+        <v>562</v>
       </c>
       <c r="H47" t="s">
-        <v>557</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3502,19 +4486,19 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D48" s="2">
         <v>44166.44826388889</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="G48" t="s">
-        <v>398</v>
+        <v>563</v>
       </c>
       <c r="H48" t="s">
-        <v>558</v>
+        <v>802</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3525,19 +4509,19 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D49" s="2">
         <v>44166.44864583333</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="G49" t="s">
-        <v>399</v>
+        <v>564</v>
       </c>
       <c r="H49" t="s">
-        <v>559</v>
+        <v>803</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3548,19 +4532,19 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D50" s="2">
         <v>44166.55384259259</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="G50" t="s">
-        <v>400</v>
+        <v>565</v>
       </c>
       <c r="H50" t="s">
-        <v>560</v>
+        <v>804</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3571,19 +4555,22 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D51" s="2">
         <v>44166.55712962963</v>
       </c>
+      <c r="E51" s="2">
+        <v>44172.48101851852</v>
+      </c>
       <c r="F51" s="3" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="G51" t="s">
-        <v>401</v>
+        <v>566</v>
       </c>
       <c r="H51" t="s">
-        <v>561</v>
+        <v>805</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3594,19 +4581,19 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="D52" s="2">
         <v>44166.63159722222</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="G52" t="s">
-        <v>402</v>
+        <v>567</v>
       </c>
       <c r="H52" t="s">
-        <v>562</v>
+        <v>806</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3617,19 +4604,19 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="D53" s="2">
         <v>44166.64409722222</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="G53" t="s">
-        <v>403</v>
+        <v>568</v>
       </c>
       <c r="H53" t="s">
-        <v>563</v>
+        <v>807</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3640,19 +4627,19 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="D54" s="2">
         <v>44166.65164351852</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="G54" t="s">
-        <v>404</v>
+        <v>569</v>
       </c>
       <c r="H54" t="s">
-        <v>564</v>
+        <v>808</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3663,19 +4650,22 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="D55" s="2">
         <v>44166.65960648148</v>
       </c>
+      <c r="E55" s="2">
+        <v>44172.57158564815</v>
+      </c>
       <c r="F55" s="3" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="G55" t="s">
-        <v>405</v>
+        <v>570</v>
       </c>
       <c r="H55" t="s">
-        <v>565</v>
+        <v>809</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3686,19 +4676,19 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="D56" s="2">
         <v>44166.66</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="G56" t="s">
-        <v>406</v>
+        <v>571</v>
       </c>
       <c r="H56" t="s">
-        <v>566</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3709,19 +4699,19 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D57" s="2">
         <v>44167.38243055555</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="G57" t="s">
-        <v>407</v>
+        <v>572</v>
       </c>
       <c r="H57" t="s">
-        <v>567</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3732,19 +4722,22 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D58" s="2">
         <v>44167.43989583333</v>
       </c>
+      <c r="E58" s="2">
+        <v>44172.63394675926</v>
+      </c>
       <c r="F58" s="3" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="G58" t="s">
-        <v>408</v>
+        <v>573</v>
       </c>
       <c r="H58" t="s">
-        <v>568</v>
+        <v>812</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3755,19 +4748,19 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="D59" s="2">
         <v>44167.44108796296</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>249</v>
+        <v>335</v>
       </c>
       <c r="G59" t="s">
-        <v>409</v>
+        <v>574</v>
       </c>
       <c r="H59" t="s">
-        <v>569</v>
+        <v>813</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3778,19 +4771,19 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="D60" s="2">
         <v>44167.44489583333</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>250</v>
+        <v>336</v>
       </c>
       <c r="G60" t="s">
-        <v>410</v>
+        <v>575</v>
       </c>
       <c r="H60" t="s">
-        <v>570</v>
+        <v>814</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3801,19 +4794,19 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="D61" s="2">
         <v>44167.55471064815</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="G61" t="s">
-        <v>411</v>
+        <v>576</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>815</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3824,19 +4817,22 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="D62" s="2">
         <v>44167.55510416667</v>
       </c>
+      <c r="E62" s="2">
+        <v>44172.52945601852</v>
+      </c>
       <c r="F62" s="3" t="s">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="G62" t="s">
-        <v>412</v>
+        <v>577</v>
       </c>
       <c r="H62" t="s">
-        <v>572</v>
+        <v>816</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3847,19 +4843,19 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="D63" s="2">
         <v>44167.55866898148</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="G63" t="s">
-        <v>413</v>
+        <v>578</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3870,19 +4866,22 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D64" s="2">
         <v>44167.56696759259</v>
       </c>
+      <c r="E64" s="2">
+        <v>44172.54350694444</v>
+      </c>
       <c r="F64" s="3" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="G64" t="s">
-        <v>414</v>
+        <v>579</v>
       </c>
       <c r="H64" t="s">
-        <v>574</v>
+        <v>818</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3893,19 +4892,19 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D65" s="2">
         <v>44167.56759259259</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="G65" t="s">
-        <v>415</v>
+        <v>580</v>
       </c>
       <c r="H65" t="s">
-        <v>575</v>
+        <v>819</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3916,19 +4915,19 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D66" s="2">
         <v>44167.57070601852</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c r="G66" t="s">
-        <v>416</v>
+        <v>581</v>
       </c>
       <c r="H66" t="s">
-        <v>576</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3939,19 +4938,22 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D67" s="2">
         <v>44167.5739699074</v>
       </c>
+      <c r="E67" s="2">
+        <v>44172.57832175926</v>
+      </c>
       <c r="F67" s="3" t="s">
-        <v>257</v>
+        <v>343</v>
       </c>
       <c r="G67" t="s">
-        <v>417</v>
+        <v>582</v>
       </c>
       <c r="H67" t="s">
-        <v>577</v>
+        <v>821</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3962,19 +4964,19 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="D68" s="2">
         <v>44167.57603009259</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="G68" t="s">
-        <v>418</v>
+        <v>583</v>
       </c>
       <c r="H68" t="s">
-        <v>578</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3985,19 +4987,19 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D69" s="2">
         <v>44168.25788194445</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="G69" t="s">
-        <v>419</v>
+        <v>584</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>823</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4008,19 +5010,19 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D70" s="2">
         <v>44168.25916666666</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>260</v>
+        <v>346</v>
       </c>
       <c r="G70" t="s">
-        <v>420</v>
+        <v>585</v>
       </c>
       <c r="H70" t="s">
-        <v>580</v>
+        <v>824</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4031,19 +5033,19 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D71" s="2">
         <v>44168.25944444445</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>261</v>
+        <v>347</v>
       </c>
       <c r="G71" t="s">
-        <v>421</v>
+        <v>586</v>
       </c>
       <c r="H71" t="s">
-        <v>581</v>
+        <v>825</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4054,19 +5056,19 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D72" s="2">
         <v>44168.25969907407</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="G72" t="s">
-        <v>422</v>
+        <v>587</v>
       </c>
       <c r="H72" t="s">
-        <v>582</v>
+        <v>826</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4077,19 +5079,19 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D73" s="2">
         <v>44168.2602662037</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="G73" t="s">
-        <v>423</v>
+        <v>588</v>
       </c>
       <c r="H73" t="s">
-        <v>583</v>
+        <v>827</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4100,19 +5102,19 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D74" s="2">
         <v>44168.26045138889</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="G74" t="s">
-        <v>424</v>
+        <v>589</v>
       </c>
       <c r="H74" t="s">
-        <v>584</v>
+        <v>828</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4123,19 +5125,19 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="D75" s="2">
         <v>44168.2627662037</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="G75" t="s">
-        <v>425</v>
+        <v>590</v>
       </c>
       <c r="H75" t="s">
-        <v>585</v>
+        <v>829</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4146,19 +5148,19 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D76" s="2">
         <v>44168.26612268519</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="G76" t="s">
-        <v>426</v>
+        <v>591</v>
       </c>
       <c r="H76" t="s">
-        <v>586</v>
+        <v>830</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4169,19 +5171,19 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D77" s="2">
         <v>44168.26646990741</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="G77" t="s">
-        <v>427</v>
+        <v>592</v>
       </c>
       <c r="H77" t="s">
-        <v>587</v>
+        <v>831</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4192,19 +5194,19 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D78" s="2">
         <v>44168.26678240741</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="G78" t="s">
-        <v>428</v>
+        <v>593</v>
       </c>
       <c r="H78" t="s">
-        <v>588</v>
+        <v>832</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4215,19 +5217,19 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D79" s="2">
         <v>44168.26752314815</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="G79" t="s">
-        <v>429</v>
+        <v>594</v>
       </c>
       <c r="H79" t="s">
-        <v>589</v>
+        <v>833</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4238,19 +5240,19 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D80" s="2">
         <v>44168.26785879629</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="G80" t="s">
-        <v>430</v>
+        <v>595</v>
       </c>
       <c r="H80" t="s">
-        <v>590</v>
+        <v>834</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4261,19 +5263,19 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D81" s="2">
         <v>44168.268125</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="G81" t="s">
-        <v>431</v>
+        <v>596</v>
       </c>
       <c r="H81" t="s">
-        <v>591</v>
+        <v>835</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4284,19 +5286,19 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D82" s="2">
         <v>44168.26850694444</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="G82" t="s">
-        <v>432</v>
+        <v>597</v>
       </c>
       <c r="H82" t="s">
-        <v>592</v>
+        <v>836</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4307,19 +5309,19 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D83" s="2">
         <v>44168.26869212963</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="G83" t="s">
-        <v>433</v>
+        <v>598</v>
       </c>
       <c r="H83" t="s">
-        <v>593</v>
+        <v>837</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4330,19 +5332,19 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D84" s="2">
         <v>44168.37050925926</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="G84" t="s">
-        <v>434</v>
+        <v>599</v>
       </c>
       <c r="H84" t="s">
-        <v>594</v>
+        <v>838</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4353,19 +5355,19 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D85" s="2">
         <v>44168.37760416666</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G85" t="s">
-        <v>435</v>
+        <v>600</v>
       </c>
       <c r="H85" t="s">
-        <v>595</v>
+        <v>839</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4376,19 +5378,22 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D86" s="2">
         <v>44168.37846064815</v>
       </c>
+      <c r="E86" s="2">
+        <v>44172.52945601852</v>
+      </c>
       <c r="F86" s="3" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="G86" t="s">
-        <v>436</v>
+        <v>601</v>
       </c>
       <c r="H86" t="s">
-        <v>596</v>
+        <v>840</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4399,19 +5404,19 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D87" s="2">
         <v>44168.37902777778</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="G87" t="s">
-        <v>437</v>
+        <v>602</v>
       </c>
       <c r="H87" t="s">
-        <v>597</v>
+        <v>841</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4422,19 +5427,22 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="D88" s="2">
         <v>44168.38280092592</v>
       </c>
+      <c r="E88" s="2">
+        <v>44172.59211805555</v>
+      </c>
       <c r="F88" s="3" t="s">
-        <v>278</v>
+        <v>364</v>
       </c>
       <c r="G88" t="s">
-        <v>438</v>
+        <v>603</v>
       </c>
       <c r="H88" t="s">
-        <v>598</v>
+        <v>842</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4445,19 +5453,19 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D89" s="2">
         <v>44168.56138888889</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="G89" t="s">
-        <v>439</v>
+        <v>604</v>
       </c>
       <c r="H89" t="s">
-        <v>599</v>
+        <v>843</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4468,19 +5476,19 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D90" s="2">
         <v>44168.56385416666</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="G90" t="s">
-        <v>440</v>
+        <v>605</v>
       </c>
       <c r="H90" t="s">
-        <v>600</v>
+        <v>844</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4491,19 +5499,22 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D91" s="2">
         <v>44168.56454861111</v>
       </c>
+      <c r="E91" s="2">
+        <v>44172.64771990741</v>
+      </c>
       <c r="F91" s="3" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="G91" t="s">
-        <v>441</v>
+        <v>606</v>
       </c>
       <c r="H91" t="s">
-        <v>601</v>
+        <v>845</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4514,19 +5525,19 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D92" s="2">
         <v>44168.56550925926</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>282</v>
+        <v>368</v>
       </c>
       <c r="G92" t="s">
-        <v>442</v>
+        <v>607</v>
       </c>
       <c r="H92" t="s">
-        <v>602</v>
+        <v>846</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4537,19 +5548,19 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="D93" s="2">
         <v>44168.63456018519</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="G93" t="s">
-        <v>443</v>
+        <v>608</v>
       </c>
       <c r="H93" t="s">
-        <v>603</v>
+        <v>847</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4560,19 +5571,19 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="D94" s="2">
         <v>44168.64291666666</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>284</v>
+        <v>370</v>
       </c>
       <c r="G94" t="s">
-        <v>444</v>
+        <v>609</v>
       </c>
       <c r="H94" t="s">
-        <v>604</v>
+        <v>848</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4583,19 +5594,19 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="D95" s="2">
         <v>44168.64513888889</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
       <c r="G95" t="s">
-        <v>445</v>
+        <v>610</v>
       </c>
       <c r="H95" t="s">
-        <v>605</v>
+        <v>849</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4606,19 +5617,19 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D96" s="2">
         <v>44168.64979166666</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="G96" t="s">
-        <v>446</v>
+        <v>611</v>
       </c>
       <c r="H96" t="s">
-        <v>606</v>
+        <v>850</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4629,19 +5640,22 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D97" s="2">
         <v>44168.65001157407</v>
       </c>
+      <c r="E97" s="2">
+        <v>44172.48797453703</v>
+      </c>
       <c r="F97" s="3" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="G97" t="s">
-        <v>447</v>
+        <v>612</v>
       </c>
       <c r="H97" t="s">
-        <v>607</v>
+        <v>851</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4652,19 +5666,19 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D98" s="2">
         <v>44168.65273148148</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="G98" t="s">
-        <v>448</v>
+        <v>613</v>
       </c>
       <c r="H98" t="s">
-        <v>608</v>
+        <v>852</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4675,19 +5689,22 @@
         <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="D99" s="2">
         <v>44169.36002314815</v>
       </c>
+      <c r="E99" s="2">
+        <v>44172.42543981481</v>
+      </c>
       <c r="F99" s="3" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="G99" t="s">
-        <v>449</v>
+        <v>614</v>
       </c>
       <c r="H99" t="s">
-        <v>609</v>
+        <v>853</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4698,19 +5715,19 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D100" s="2">
         <v>44169.3615625</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="G100" t="s">
-        <v>450</v>
+        <v>615</v>
       </c>
       <c r="H100" t="s">
-        <v>610</v>
+        <v>854</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4721,19 +5738,22 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D101" s="2">
         <v>44169.36311342593</v>
       </c>
+      <c r="E101" s="2">
+        <v>44172.39770833333</v>
+      </c>
       <c r="F101" s="3" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="G101" t="s">
-        <v>451</v>
+        <v>616</v>
       </c>
       <c r="H101" t="s">
-        <v>611</v>
+        <v>855</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4744,19 +5764,19 @@
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D102" s="2">
         <v>44169.36329861111</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="G102" t="s">
-        <v>452</v>
+        <v>617</v>
       </c>
       <c r="H102" t="s">
-        <v>612</v>
+        <v>856</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4767,19 +5787,19 @@
         <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D103" s="2">
         <v>44169.36495370371</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="G103" t="s">
-        <v>453</v>
+        <v>618</v>
       </c>
       <c r="H103" t="s">
-        <v>613</v>
+        <v>857</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4790,19 +5810,19 @@
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D104" s="2">
         <v>44169.36657407408</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="G104" t="s">
-        <v>454</v>
+        <v>619</v>
       </c>
       <c r="H104" t="s">
-        <v>614</v>
+        <v>858</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4813,19 +5833,19 @@
         <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D105" s="2">
         <v>44169.36724537037</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="G105" t="s">
-        <v>455</v>
+        <v>620</v>
       </c>
       <c r="H105" t="s">
-        <v>615</v>
+        <v>859</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4836,19 +5856,19 @@
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D106" s="2">
         <v>44169.36739583333</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="G106" t="s">
-        <v>456</v>
+        <v>621</v>
       </c>
       <c r="H106" t="s">
-        <v>616</v>
+        <v>860</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4859,19 +5879,19 @@
         <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D107" s="2">
         <v>44169.36800925926</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="G107" t="s">
-        <v>457</v>
+        <v>622</v>
       </c>
       <c r="H107" t="s">
-        <v>617</v>
+        <v>861</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4882,19 +5902,19 @@
         <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D108" s="2">
         <v>44169.36972222223</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="G108" t="s">
-        <v>458</v>
+        <v>623</v>
       </c>
       <c r="H108" t="s">
-        <v>618</v>
+        <v>862</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4905,19 +5925,22 @@
         <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="D109" s="2">
         <v>44169.37415509259</v>
       </c>
+      <c r="E109" s="2">
+        <v>44172.58519675926</v>
+      </c>
       <c r="F109" s="3" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="G109" t="s">
-        <v>459</v>
+        <v>624</v>
       </c>
       <c r="H109" t="s">
-        <v>619</v>
+        <v>863</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4928,19 +5951,22 @@
         <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="D110" s="2">
         <v>44169.37527777778</v>
       </c>
+      <c r="E110" s="2">
+        <v>44172.61253472222</v>
+      </c>
       <c r="F110" s="3" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="G110" t="s">
-        <v>460</v>
+        <v>625</v>
       </c>
       <c r="H110" t="s">
-        <v>620</v>
+        <v>864</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4951,19 +5977,19 @@
         <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="D111" s="2">
         <v>44169.3790162037</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="G111" t="s">
-        <v>461</v>
+        <v>626</v>
       </c>
       <c r="H111" t="s">
-        <v>621</v>
+        <v>865</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4974,19 +6000,19 @@
         <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D112" s="2">
         <v>44169.38958333333</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>302</v>
+        <v>388</v>
       </c>
       <c r="G112" t="s">
-        <v>462</v>
+        <v>627</v>
       </c>
       <c r="H112" t="s">
-        <v>622</v>
+        <v>866</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4997,19 +6023,22 @@
         <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="D113" s="2">
         <v>44169.39181712963</v>
       </c>
+      <c r="E113" s="2">
+        <v>44172.58519675926</v>
+      </c>
       <c r="F113" s="3" t="s">
-        <v>303</v>
+        <v>389</v>
       </c>
       <c r="G113" t="s">
-        <v>463</v>
+        <v>628</v>
       </c>
       <c r="H113" t="s">
-        <v>623</v>
+        <v>867</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5020,19 +6049,22 @@
         <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="D114" s="2">
         <v>44169.39200231482</v>
       </c>
+      <c r="E114" s="2">
+        <v>44172.39770833333</v>
+      </c>
       <c r="F114" s="3" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="G114" t="s">
-        <v>464</v>
+        <v>629</v>
       </c>
       <c r="H114" t="s">
-        <v>624</v>
+        <v>868</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5043,19 +6075,19 @@
         <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="D115" s="2">
         <v>44169.42633101852</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="G115" t="s">
-        <v>465</v>
+        <v>630</v>
       </c>
       <c r="H115" t="s">
-        <v>625</v>
+        <v>869</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5066,19 +6098,19 @@
         <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="D116" s="2">
         <v>44169.42652777778</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>306</v>
+        <v>392</v>
       </c>
       <c r="G116" t="s">
-        <v>466</v>
+        <v>631</v>
       </c>
       <c r="H116" t="s">
-        <v>626</v>
+        <v>870</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5089,19 +6121,19 @@
         <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="D117" s="2">
         <v>44169.4268287037</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="G117" t="s">
-        <v>467</v>
+        <v>632</v>
       </c>
       <c r="H117" t="s">
-        <v>627</v>
+        <v>871</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5112,19 +6144,19 @@
         <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="D118" s="2">
         <v>44169.43472222222</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="G118" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="H118" t="s">
-        <v>628</v>
+        <v>872</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5135,19 +6167,19 @@
         <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="D119" s="2">
         <v>44169.4378125</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="G119" t="s">
-        <v>469</v>
+        <v>634</v>
       </c>
       <c r="H119" t="s">
-        <v>629</v>
+        <v>873</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5158,19 +6190,19 @@
         <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="D120" s="2">
         <v>44169.43844907408</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="G120" t="s">
-        <v>470</v>
+        <v>635</v>
       </c>
       <c r="H120" t="s">
-        <v>630</v>
+        <v>874</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5181,19 +6213,19 @@
         <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D121" s="2">
         <v>44169.44126157407</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="G121" t="s">
-        <v>471</v>
+        <v>636</v>
       </c>
       <c r="H121" t="s">
-        <v>631</v>
+        <v>875</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5204,19 +6236,22 @@
         <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="D122" s="2">
         <v>44169.44166666667</v>
       </c>
+      <c r="E122" s="2">
+        <v>44172.55052083333</v>
+      </c>
       <c r="F122" s="3" t="s">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="G122" t="s">
-        <v>472</v>
+        <v>637</v>
       </c>
       <c r="H122" t="s">
-        <v>632</v>
+        <v>876</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5227,19 +6262,22 @@
         <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D123" s="2">
         <v>44169.44709490741</v>
       </c>
+      <c r="E123" s="2">
+        <v>44172.46731481481</v>
+      </c>
       <c r="F123" s="3" t="s">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="G123" t="s">
-        <v>473</v>
+        <v>638</v>
       </c>
       <c r="H123" t="s">
-        <v>633</v>
+        <v>877</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5250,19 +6288,22 @@
         <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D124" s="2">
         <v>44169.4474537037</v>
       </c>
+      <c r="E124" s="2">
+        <v>44172.54350694444</v>
+      </c>
       <c r="F124" s="3" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="G124" t="s">
-        <v>474</v>
+        <v>639</v>
       </c>
       <c r="H124" t="s">
-        <v>634</v>
+        <v>878</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5273,19 +6314,19 @@
         <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="D125" s="2">
         <v>44169.54765046296</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>315</v>
+        <v>401</v>
       </c>
       <c r="G125" t="s">
-        <v>475</v>
+        <v>640</v>
       </c>
       <c r="H125" t="s">
-        <v>635</v>
+        <v>879</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5296,19 +6337,19 @@
         <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D126" s="2">
         <v>44169.55365740741</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>316</v>
+        <v>402</v>
       </c>
       <c r="G126" t="s">
-        <v>476</v>
+        <v>641</v>
       </c>
       <c r="H126" t="s">
-        <v>636</v>
+        <v>880</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5319,19 +6360,22 @@
         <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="D127" s="2">
         <v>44169.55423611111</v>
       </c>
+      <c r="E127" s="2">
+        <v>44172.661875</v>
+      </c>
       <c r="F127" s="3" t="s">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="G127" t="s">
-        <v>477</v>
+        <v>642</v>
       </c>
       <c r="H127" t="s">
-        <v>637</v>
+        <v>881</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5342,19 +6386,22 @@
         <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D128" s="2">
         <v>44169.55640046296</v>
       </c>
+      <c r="E128" s="2">
+        <v>44172.52945601852</v>
+      </c>
       <c r="F128" s="3" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="G128" t="s">
-        <v>478</v>
+        <v>643</v>
       </c>
       <c r="H128" t="s">
-        <v>638</v>
+        <v>882</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5365,19 +6412,19 @@
         <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="D129" s="2">
         <v>44169.55736111111</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>319</v>
+        <v>405</v>
       </c>
       <c r="G129" t="s">
-        <v>479</v>
+        <v>644</v>
       </c>
       <c r="H129" t="s">
-        <v>639</v>
+        <v>883</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5388,19 +6435,19 @@
         <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D130" s="2">
         <v>44169.56736111111</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="G130" t="s">
-        <v>480</v>
+        <v>645</v>
       </c>
       <c r="H130" t="s">
-        <v>640</v>
+        <v>884</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5411,19 +6458,19 @@
         <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="D131" s="2">
         <v>44169.56824074074</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>321</v>
+        <v>407</v>
       </c>
       <c r="G131" t="s">
-        <v>481</v>
+        <v>646</v>
       </c>
       <c r="H131" t="s">
-        <v>641</v>
+        <v>885</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5434,19 +6481,19 @@
         <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="D132" s="2">
         <v>44169.57638888889</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="G132" t="s">
-        <v>482</v>
+        <v>647</v>
       </c>
       <c r="H132" t="s">
-        <v>642</v>
+        <v>886</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5457,19 +6504,22 @@
         <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="D133" s="2">
         <v>44169.57664351852</v>
       </c>
+      <c r="E133" s="2">
+        <v>44172.56440972222</v>
+      </c>
       <c r="F133" s="3" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="G133" t="s">
-        <v>483</v>
+        <v>648</v>
       </c>
       <c r="H133" t="s">
-        <v>643</v>
+        <v>887</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5480,19 +6530,22 @@
         <v>140</v>
       </c>
       <c r="C134" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D134" s="2">
         <v>44169.57831018518</v>
       </c>
+      <c r="E134" s="2">
+        <v>44172.58519675926</v>
+      </c>
       <c r="F134" s="3" t="s">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="G134" t="s">
-        <v>484</v>
+        <v>649</v>
       </c>
       <c r="H134" t="s">
-        <v>644</v>
+        <v>888</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5503,19 +6556,22 @@
         <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D135" s="2">
         <v>44169.57871527778</v>
       </c>
+      <c r="E135" s="2">
+        <v>44172.37688657407</v>
+      </c>
       <c r="F135" s="3" t="s">
-        <v>325</v>
+        <v>411</v>
       </c>
       <c r="G135" t="s">
-        <v>485</v>
+        <v>650</v>
       </c>
       <c r="H135" t="s">
-        <v>645</v>
+        <v>889</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5526,19 +6582,19 @@
         <v>142</v>
       </c>
       <c r="C136" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D136" s="2">
         <v>44169.57982638889</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="G136" t="s">
-        <v>486</v>
+        <v>651</v>
       </c>
       <c r="H136" t="s">
-        <v>646</v>
+        <v>890</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5549,19 +6605,22 @@
         <v>143</v>
       </c>
       <c r="C137" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D137" s="2">
         <v>44169.58009259259</v>
       </c>
+      <c r="E137" s="2">
+        <v>44172.48101851852</v>
+      </c>
       <c r="F137" s="3" t="s">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="G137" t="s">
-        <v>487</v>
+        <v>652</v>
       </c>
       <c r="H137" t="s">
-        <v>647</v>
+        <v>891</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5572,19 +6631,19 @@
         <v>144</v>
       </c>
       <c r="C138" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D138" s="2">
         <v>44169.58046296296</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
       <c r="G138" t="s">
-        <v>488</v>
+        <v>653</v>
       </c>
       <c r="H138" t="s">
-        <v>648</v>
+        <v>892</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5595,19 +6654,19 @@
         <v>145</v>
       </c>
       <c r="C139" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D139" s="2">
         <v>44169.58063657407</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="G139" t="s">
-        <v>489</v>
+        <v>654</v>
       </c>
       <c r="H139" t="s">
-        <v>649</v>
+        <v>893</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5618,19 +6677,22 @@
         <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D140" s="2">
         <v>44169.58083333333</v>
       </c>
+      <c r="E140" s="2">
+        <v>44172.661875</v>
+      </c>
       <c r="F140" s="3" t="s">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="G140" t="s">
-        <v>490</v>
+        <v>655</v>
       </c>
       <c r="H140" t="s">
-        <v>650</v>
+        <v>894</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5641,19 +6703,22 @@
         <v>147</v>
       </c>
       <c r="C141" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="D141" s="2">
         <v>44169.61425925926</v>
       </c>
+      <c r="E141" s="2">
+        <v>44172.62685185186</v>
+      </c>
       <c r="F141" s="3" t="s">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="G141" t="s">
-        <v>491</v>
+        <v>656</v>
       </c>
       <c r="H141" t="s">
-        <v>651</v>
+        <v>895</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5664,19 +6729,22 @@
         <v>148</v>
       </c>
       <c r="C142" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D142" s="2">
         <v>44169.61520833334</v>
       </c>
+      <c r="E142" s="2">
+        <v>44172.64771990741</v>
+      </c>
       <c r="F142" s="3" t="s">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="G142" t="s">
-        <v>492</v>
+        <v>657</v>
       </c>
       <c r="H142" t="s">
-        <v>652</v>
+        <v>896</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5687,19 +6755,19 @@
         <v>149</v>
       </c>
       <c r="C143" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D143" s="2">
         <v>44169.61887731482</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
       <c r="G143" t="s">
-        <v>493</v>
+        <v>658</v>
       </c>
       <c r="H143" t="s">
-        <v>653</v>
+        <v>897</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5710,19 +6778,19 @@
         <v>150</v>
       </c>
       <c r="C144" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D144" s="2">
         <v>44169.6190625</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>334</v>
+        <v>420</v>
       </c>
       <c r="G144" t="s">
-        <v>494</v>
+        <v>659</v>
       </c>
       <c r="H144" t="s">
-        <v>654</v>
+        <v>898</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5733,19 +6801,19 @@
         <v>151</v>
       </c>
       <c r="C145" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D145" s="2">
         <v>44169.61944444444</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>335</v>
+        <v>421</v>
       </c>
       <c r="G145" t="s">
-        <v>495</v>
+        <v>660</v>
       </c>
       <c r="H145" t="s">
-        <v>655</v>
+        <v>899</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5756,19 +6824,19 @@
         <v>152</v>
       </c>
       <c r="C146" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D146" s="2">
         <v>44169.61978009259</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="G146" t="s">
-        <v>496</v>
+        <v>661</v>
       </c>
       <c r="H146" t="s">
-        <v>656</v>
+        <v>900</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5779,19 +6847,19 @@
         <v>153</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="D147" s="2">
         <v>44169.62078703703</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>337</v>
+        <v>423</v>
       </c>
       <c r="G147" t="s">
-        <v>497</v>
+        <v>662</v>
       </c>
       <c r="H147" t="s">
-        <v>657</v>
+        <v>901</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5802,19 +6870,22 @@
         <v>154</v>
       </c>
       <c r="C148" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="D148" s="2">
         <v>44169.62101851852</v>
       </c>
+      <c r="E148" s="2">
+        <v>44172.45366898148</v>
+      </c>
       <c r="F148" s="3" t="s">
-        <v>338</v>
+        <v>424</v>
       </c>
       <c r="G148" t="s">
-        <v>498</v>
+        <v>663</v>
       </c>
       <c r="H148" t="s">
-        <v>658</v>
+        <v>902</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5825,19 +6896,19 @@
         <v>155</v>
       </c>
       <c r="C149" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="D149" s="2">
         <v>44169.62621527778</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="G149" t="s">
-        <v>499</v>
+        <v>664</v>
       </c>
       <c r="H149" t="s">
-        <v>659</v>
+        <v>903</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5848,19 +6919,19 @@
         <v>156</v>
       </c>
       <c r="C150" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="D150" s="2">
         <v>44169.62827546296</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="G150" t="s">
-        <v>500</v>
+        <v>665</v>
       </c>
       <c r="H150" t="s">
-        <v>660</v>
+        <v>904</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5871,19 +6942,22 @@
         <v>157</v>
       </c>
       <c r="C151" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="D151" s="2">
         <v>44169.62868055556</v>
       </c>
+      <c r="E151" s="2">
+        <v>44172.56440972222</v>
+      </c>
       <c r="F151" s="3" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="G151" t="s">
-        <v>501</v>
+        <v>666</v>
       </c>
       <c r="H151" t="s">
-        <v>661</v>
+        <v>905</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5894,19 +6968,22 @@
         <v>158</v>
       </c>
       <c r="C152" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="D152" s="2">
         <v>44169.62918981481</v>
       </c>
+      <c r="E152" s="2">
+        <v>44172.39770833333</v>
+      </c>
       <c r="F152" s="3" t="s">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="G152" t="s">
-        <v>502</v>
+        <v>667</v>
       </c>
       <c r="H152" t="s">
-        <v>662</v>
+        <v>906</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5917,19 +6994,19 @@
         <v>159</v>
       </c>
       <c r="C153" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="D153" s="2">
         <v>44169.62980324074</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="G153" t="s">
-        <v>503</v>
+        <v>668</v>
       </c>
       <c r="H153" t="s">
-        <v>663</v>
+        <v>907</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5940,19 +7017,22 @@
         <v>160</v>
       </c>
       <c r="C154" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="D154" s="2">
         <v>44169.63193287037</v>
       </c>
+      <c r="E154" s="2">
+        <v>44172.37688657407</v>
+      </c>
       <c r="F154" s="3" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="G154" t="s">
-        <v>504</v>
+        <v>669</v>
       </c>
       <c r="H154" t="s">
-        <v>664</v>
+        <v>908</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5963,19 +7043,19 @@
         <v>161</v>
       </c>
       <c r="C155" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="D155" s="2">
         <v>44169.63460648148</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="G155" t="s">
-        <v>505</v>
+        <v>670</v>
       </c>
       <c r="H155" t="s">
-        <v>665</v>
+        <v>909</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5986,19 +7066,22 @@
         <v>162</v>
       </c>
       <c r="C156" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="D156" s="2">
         <v>44169.63493055556</v>
       </c>
+      <c r="E156" s="2">
+        <v>44172.59908564815</v>
+      </c>
       <c r="F156" s="3" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="G156" t="s">
-        <v>506</v>
+        <v>671</v>
       </c>
       <c r="H156" t="s">
-        <v>666</v>
+        <v>910</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6009,19 +7092,22 @@
         <v>163</v>
       </c>
       <c r="C157" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D157" s="2">
         <v>44169.64019675926</v>
       </c>
+      <c r="E157" s="2">
+        <v>44172.62685185186</v>
+      </c>
       <c r="F157" s="3" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="G157" t="s">
-        <v>507</v>
+        <v>672</v>
       </c>
       <c r="H157" t="s">
-        <v>667</v>
+        <v>911</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6032,19 +7118,19 @@
         <v>164</v>
       </c>
       <c r="C158" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="D158" s="2">
         <v>44169.64153935185</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="G158" t="s">
-        <v>508</v>
+        <v>673</v>
       </c>
       <c r="H158" t="s">
-        <v>668</v>
+        <v>912</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6055,19 +7141,19 @@
         <v>165</v>
       </c>
       <c r="C159" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="D159" s="2">
         <v>44169.64171296296</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="G159" t="s">
-        <v>509</v>
+        <v>674</v>
       </c>
       <c r="H159" t="s">
-        <v>669</v>
+        <v>913</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6078,19 +7164,22 @@
         <v>166</v>
       </c>
       <c r="C160" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D160" s="2">
         <v>44169.64542824074</v>
       </c>
+      <c r="E160" s="2">
+        <v>44172.64079861111</v>
+      </c>
       <c r="F160" s="3" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="G160" t="s">
-        <v>510</v>
+        <v>675</v>
       </c>
       <c r="H160" t="s">
-        <v>670</v>
+        <v>914</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6101,19 +7190,1926 @@
         <v>167</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="D161" s="2">
         <v>44169.64560185185</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="G161" t="s">
+        <v>676</v>
+      </c>
+      <c r="H161" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>168</v>
+      </c>
+      <c r="C162" t="s">
+        <v>253</v>
+      </c>
+      <c r="D162" s="2">
+        <v>44172.35864583333</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44172.57832175926</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G162" t="s">
+        <v>677</v>
+      </c>
+      <c r="H162" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>169</v>
+      </c>
+      <c r="C163" t="s">
+        <v>252</v>
+      </c>
+      <c r="D163" s="2">
+        <v>44172.3622337963</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44172.42543981481</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G163" t="s">
+        <v>678</v>
+      </c>
+      <c r="H163" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>170</v>
+      </c>
+      <c r="C164" t="s">
+        <v>263</v>
+      </c>
+      <c r="D164" s="2">
+        <v>44172.36599537037</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44172.64079861111</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G164" t="s">
+        <v>679</v>
+      </c>
+      <c r="H164" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>171</v>
+      </c>
+      <c r="C165" t="s">
+        <v>270</v>
+      </c>
+      <c r="D165" s="2">
+        <v>44172.37116898148</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44172.44670138889</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G165" t="s">
+        <v>680</v>
+      </c>
+      <c r="H165" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>172</v>
+      </c>
+      <c r="C166" t="s">
+        <v>255</v>
+      </c>
+      <c r="D166" s="2">
+        <v>44172.37363425926</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G166" t="s">
+        <v>681</v>
+      </c>
+      <c r="H166" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>173</v>
+      </c>
+      <c r="C167" t="s">
+        <v>255</v>
+      </c>
+      <c r="D167" s="2">
+        <v>44172.37380787037</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G167" t="s">
+        <v>682</v>
+      </c>
+      <c r="H167" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>174</v>
+      </c>
+      <c r="C168" t="s">
+        <v>247</v>
+      </c>
+      <c r="D168" s="2">
+        <v>44172.37664351852</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44172.64771990741</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G168" t="s">
+        <v>683</v>
+      </c>
+      <c r="H168" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>175</v>
+      </c>
+      <c r="C169" t="s">
+        <v>247</v>
+      </c>
+      <c r="D169" s="2">
+        <v>44172.37701388889</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44172.68248842593</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G169" t="s">
+        <v>684</v>
+      </c>
+      <c r="H169" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>176</v>
+      </c>
+      <c r="C170" t="s">
+        <v>246</v>
+      </c>
+      <c r="D170" s="2">
+        <v>44172.3790162037</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44172.49484953703</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G170" t="s">
+        <v>685</v>
+      </c>
+      <c r="H170" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>177</v>
+      </c>
+      <c r="C171" t="s">
+        <v>246</v>
+      </c>
+      <c r="D171" s="2">
+        <v>44172.37978009259</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44172.67570601852</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G171" t="s">
+        <v>686</v>
+      </c>
+      <c r="H171" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>178</v>
+      </c>
+      <c r="C172" t="s">
+        <v>246</v>
+      </c>
+      <c r="D172" s="2">
+        <v>44172.3803125</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G172" t="s">
+        <v>687</v>
+      </c>
+      <c r="H172" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>179</v>
+      </c>
+      <c r="C173" t="s">
+        <v>246</v>
+      </c>
+      <c r="D173" s="2">
+        <v>44172.38069444444</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44172.52945601852</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G173" t="s">
+        <v>688</v>
+      </c>
+      <c r="H173" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>180</v>
+      </c>
+      <c r="C174" t="s">
+        <v>246</v>
+      </c>
+      <c r="D174" s="2">
+        <v>44172.38094907408</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44172.46731481481</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G174" t="s">
+        <v>689</v>
+      </c>
+      <c r="H174" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>181</v>
+      </c>
+      <c r="C175" t="s">
+        <v>246</v>
+      </c>
+      <c r="D175" s="2">
+        <v>44172.3828587963</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44172.5575462963</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G175" t="s">
+        <v>690</v>
+      </c>
+      <c r="H175" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>182</v>
+      </c>
+      <c r="C176" t="s">
+        <v>246</v>
+      </c>
+      <c r="D176" s="2">
+        <v>44172.38331018519</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G176" t="s">
+        <v>691</v>
+      </c>
+      <c r="H176" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>183</v>
+      </c>
+      <c r="C177" t="s">
+        <v>246</v>
+      </c>
+      <c r="D177" s="2">
+        <v>44172.38540509259</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G177" t="s">
+        <v>692</v>
+      </c>
+      <c r="H177" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>184</v>
+      </c>
+      <c r="C178" t="s">
+        <v>261</v>
+      </c>
+      <c r="D178" s="2">
+        <v>44172.38704861111</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44172.5575462963</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G178" t="s">
+        <v>693</v>
+      </c>
+      <c r="H178" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>185</v>
+      </c>
+      <c r="C179" t="s">
+        <v>261</v>
+      </c>
+      <c r="D179" s="2">
+        <v>44172.3872337963</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44172.43252314815</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G179" t="s">
+        <v>694</v>
+      </c>
+      <c r="H179" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>186</v>
+      </c>
+      <c r="C180" t="s">
+        <v>261</v>
+      </c>
+      <c r="D180" s="2">
+        <v>44172.38748842593</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44172.43950231482</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G180" t="s">
+        <v>695</v>
+      </c>
+      <c r="H180" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>187</v>
+      </c>
+      <c r="C181" t="s">
+        <v>248</v>
+      </c>
+      <c r="D181" s="2">
+        <v>44172.38975694445</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G181" t="s">
+        <v>696</v>
+      </c>
+      <c r="H181" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>188</v>
+      </c>
+      <c r="C182" t="s">
+        <v>248</v>
+      </c>
+      <c r="D182" s="2">
+        <v>44172.39078703704</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44172.58519675926</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G182" t="s">
+        <v>697</v>
+      </c>
+      <c r="H182" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>189</v>
+      </c>
+      <c r="C183" t="s">
+        <v>271</v>
+      </c>
+      <c r="D183" s="2">
+        <v>44172.42251157408</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G183" t="s">
+        <v>698</v>
+      </c>
+      <c r="H183" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>190</v>
+      </c>
+      <c r="C184" t="s">
+        <v>271</v>
+      </c>
+      <c r="D184" s="2">
+        <v>44172.42290509259</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G184" t="s">
+        <v>699</v>
+      </c>
+      <c r="H184" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>191</v>
+      </c>
+      <c r="C185" t="s">
+        <v>272</v>
+      </c>
+      <c r="D185" s="2">
+        <v>44172.42689814815</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44172.46030092592</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G185" t="s">
+        <v>700</v>
+      </c>
+      <c r="H185" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>192</v>
+      </c>
+      <c r="C186" t="s">
+        <v>249</v>
+      </c>
+      <c r="D186" s="2">
+        <v>44172.43039351852</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G186" t="s">
+        <v>701</v>
+      </c>
+      <c r="H186" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>193</v>
+      </c>
+      <c r="C187" t="s">
+        <v>273</v>
+      </c>
+      <c r="D187" s="2">
+        <v>44172.43502314815</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G187" t="s">
+        <v>702</v>
+      </c>
+      <c r="H187" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>194</v>
+      </c>
+      <c r="C188" t="s">
+        <v>273</v>
+      </c>
+      <c r="D188" s="2">
+        <v>44172.43559027778</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44172.57832175926</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G188" t="s">
+        <v>703</v>
+      </c>
+      <c r="H188" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>195</v>
+      </c>
+      <c r="C189" t="s">
+        <v>264</v>
+      </c>
+      <c r="D189" s="2">
+        <v>44172.43943287037</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G189" t="s">
+        <v>704</v>
+      </c>
+      <c r="H189" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>196</v>
+      </c>
+      <c r="C190" t="s">
+        <v>274</v>
+      </c>
+      <c r="D190" s="2">
+        <v>44172.44055555556</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44172.5575462963</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G190" t="s">
+        <v>705</v>
+      </c>
+      <c r="H190" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>197</v>
+      </c>
+      <c r="C191" t="s">
+        <v>275</v>
+      </c>
+      <c r="D191" s="2">
+        <v>44172.44206018518</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44172.55052083333</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G191" t="s">
+        <v>706</v>
+      </c>
+      <c r="H191" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>198</v>
+      </c>
+      <c r="C192" t="s">
+        <v>252</v>
+      </c>
+      <c r="D192" s="2">
+        <v>44172.44471064815</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G192" t="s">
+        <v>707</v>
+      </c>
+      <c r="H192" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>199</v>
+      </c>
+      <c r="C193" t="s">
+        <v>252</v>
+      </c>
+      <c r="D193" s="2">
+        <v>44172.44600694445</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44172.5365625</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G193" t="s">
+        <v>708</v>
+      </c>
+      <c r="H193" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>200</v>
+      </c>
+      <c r="C194" t="s">
+        <v>246</v>
+      </c>
+      <c r="D194" s="2">
+        <v>44172.54777777778</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G194" t="s">
+        <v>709</v>
+      </c>
+      <c r="H194" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>201</v>
+      </c>
+      <c r="C195" t="s">
+        <v>246</v>
+      </c>
+      <c r="D195" s="2">
+        <v>44172.54819444445</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G195" t="s">
+        <v>710</v>
+      </c>
+      <c r="H195" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>202</v>
+      </c>
+      <c r="C196" t="s">
+        <v>246</v>
+      </c>
+      <c r="D196" s="2">
+        <v>44172.54844907407</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44172.67570601852</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G196" t="s">
+        <v>711</v>
+      </c>
+      <c r="H196" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>203</v>
+      </c>
+      <c r="C197" t="s">
+        <v>246</v>
+      </c>
+      <c r="D197" s="2">
+        <v>44172.54872685186</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44172.55052083333</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G197" t="s">
+        <v>712</v>
+      </c>
+      <c r="H197" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>204</v>
+      </c>
+      <c r="C198" t="s">
+        <v>246</v>
+      </c>
+      <c r="D198" s="2">
+        <v>44172.5502662037</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G198" t="s">
+        <v>713</v>
+      </c>
+      <c r="H198" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>205</v>
+      </c>
+      <c r="C199" t="s">
+        <v>246</v>
+      </c>
+      <c r="D199" s="2">
+        <v>44172.55082175926</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G199" t="s">
+        <v>714</v>
+      </c>
+      <c r="H199" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>206</v>
+      </c>
+      <c r="C200" t="s">
+        <v>246</v>
+      </c>
+      <c r="D200" s="2">
+        <v>44172.55105324074</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G200" t="s">
+        <v>715</v>
+      </c>
+      <c r="H200" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>207</v>
+      </c>
+      <c r="C201" t="s">
+        <v>247</v>
+      </c>
+      <c r="D201" s="2">
+        <v>44172.5522337963</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44172.61253472222</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G201" t="s">
+        <v>716</v>
+      </c>
+      <c r="H201" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>208</v>
+      </c>
+      <c r="C202" t="s">
+        <v>247</v>
+      </c>
+      <c r="D202" s="2">
+        <v>44172.55321759259</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44172.61253472222</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G202" t="s">
+        <v>717</v>
+      </c>
+      <c r="H202" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" t="s">
+        <v>255</v>
+      </c>
+      <c r="D203" s="2">
+        <v>44172.55681712963</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G203" t="s">
+        <v>718</v>
+      </c>
+      <c r="H203" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>103</v>
+      </c>
+      <c r="C204" t="s">
+        <v>270</v>
+      </c>
+      <c r="D204" s="2">
+        <v>44172.55990740741</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G204" t="s">
+        <v>719</v>
+      </c>
+      <c r="H204" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205" t="s">
+        <v>270</v>
+      </c>
+      <c r="D205" s="2">
+        <v>44172.56100694444</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44172.62685185186</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G205" t="s">
+        <v>720</v>
+      </c>
+      <c r="H205" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206" t="s">
+        <v>276</v>
+      </c>
+      <c r="D206" s="2">
+        <v>44172.56277777778</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44172.64771990741</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G206" t="s">
+        <v>721</v>
+      </c>
+      <c r="H206" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>212</v>
+      </c>
+      <c r="C207" t="s">
+        <v>276</v>
+      </c>
+      <c r="D207" s="2">
+        <v>44172.56363425926</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G207" t="s">
+        <v>722</v>
+      </c>
+      <c r="H207" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>213</v>
+      </c>
+      <c r="C208" t="s">
+        <v>276</v>
+      </c>
+      <c r="D208" s="2">
+        <v>44172.56380787037</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G208" t="s">
+        <v>723</v>
+      </c>
+      <c r="H208" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>214</v>
+      </c>
+      <c r="C209" t="s">
+        <v>264</v>
+      </c>
+      <c r="D209" s="2">
+        <v>44172.56771990741</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G209" t="s">
+        <v>724</v>
+      </c>
+      <c r="H209" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>215</v>
+      </c>
+      <c r="C210" t="s">
+        <v>264</v>
+      </c>
+      <c r="D210" s="2">
+        <v>44172.56892361111</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G210" t="s">
+        <v>725</v>
+      </c>
+      <c r="H210" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" t="s">
+        <v>259</v>
+      </c>
+      <c r="D211" s="2">
+        <v>44172.57067129629</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G211" t="s">
+        <v>726</v>
+      </c>
+      <c r="H211" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212" t="s">
+        <v>252</v>
+      </c>
+      <c r="D212" s="2">
+        <v>44172.57314814815</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G212" t="s">
+        <v>727</v>
+      </c>
+      <c r="H212" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213" t="s">
+        <v>252</v>
+      </c>
+      <c r="D213" s="2">
+        <v>44172.5735300926</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G213" t="s">
+        <v>728</v>
+      </c>
+      <c r="H213" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>219</v>
+      </c>
+      <c r="C214" t="s">
+        <v>252</v>
+      </c>
+      <c r="D214" s="2">
+        <v>44172.57375</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44172.6547337963</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G214" t="s">
+        <v>729</v>
+      </c>
+      <c r="H214" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>220</v>
+      </c>
+      <c r="C215" t="s">
+        <v>271</v>
+      </c>
+      <c r="D215" s="2">
+        <v>44172.57631944444</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G215" t="s">
+        <v>730</v>
+      </c>
+      <c r="H215" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>221</v>
+      </c>
+      <c r="C216" t="s">
+        <v>256</v>
+      </c>
+      <c r="D216" s="2">
+        <v>44172.62869212963</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G216" t="s">
+        <v>731</v>
+      </c>
+      <c r="H216" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>222</v>
+      </c>
+      <c r="C217" t="s">
+        <v>256</v>
+      </c>
+      <c r="D217" s="2">
+        <v>44172.62909722222</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G217" t="s">
+        <v>732</v>
+      </c>
+      <c r="H217" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>223</v>
+      </c>
+      <c r="C218" t="s">
+        <v>277</v>
+      </c>
+      <c r="D218" s="2">
+        <v>44172.6321875</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G218" t="s">
+        <v>733</v>
+      </c>
+      <c r="H218" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>224</v>
+      </c>
+      <c r="C219" t="s">
+        <v>277</v>
+      </c>
+      <c r="D219" s="2">
+        <v>44172.63245370371</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44172.67570601852</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G219" t="s">
+        <v>734</v>
+      </c>
+      <c r="H219" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>225</v>
+      </c>
+      <c r="C220" t="s">
+        <v>277</v>
+      </c>
+      <c r="D220" s="2">
+        <v>44172.63268518518</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G220" t="s">
+        <v>735</v>
+      </c>
+      <c r="H220" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>226</v>
+      </c>
+      <c r="C221" t="s">
+        <v>263</v>
+      </c>
+      <c r="D221" s="2">
+        <v>44172.63805555556</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G221" t="s">
+        <v>736</v>
+      </c>
+      <c r="H221" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>227</v>
+      </c>
+      <c r="C222" t="s">
+        <v>269</v>
+      </c>
+      <c r="D222" s="2">
+        <v>44172.64033564815</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G222" t="s">
+        <v>737</v>
+      </c>
+      <c r="H222" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223" t="s">
+        <v>269</v>
+      </c>
+      <c r="D223" s="2">
+        <v>44172.64112268519</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G223" t="s">
+        <v>738</v>
+      </c>
+      <c r="H223" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>229</v>
+      </c>
+      <c r="C224" t="s">
+        <v>269</v>
+      </c>
+      <c r="D224" s="2">
+        <v>44172.64208333333</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G224" t="s">
+        <v>739</v>
+      </c>
+      <c r="H224" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>230</v>
+      </c>
+      <c r="C225" t="s">
+        <v>250</v>
+      </c>
+      <c r="D225" s="2">
+        <v>44172.64552083334</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G225" t="s">
+        <v>740</v>
+      </c>
+      <c r="H225" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>231</v>
+      </c>
+      <c r="C226" t="s">
+        <v>273</v>
+      </c>
+      <c r="D226" s="2">
+        <v>44172.64744212963</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44172.68947916666</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G226" t="s">
+        <v>741</v>
+      </c>
+      <c r="H226" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>232</v>
+      </c>
+      <c r="C227" t="s">
+        <v>251</v>
+      </c>
+      <c r="D227" s="2">
+        <v>44172.65415509259</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44172.68248842593</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G227" t="s">
+        <v>742</v>
+      </c>
+      <c r="H227" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>233</v>
+      </c>
+      <c r="C228" t="s">
+        <v>251</v>
+      </c>
+      <c r="D228" s="2">
+        <v>44172.65469907408</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G228" t="s">
+        <v>743</v>
+      </c>
+      <c r="H228" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>234</v>
+      </c>
+      <c r="C229" t="s">
+        <v>252</v>
+      </c>
+      <c r="D229" s="2">
+        <v>44172.65680555555</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G229" t="s">
+        <v>744</v>
+      </c>
+      <c r="H229" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>235</v>
+      </c>
+      <c r="C230" t="s">
+        <v>252</v>
+      </c>
+      <c r="D230" s="2">
+        <v>44172.6571412037</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G230" t="s">
+        <v>745</v>
+      </c>
+      <c r="H230" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>236</v>
+      </c>
+      <c r="C231" t="s">
+        <v>252</v>
+      </c>
+      <c r="D231" s="2">
+        <v>44172.65737268519</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G231" t="s">
+        <v>746</v>
+      </c>
+      <c r="H231" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>237</v>
+      </c>
+      <c r="C232" t="s">
+        <v>252</v>
+      </c>
+      <c r="D232" s="2">
+        <v>44172.65777777778</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G232" t="s">
+        <v>747</v>
+      </c>
+      <c r="H232" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>238</v>
+      </c>
+      <c r="C233" t="s">
+        <v>252</v>
+      </c>
+      <c r="D233" s="2">
+        <v>44172.65846064815</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G233" t="s">
+        <v>748</v>
+      </c>
+      <c r="H233" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>239</v>
+      </c>
+      <c r="C234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D234" s="2">
+        <v>44172.65863425926</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G234" t="s">
+        <v>749</v>
+      </c>
+      <c r="H234" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>240</v>
+      </c>
+      <c r="C235" t="s">
+        <v>252</v>
+      </c>
+      <c r="D235" s="2">
+        <v>44172.65884259259</v>
+      </c>
+      <c r="F235" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="H161" t="s">
-        <v>671</v>
+      <c r="G235" t="s">
+        <v>750</v>
+      </c>
+      <c r="H235" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>241</v>
+      </c>
+      <c r="C236" t="s">
+        <v>252</v>
+      </c>
+      <c r="D236" s="2">
+        <v>44172.65940972222</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G236" t="s">
+        <v>751</v>
+      </c>
+      <c r="H236" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>242</v>
+      </c>
+      <c r="C237" t="s">
+        <v>252</v>
+      </c>
+      <c r="D237" s="2">
+        <v>44172.65984953703</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G237" t="s">
+        <v>752</v>
+      </c>
+      <c r="H237" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>243</v>
+      </c>
+      <c r="C238" t="s">
+        <v>252</v>
+      </c>
+      <c r="D238" s="2">
+        <v>44172.66041666667</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G238" t="s">
+        <v>753</v>
+      </c>
+      <c r="H238" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>244</v>
+      </c>
+      <c r="C239" t="s">
+        <v>252</v>
+      </c>
+      <c r="D239" s="2">
+        <v>44172.66078703704</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G239" t="s">
+        <v>754</v>
+      </c>
+      <c r="H239" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>245</v>
+      </c>
+      <c r="C240" t="s">
+        <v>252</v>
+      </c>
+      <c r="D240" s="2">
+        <v>44172.66109953704</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G240" t="s">
+        <v>755</v>
+      </c>
+      <c r="H240" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -6278,6 +9274,85 @@
     <hyperlink ref="F159" r:id="rId158"/>
     <hyperlink ref="F160" r:id="rId159"/>
     <hyperlink ref="F161" r:id="rId160"/>
+    <hyperlink ref="F162" r:id="rId161"/>
+    <hyperlink ref="F163" r:id="rId162"/>
+    <hyperlink ref="F164" r:id="rId163"/>
+    <hyperlink ref="F165" r:id="rId164"/>
+    <hyperlink ref="F166" r:id="rId165"/>
+    <hyperlink ref="F167" r:id="rId166"/>
+    <hyperlink ref="F168" r:id="rId167"/>
+    <hyperlink ref="F169" r:id="rId168"/>
+    <hyperlink ref="F170" r:id="rId169"/>
+    <hyperlink ref="F171" r:id="rId170"/>
+    <hyperlink ref="F172" r:id="rId171"/>
+    <hyperlink ref="F173" r:id="rId172"/>
+    <hyperlink ref="F174" r:id="rId173"/>
+    <hyperlink ref="F175" r:id="rId174"/>
+    <hyperlink ref="F176" r:id="rId175"/>
+    <hyperlink ref="F177" r:id="rId176"/>
+    <hyperlink ref="F178" r:id="rId177"/>
+    <hyperlink ref="F179" r:id="rId178"/>
+    <hyperlink ref="F180" r:id="rId179"/>
+    <hyperlink ref="F181" r:id="rId180"/>
+    <hyperlink ref="F182" r:id="rId181"/>
+    <hyperlink ref="F183" r:id="rId182"/>
+    <hyperlink ref="F184" r:id="rId183"/>
+    <hyperlink ref="F185" r:id="rId184"/>
+    <hyperlink ref="F186" r:id="rId185"/>
+    <hyperlink ref="F187" r:id="rId186"/>
+    <hyperlink ref="F188" r:id="rId187"/>
+    <hyperlink ref="F189" r:id="rId188"/>
+    <hyperlink ref="F190" r:id="rId189"/>
+    <hyperlink ref="F191" r:id="rId190"/>
+    <hyperlink ref="F192" r:id="rId191"/>
+    <hyperlink ref="F193" r:id="rId192"/>
+    <hyperlink ref="F194" r:id="rId193"/>
+    <hyperlink ref="F195" r:id="rId194"/>
+    <hyperlink ref="F196" r:id="rId195"/>
+    <hyperlink ref="F197" r:id="rId196"/>
+    <hyperlink ref="F198" r:id="rId197"/>
+    <hyperlink ref="F199" r:id="rId198"/>
+    <hyperlink ref="F200" r:id="rId199"/>
+    <hyperlink ref="F201" r:id="rId200"/>
+    <hyperlink ref="F202" r:id="rId201"/>
+    <hyperlink ref="F203" r:id="rId202"/>
+    <hyperlink ref="F204" r:id="rId203"/>
+    <hyperlink ref="F205" r:id="rId204"/>
+    <hyperlink ref="F206" r:id="rId205"/>
+    <hyperlink ref="F207" r:id="rId206"/>
+    <hyperlink ref="F208" r:id="rId207"/>
+    <hyperlink ref="F209" r:id="rId208"/>
+    <hyperlink ref="F210" r:id="rId209"/>
+    <hyperlink ref="F211" r:id="rId210"/>
+    <hyperlink ref="F212" r:id="rId211"/>
+    <hyperlink ref="F213" r:id="rId212"/>
+    <hyperlink ref="F214" r:id="rId213"/>
+    <hyperlink ref="F215" r:id="rId214"/>
+    <hyperlink ref="F216" r:id="rId215"/>
+    <hyperlink ref="F217" r:id="rId216"/>
+    <hyperlink ref="F218" r:id="rId217"/>
+    <hyperlink ref="F219" r:id="rId218"/>
+    <hyperlink ref="F220" r:id="rId219"/>
+    <hyperlink ref="F221" r:id="rId220"/>
+    <hyperlink ref="F222" r:id="rId221"/>
+    <hyperlink ref="F223" r:id="rId222"/>
+    <hyperlink ref="F224" r:id="rId223"/>
+    <hyperlink ref="F225" r:id="rId224"/>
+    <hyperlink ref="F226" r:id="rId225"/>
+    <hyperlink ref="F227" r:id="rId226"/>
+    <hyperlink ref="F228" r:id="rId227"/>
+    <hyperlink ref="F229" r:id="rId228"/>
+    <hyperlink ref="F230" r:id="rId229"/>
+    <hyperlink ref="F231" r:id="rId230"/>
+    <hyperlink ref="F232" r:id="rId231"/>
+    <hyperlink ref="F233" r:id="rId232"/>
+    <hyperlink ref="F234" r:id="rId233"/>
+    <hyperlink ref="F235" r:id="rId234"/>
+    <hyperlink ref="F236" r:id="rId235"/>
+    <hyperlink ref="F237" r:id="rId236"/>
+    <hyperlink ref="F238" r:id="rId237"/>
+    <hyperlink ref="F239" r:id="rId238"/>
+    <hyperlink ref="F240" r:id="rId239"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/datas.xlsx
+++ b/src/datas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="1302">
   <si>
     <t>bike_id</t>
   </si>
@@ -754,6 +754,228 @@
     <t>110-B06201015-02</t>
   </si>
   <si>
+    <t>TE-29820</t>
+  </si>
+  <si>
+    <t>111-r09642006-01</t>
+  </si>
+  <si>
+    <t>999-25626-01</t>
+  </si>
+  <si>
+    <t>TE-29821</t>
+  </si>
+  <si>
+    <t>110-b05504080-02</t>
+  </si>
+  <si>
+    <t>11007-r07323049-01</t>
+  </si>
+  <si>
+    <t>999-09843-02</t>
+  </si>
+  <si>
+    <t>113-b09409016-01</t>
+  </si>
+  <si>
+    <t>TE-29822</t>
+  </si>
+  <si>
+    <t>109-08-88106-01</t>
+  </si>
+  <si>
+    <t>112-b08504040-02</t>
+  </si>
+  <si>
+    <t>113-b08507042-01</t>
+  </si>
+  <si>
+    <t>116-b09401149-02</t>
+  </si>
+  <si>
+    <t>11007-B06106035-02</t>
+  </si>
+  <si>
+    <t>113-b08902019-01</t>
+  </si>
+  <si>
+    <t>TE-29823</t>
+  </si>
+  <si>
+    <t>113-b09701207-01</t>
+  </si>
+  <si>
+    <t>113-b09701209-01</t>
+  </si>
+  <si>
+    <t>113-b08b01025-01</t>
+  </si>
+  <si>
+    <t>TE-29824</t>
+  </si>
+  <si>
+    <t>109-R06723075-01</t>
+  </si>
+  <si>
+    <t>113-b09602010-01</t>
+  </si>
+  <si>
+    <t>113-b09502035-01</t>
+  </si>
+  <si>
+    <t>113-b09105037-01</t>
+  </si>
+  <si>
+    <t>113-b08901001-01</t>
+  </si>
+  <si>
+    <t>11007-B06901086-01</t>
+  </si>
+  <si>
+    <t>113-b09502134-01</t>
+  </si>
+  <si>
+    <t>110-B04104012-02</t>
+  </si>
+  <si>
+    <t>111-R06229005-00</t>
+  </si>
+  <si>
+    <t>TE-29825</t>
+  </si>
+  <si>
+    <t>112-R09628101-01</t>
+  </si>
+  <si>
+    <t>113-b09203050-01</t>
+  </si>
+  <si>
+    <t>113-b09508004-01</t>
+  </si>
+  <si>
+    <t>110-B06107013-02</t>
+  </si>
+  <si>
+    <t>113-b08208018-01</t>
+  </si>
+  <si>
+    <t>999-a0210-01</t>
+  </si>
+  <si>
+    <t>113-b09302214-01</t>
+  </si>
+  <si>
+    <t>113-b09a01103-01</t>
+  </si>
+  <si>
+    <t>TE-29826</t>
+  </si>
+  <si>
+    <t>TE-29827</t>
+  </si>
+  <si>
+    <t>113-b09a01142-02</t>
+  </si>
+  <si>
+    <t>113-b09204028-01</t>
+  </si>
+  <si>
+    <t>TE-29828</t>
+  </si>
+  <si>
+    <t>TE-29829</t>
+  </si>
+  <si>
+    <t>10807-B04901164-02</t>
+  </si>
+  <si>
+    <t>112-b08504003-02</t>
+  </si>
+  <si>
+    <t>111-b07502034-01</t>
+  </si>
+  <si>
+    <t>TE-29830</t>
+  </si>
+  <si>
+    <t>TE-29831</t>
+  </si>
+  <si>
+    <t>TE-29832</t>
+  </si>
+  <si>
+    <t>TE-29833</t>
+  </si>
+  <si>
+    <t>TE-29834</t>
+  </si>
+  <si>
+    <t>TE-29835</t>
+  </si>
+  <si>
+    <t>113-b08a01120-01</t>
+  </si>
+  <si>
+    <t>113-b08a01308-01</t>
+  </si>
+  <si>
+    <t>110-b05a01131-03</t>
+  </si>
+  <si>
+    <t>112-b08702022-02</t>
+  </si>
+  <si>
+    <t>113-b09703078-01</t>
+  </si>
+  <si>
+    <t>113-b09702094-01</t>
+  </si>
+  <si>
+    <t>11107-B07901180-01</t>
+  </si>
+  <si>
+    <t>113-b08502040-01</t>
+  </si>
+  <si>
+    <t>112-B07505018-02</t>
+  </si>
+  <si>
+    <t>110-r07a41030-02</t>
+  </si>
+  <si>
+    <t>112-b07a01152-02</t>
+  </si>
+  <si>
+    <t>TE-29851</t>
+  </si>
+  <si>
+    <t>113-b09a01163-01</t>
+  </si>
+  <si>
+    <t>11107-B07A01257-01</t>
+  </si>
+  <si>
+    <t>TE-29852</t>
+  </si>
+  <si>
+    <t>113-b08102036-01</t>
+  </si>
+  <si>
+    <t>111-r09522706-01</t>
+  </si>
+  <si>
+    <t>113-d06522022-01</t>
+  </si>
+  <si>
+    <t>113-b08502046-01</t>
+  </si>
+  <si>
+    <t>TE-29853</t>
+  </si>
+  <si>
+    <t>113-b09504057-01</t>
+  </si>
+  <si>
     <t>範圍C區 研一、大一女舍</t>
   </si>
   <si>
@@ -850,6 +1072,21 @@
     <t>圖資系</t>
   </si>
   <si>
+    <t>範圍C區 行政大樓</t>
+  </si>
+  <si>
+    <t>地理系</t>
+  </si>
+  <si>
+    <t>文學院</t>
+  </si>
+  <si>
+    <t>霖澤館</t>
+  </si>
+  <si>
+    <t>心理系</t>
+  </si>
+  <si>
     <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000352723.jpg?v=27</t>
   </si>
   <si>
@@ -1567,6 +1804,234 @@
     <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355226.jpg?v=50</t>
   </si>
   <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355233.jpg?v=38</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355238.jpg?v=34</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355243.jpg?v=33</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355248.jpg?v=32</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355254.jpg?v=21</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355259.jpg?v=20</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355264.jpg?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355269.jpg?v=17</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355274.jpg?v=40</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355279.jpg?v=39</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355284.jpg?v=27</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355289.jpg?v=26</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355294.jpg?v=25</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355299.jpg?v=24</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355304.jpg?v=22</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355309.jpg?v=21</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355314.jpg?v=20</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355319.jpg?v=18</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355325.jpg?v=45</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355330.jpg?v=44</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355335.jpg?v=43</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355340.jpg?v=42</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355345.jpg?v=41</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355350.jpg?v=40</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355355.jpg?v=38</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355360.jpg?v=37</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355365.jpg?v=28</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355370.jpg?v=25</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355376.jpg?v=14</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355381.jpg?v=12</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355386.jpg?v=11</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355392.jpg?v=09</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355398.jpg?v=13</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355404.jpg?v=11</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355410.jpg?v=15</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355417.jpg?v=13</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355423.jpg?v=12</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355429.jpg?v=39</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355438.jpg?v=38</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355444.jpg?v=33</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355449.jpg?v=32</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355454.jpg?v=31</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355460.jpg?v=07</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355466.jpg?v=06</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355471.jpg?v=23</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355477.jpg?v=22</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355483.jpg?v=20</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355488.jpg?v=19</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355494.jpg?v=46</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355500.jpg?v=45</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355505.jpg?v=44</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355510.jpg?v=02</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355520.jpg?v=03</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355526.jpg?v=05</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355532.jpg?v=04</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355537.jpg?v=03</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355543.jpg?v=02</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355548.jpg?v=01</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355554.jpg?v=17</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355562.jpg?v=23</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355567.jpg?v=22</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355572.jpg?v=21</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355578.jpg?v=48</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355583.jpg?v=47</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355590.jpg?v=46</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355595.jpg?v=44</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355600.jpg?v=43</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355605.jpg?v=42</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355610.jpg?v=41</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355616.jpg?v=39</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355622.jpg?v=38</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355629.jpg?v=26</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355634.jpg?v=25</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355639.jpg?v=23</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355644.jpg?v=22</t>
+  </si>
+  <si>
+    <t>https://mybike.ntu.edu.tw/files/bikemgr/file/3/00000355649.jpg?v=05</t>
+  </si>
+  <si>
     <t>1.jpg</t>
   </si>
   <si>
@@ -2284,6 +2749,234 @@
     <t>239.jpg</t>
   </si>
   <si>
+    <t>240.jpg</t>
+  </si>
+  <si>
+    <t>241.jpg</t>
+  </si>
+  <si>
+    <t>242.jpg</t>
+  </si>
+  <si>
+    <t>243.jpg</t>
+  </si>
+  <si>
+    <t>244.jpg</t>
+  </si>
+  <si>
+    <t>245.jpg</t>
+  </si>
+  <si>
+    <t>246.jpg</t>
+  </si>
+  <si>
+    <t>247.jpg</t>
+  </si>
+  <si>
+    <t>248.jpg</t>
+  </si>
+  <si>
+    <t>249.jpg</t>
+  </si>
+  <si>
+    <t>250.jpg</t>
+  </si>
+  <si>
+    <t>251.jpg</t>
+  </si>
+  <si>
+    <t>252.jpg</t>
+  </si>
+  <si>
+    <t>253.jpg</t>
+  </si>
+  <si>
+    <t>254.jpg</t>
+  </si>
+  <si>
+    <t>255.jpg</t>
+  </si>
+  <si>
+    <t>256.jpg</t>
+  </si>
+  <si>
+    <t>257.jpg</t>
+  </si>
+  <si>
+    <t>258.jpg</t>
+  </si>
+  <si>
+    <t>259.jpg</t>
+  </si>
+  <si>
+    <t>260.jpg</t>
+  </si>
+  <si>
+    <t>261.jpg</t>
+  </si>
+  <si>
+    <t>262.jpg</t>
+  </si>
+  <si>
+    <t>263.jpg</t>
+  </si>
+  <si>
+    <t>264.jpg</t>
+  </si>
+  <si>
+    <t>265.jpg</t>
+  </si>
+  <si>
+    <t>266.jpg</t>
+  </si>
+  <si>
+    <t>267.jpg</t>
+  </si>
+  <si>
+    <t>268.jpg</t>
+  </si>
+  <si>
+    <t>269.jpg</t>
+  </si>
+  <si>
+    <t>270.jpg</t>
+  </si>
+  <si>
+    <t>271.jpg</t>
+  </si>
+  <si>
+    <t>272.jpg</t>
+  </si>
+  <si>
+    <t>273.jpg</t>
+  </si>
+  <si>
+    <t>274.jpg</t>
+  </si>
+  <si>
+    <t>275.jpg</t>
+  </si>
+  <si>
+    <t>276.jpg</t>
+  </si>
+  <si>
+    <t>277.jpg</t>
+  </si>
+  <si>
+    <t>278.jpg</t>
+  </si>
+  <si>
+    <t>279.jpg</t>
+  </si>
+  <si>
+    <t>280.jpg</t>
+  </si>
+  <si>
+    <t>281.jpg</t>
+  </si>
+  <si>
+    <t>282.jpg</t>
+  </si>
+  <si>
+    <t>283.jpg</t>
+  </si>
+  <si>
+    <t>284.jpg</t>
+  </si>
+  <si>
+    <t>285.jpg</t>
+  </si>
+  <si>
+    <t>286.jpg</t>
+  </si>
+  <si>
+    <t>287.jpg</t>
+  </si>
+  <si>
+    <t>288.jpg</t>
+  </si>
+  <si>
+    <t>289.jpg</t>
+  </si>
+  <si>
+    <t>290.jpg</t>
+  </si>
+  <si>
+    <t>291.jpg</t>
+  </si>
+  <si>
+    <t>292.jpg</t>
+  </si>
+  <si>
+    <t>293.jpg</t>
+  </si>
+  <si>
+    <t>294.jpg</t>
+  </si>
+  <si>
+    <t>295.jpg</t>
+  </si>
+  <si>
+    <t>296.jpg</t>
+  </si>
+  <si>
+    <t>297.jpg</t>
+  </si>
+  <si>
+    <t>298.jpg</t>
+  </si>
+  <si>
+    <t>299.jpg</t>
+  </si>
+  <si>
+    <t>300.jpg</t>
+  </si>
+  <si>
+    <t>301.jpg</t>
+  </si>
+  <si>
+    <t>302.jpg</t>
+  </si>
+  <si>
+    <t>303.jpg</t>
+  </si>
+  <si>
+    <t>304.jpg</t>
+  </si>
+  <si>
+    <t>305.jpg</t>
+  </si>
+  <si>
+    <t>306.jpg</t>
+  </si>
+  <si>
+    <t>307.jpg</t>
+  </si>
+  <si>
+    <t>308.jpg</t>
+  </si>
+  <si>
+    <t>309.jpg</t>
+  </si>
+  <si>
+    <t>310.jpg</t>
+  </si>
+  <si>
+    <t>311.jpg</t>
+  </si>
+  <si>
+    <t>312.jpg</t>
+  </si>
+  <si>
+    <t>313.jpg</t>
+  </si>
+  <si>
+    <t>314.jpg</t>
+  </si>
+  <si>
+    <t>315.jpg</t>
+  </si>
+  <si>
     <t>/Users/eason/Desktop/statistics/final-project/src/pictures/1.jpg</t>
   </si>
   <si>
@@ -2999,6 +3692,234 @@
   </si>
   <si>
     <t>/Users/eason/Desktop/statistics/final-project/src/pictures/239.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/240.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/241.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/242.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/243.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/244.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/245.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/246.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/247.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/248.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/249.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/250.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/251.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/252.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/253.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/254.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/255.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/256.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/257.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/258.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/259.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/260.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/261.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/262.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/263.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/264.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/265.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/266.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/267.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/268.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/269.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/270.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/271.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/272.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/273.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/274.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/275.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/276.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/277.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/278.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/279.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/280.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/281.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/282.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/283.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/284.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/285.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/286.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/287.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/288.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/289.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/290.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/291.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/292.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/293.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/294.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/295.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/296.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/297.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/298.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/299.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/300.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/301.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/302.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/303.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/304.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/305.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/306.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/307.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/308.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/309.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/310.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/311.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/312.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/313.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/314.jpg</t>
+  </si>
+  <si>
+    <t>/Users/eason/Desktop/statistics/final-project/src/pictures/315.jpg</t>
   </si>
 </sst>
 </file>
@@ -3373,7 +4294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3413,7 +4334,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D2" s="2">
         <v>44166.37541666667</v>
@@ -3422,13 +4343,13 @@
         <v>44172.57158564815</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="G2" t="s">
-        <v>517</v>
+        <v>672</v>
       </c>
       <c r="H2" t="s">
-        <v>756</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3439,19 +4360,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D3" s="2">
         <v>44166.37596064815</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="G3" t="s">
-        <v>518</v>
+        <v>673</v>
       </c>
       <c r="H3" t="s">
-        <v>757</v>
+        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3462,19 +4383,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D4" s="2">
         <v>44166.37641203704</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="G4" t="s">
-        <v>519</v>
+        <v>674</v>
       </c>
       <c r="H4" t="s">
-        <v>758</v>
+        <v>989</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3485,19 +4406,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D5" s="2">
         <v>44166.37690972222</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="G5" t="s">
-        <v>520</v>
+        <v>675</v>
       </c>
       <c r="H5" t="s">
-        <v>759</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3508,7 +4429,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D6" s="2">
         <v>44166.37709490741</v>
@@ -3517,13 +4438,13 @@
         <v>44172.54350694444</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="G6" t="s">
-        <v>521</v>
+        <v>676</v>
       </c>
       <c r="H6" t="s">
-        <v>760</v>
+        <v>991</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3534,19 +4455,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D7" s="2">
         <v>44166.37912037037</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
       <c r="G7" t="s">
-        <v>522</v>
+        <v>677</v>
       </c>
       <c r="H7" t="s">
-        <v>761</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3557,19 +4478,19 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D8" s="2">
         <v>44166.37934027778</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="G8" t="s">
-        <v>523</v>
+        <v>678</v>
       </c>
       <c r="H8" t="s">
-        <v>762</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3580,19 +4501,19 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D9" s="2">
         <v>44166.37976851852</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>285</v>
+        <v>364</v>
       </c>
       <c r="G9" t="s">
-        <v>524</v>
+        <v>679</v>
       </c>
       <c r="H9" t="s">
-        <v>763</v>
+        <v>994</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3603,19 +4524,19 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D10" s="2">
         <v>44166.38032407407</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="G10" t="s">
-        <v>525</v>
+        <v>680</v>
       </c>
       <c r="H10" t="s">
-        <v>764</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3626,7 +4547,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D11" s="2">
         <v>44166.38086805555</v>
@@ -3635,13 +4556,13 @@
         <v>44172.57158564815</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>287</v>
+        <v>366</v>
       </c>
       <c r="G11" t="s">
-        <v>526</v>
+        <v>681</v>
       </c>
       <c r="H11" t="s">
-        <v>765</v>
+        <v>996</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3652,19 +4573,19 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D12" s="2">
         <v>44166.38109953704</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="G12" t="s">
-        <v>527</v>
+        <v>682</v>
       </c>
       <c r="H12" t="s">
-        <v>766</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3675,19 +4596,19 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D13" s="2">
         <v>44166.3816087963</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="G13" t="s">
-        <v>528</v>
+        <v>683</v>
       </c>
       <c r="H13" t="s">
-        <v>767</v>
+        <v>998</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3698,19 +4619,19 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D14" s="2">
         <v>44166.39740740741</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="G14" t="s">
-        <v>529</v>
+        <v>684</v>
       </c>
       <c r="H14" t="s">
-        <v>768</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3721,19 +4642,19 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D15" s="2">
         <v>44166.39893518519</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="G15" t="s">
-        <v>530</v>
+        <v>685</v>
       </c>
       <c r="H15" t="s">
-        <v>769</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3744,19 +4665,19 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D16" s="2">
         <v>44166.39993055556</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>292</v>
+        <v>371</v>
       </c>
       <c r="G16" t="s">
-        <v>531</v>
+        <v>686</v>
       </c>
       <c r="H16" t="s">
-        <v>770</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3767,19 +4688,19 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D17" s="2">
         <v>44166.40019675926</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="G17" t="s">
-        <v>532</v>
+        <v>687</v>
       </c>
       <c r="H17" t="s">
-        <v>771</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3790,19 +4711,19 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D18" s="2">
         <v>44166.40046296296</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="G18" t="s">
-        <v>533</v>
+        <v>688</v>
       </c>
       <c r="H18" t="s">
-        <v>772</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3813,19 +4734,19 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D19" s="2">
         <v>44166.40122685185</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
-        <v>534</v>
+        <v>689</v>
       </c>
       <c r="H19" t="s">
-        <v>773</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3836,19 +4757,19 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D20" s="2">
         <v>44166.40185185185</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="G20" t="s">
-        <v>535</v>
+        <v>690</v>
       </c>
       <c r="H20" t="s">
-        <v>774</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3859,19 +4780,19 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D21" s="2">
         <v>44166.40230324074</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="G21" t="s">
-        <v>536</v>
+        <v>691</v>
       </c>
       <c r="H21" t="s">
-        <v>775</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3882,19 +4803,19 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D22" s="2">
         <v>44166.40261574074</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>298</v>
+        <v>377</v>
       </c>
       <c r="G22" t="s">
-        <v>537</v>
+        <v>692</v>
       </c>
       <c r="H22" t="s">
-        <v>776</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3905,19 +4826,19 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D23" s="2">
         <v>44166.40287037037</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="G23" t="s">
-        <v>538</v>
+        <v>693</v>
       </c>
       <c r="H23" t="s">
-        <v>777</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3928,19 +4849,19 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D24" s="2">
         <v>44166.40395833334</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="G24" t="s">
-        <v>539</v>
+        <v>694</v>
       </c>
       <c r="H24" t="s">
-        <v>778</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3951,19 +4872,19 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D25" s="2">
         <v>44166.40447916667</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="G25" t="s">
-        <v>540</v>
+        <v>695</v>
       </c>
       <c r="H25" t="s">
-        <v>779</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3974,19 +4895,19 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D26" s="2">
         <v>44166.40474537037</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>302</v>
+        <v>381</v>
       </c>
       <c r="G26" t="s">
-        <v>541</v>
+        <v>696</v>
       </c>
       <c r="H26" t="s">
-        <v>780</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3997,19 +4918,19 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D27" s="2">
         <v>44166.40590277778</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="G27" t="s">
-        <v>542</v>
+        <v>697</v>
       </c>
       <c r="H27" t="s">
-        <v>781</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4020,19 +4941,19 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D28" s="2">
         <v>44166.42273148148</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="G28" t="s">
-        <v>543</v>
+        <v>698</v>
       </c>
       <c r="H28" t="s">
-        <v>782</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4043,19 +4964,19 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D29" s="2">
         <v>44166.42293981482</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="G29" t="s">
-        <v>544</v>
+        <v>699</v>
       </c>
       <c r="H29" t="s">
-        <v>783</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4066,19 +4987,19 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D30" s="2">
         <v>44166.42315972222</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="G30" t="s">
-        <v>545</v>
+        <v>700</v>
       </c>
       <c r="H30" t="s">
-        <v>784</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4089,19 +5010,19 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D31" s="2">
         <v>44166.42447916666</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="G31" t="s">
-        <v>546</v>
+        <v>701</v>
       </c>
       <c r="H31" t="s">
-        <v>785</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4112,7 +5033,7 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D32" s="2">
         <v>44166.4247800926</v>
@@ -4121,13 +5042,13 @@
         <v>44172.64079861111</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="G32" t="s">
-        <v>547</v>
+        <v>702</v>
       </c>
       <c r="H32" t="s">
-        <v>786</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4138,19 +5059,19 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D33" s="2">
         <v>44166.425</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>309</v>
+        <v>388</v>
       </c>
       <c r="G33" t="s">
-        <v>548</v>
+        <v>703</v>
       </c>
       <c r="H33" t="s">
-        <v>787</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4161,19 +5082,19 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D34" s="2">
         <v>44166.42613425926</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="G34" t="s">
-        <v>549</v>
+        <v>704</v>
       </c>
       <c r="H34" t="s">
-        <v>788</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4184,19 +5105,19 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D35" s="2">
         <v>44166.42636574074</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="G35" t="s">
-        <v>550</v>
+        <v>705</v>
       </c>
       <c r="H35" t="s">
-        <v>789</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4207,19 +5128,19 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D36" s="2">
         <v>44166.42681712963</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>312</v>
+        <v>391</v>
       </c>
       <c r="G36" t="s">
-        <v>551</v>
+        <v>706</v>
       </c>
       <c r="H36" t="s">
-        <v>790</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4230,19 +5151,22 @@
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D37" s="2">
         <v>44166.4275</v>
       </c>
+      <c r="E37" s="2">
+        <v>44173.60494212963</v>
+      </c>
       <c r="F37" s="3" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="G37" t="s">
-        <v>552</v>
+        <v>707</v>
       </c>
       <c r="H37" t="s">
-        <v>791</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4253,19 +5177,19 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D38" s="2">
         <v>44166.44359953704</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="G38" t="s">
-        <v>553</v>
+        <v>708</v>
       </c>
       <c r="H38" t="s">
-        <v>792</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4276,19 +5200,19 @@
         <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D39" s="2">
         <v>44166.44375</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
       <c r="G39" t="s">
-        <v>554</v>
+        <v>709</v>
       </c>
       <c r="H39" t="s">
-        <v>793</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4299,19 +5223,19 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D40" s="2">
         <v>44166.44392361111</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="G40" t="s">
-        <v>555</v>
+        <v>710</v>
       </c>
       <c r="H40" t="s">
-        <v>794</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4322,19 +5246,19 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D41" s="2">
         <v>44166.44409722222</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="G41" t="s">
-        <v>556</v>
+        <v>711</v>
       </c>
       <c r="H41" t="s">
-        <v>795</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4345,7 +5269,7 @@
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D42" s="2">
         <v>44166.44481481481</v>
@@ -4354,13 +5278,13 @@
         <v>44172.59908564815</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="G42" t="s">
-        <v>557</v>
+        <v>712</v>
       </c>
       <c r="H42" t="s">
-        <v>796</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4371,19 +5295,19 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D43" s="2">
         <v>44166.445</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>558</v>
+        <v>713</v>
       </c>
       <c r="H43" t="s">
-        <v>797</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4394,19 +5318,19 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D44" s="2">
         <v>44166.44560185185</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="G44" t="s">
-        <v>559</v>
+        <v>714</v>
       </c>
       <c r="H44" t="s">
-        <v>798</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4417,19 +5341,19 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D45" s="2">
         <v>44166.44706018519</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="G45" t="s">
-        <v>560</v>
+        <v>715</v>
       </c>
       <c r="H45" t="s">
-        <v>799</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4440,19 +5364,19 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D46" s="2">
         <v>44166.44721064815</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
-        <v>561</v>
+        <v>716</v>
       </c>
       <c r="H46" t="s">
-        <v>800</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4463,19 +5387,19 @@
         <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D47" s="2">
         <v>44166.44789351852</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>562</v>
+        <v>717</v>
       </c>
       <c r="H47" t="s">
-        <v>801</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4486,19 +5410,19 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D48" s="2">
         <v>44166.44826388889</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="G48" t="s">
-        <v>563</v>
+        <v>718</v>
       </c>
       <c r="H48" t="s">
-        <v>802</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4509,19 +5433,19 @@
         <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D49" s="2">
         <v>44166.44864583333</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="G49" t="s">
-        <v>564</v>
+        <v>719</v>
       </c>
       <c r="H49" t="s">
-        <v>803</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4532,19 +5456,19 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D50" s="2">
         <v>44166.55384259259</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="G50" t="s">
-        <v>565</v>
+        <v>720</v>
       </c>
       <c r="H50" t="s">
-        <v>804</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4555,7 +5479,7 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D51" s="2">
         <v>44166.55712962963</v>
@@ -4564,13 +5488,13 @@
         <v>44172.48101851852</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="G51" t="s">
-        <v>566</v>
+        <v>721</v>
       </c>
       <c r="H51" t="s">
-        <v>805</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4581,19 +5505,19 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="D52" s="2">
         <v>44166.63159722222</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="G52" t="s">
-        <v>567</v>
+        <v>722</v>
       </c>
       <c r="H52" t="s">
-        <v>806</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4604,19 +5528,19 @@
         <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="D53" s="2">
         <v>44166.64409722222</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="G53" t="s">
-        <v>568</v>
+        <v>723</v>
       </c>
       <c r="H53" t="s">
-        <v>807</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4627,19 +5551,19 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="D54" s="2">
         <v>44166.65164351852</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="G54" t="s">
-        <v>569</v>
+        <v>724</v>
       </c>
       <c r="H54" t="s">
-        <v>808</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4650,7 +5574,7 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="D55" s="2">
         <v>44166.65960648148</v>
@@ -4659,13 +5583,13 @@
         <v>44172.57158564815</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="G55" t="s">
-        <v>570</v>
+        <v>725</v>
       </c>
       <c r="H55" t="s">
-        <v>809</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4676,19 +5600,19 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="D56" s="2">
         <v>44166.66</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="G56" t="s">
-        <v>571</v>
+        <v>726</v>
       </c>
       <c r="H56" t="s">
-        <v>810</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4699,19 +5623,19 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D57" s="2">
         <v>44167.38243055555</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="G57" t="s">
-        <v>572</v>
+        <v>727</v>
       </c>
       <c r="H57" t="s">
-        <v>811</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4722,7 +5646,7 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D58" s="2">
         <v>44167.43989583333</v>
@@ -4731,13 +5655,13 @@
         <v>44172.63394675926</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="G58" t="s">
-        <v>573</v>
+        <v>728</v>
       </c>
       <c r="H58" t="s">
-        <v>812</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4748,19 +5672,19 @@
         <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="D59" s="2">
         <v>44167.44108796296</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="G59" t="s">
-        <v>574</v>
+        <v>729</v>
       </c>
       <c r="H59" t="s">
-        <v>813</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4771,19 +5695,19 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="D60" s="2">
         <v>44167.44489583333</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="G60" t="s">
-        <v>575</v>
+        <v>730</v>
       </c>
       <c r="H60" t="s">
-        <v>814</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4794,19 +5718,19 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D61" s="2">
         <v>44167.55471064815</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="G61" t="s">
-        <v>576</v>
+        <v>731</v>
       </c>
       <c r="H61" t="s">
-        <v>815</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4817,7 +5741,7 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D62" s="2">
         <v>44167.55510416667</v>
@@ -4826,13 +5750,13 @@
         <v>44172.52945601852</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="G62" t="s">
-        <v>577</v>
+        <v>732</v>
       </c>
       <c r="H62" t="s">
-        <v>816</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4843,19 +5767,19 @@
         <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D63" s="2">
         <v>44167.55866898148</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>339</v>
+        <v>418</v>
       </c>
       <c r="G63" t="s">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="H63" t="s">
-        <v>817</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4866,7 +5790,7 @@
         <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D64" s="2">
         <v>44167.56696759259</v>
@@ -4875,13 +5799,13 @@
         <v>44172.54350694444</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>340</v>
+        <v>419</v>
       </c>
       <c r="G64" t="s">
-        <v>579</v>
+        <v>734</v>
       </c>
       <c r="H64" t="s">
-        <v>818</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4892,19 +5816,19 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D65" s="2">
         <v>44167.56759259259</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="G65" t="s">
-        <v>580</v>
+        <v>735</v>
       </c>
       <c r="H65" t="s">
-        <v>819</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4915,19 +5839,19 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D66" s="2">
         <v>44167.57070601852</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="G66" t="s">
-        <v>581</v>
+        <v>736</v>
       </c>
       <c r="H66" t="s">
-        <v>820</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4938,7 +5862,7 @@
         <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D67" s="2">
         <v>44167.5739699074</v>
@@ -4947,13 +5871,13 @@
         <v>44172.57832175926</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="G67" t="s">
-        <v>582</v>
+        <v>737</v>
       </c>
       <c r="H67" t="s">
-        <v>821</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4964,19 +5888,19 @@
         <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="D68" s="2">
         <v>44167.57603009259</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>344</v>
+        <v>423</v>
       </c>
       <c r="G68" t="s">
-        <v>583</v>
+        <v>738</v>
       </c>
       <c r="H68" t="s">
-        <v>822</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4987,19 +5911,19 @@
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D69" s="2">
         <v>44168.25788194445</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>345</v>
+        <v>424</v>
       </c>
       <c r="G69" t="s">
-        <v>584</v>
+        <v>739</v>
       </c>
       <c r="H69" t="s">
-        <v>823</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5010,19 +5934,19 @@
         <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D70" s="2">
         <v>44168.25916666666</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>346</v>
+        <v>425</v>
       </c>
       <c r="G70" t="s">
-        <v>585</v>
+        <v>740</v>
       </c>
       <c r="H70" t="s">
-        <v>824</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5033,19 +5957,22 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D71" s="2">
         <v>44168.25944444445</v>
       </c>
+      <c r="E71" s="2">
+        <v>44173.46596064815</v>
+      </c>
       <c r="F71" s="3" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="G71" t="s">
-        <v>586</v>
+        <v>741</v>
       </c>
       <c r="H71" t="s">
-        <v>825</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5056,19 +5983,19 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D72" s="2">
         <v>44168.25969907407</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="G72" t="s">
-        <v>587</v>
+        <v>742</v>
       </c>
       <c r="H72" t="s">
-        <v>826</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5079,19 +6006,19 @@
         <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D73" s="2">
         <v>44168.2602662037</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="G73" t="s">
-        <v>588</v>
+        <v>743</v>
       </c>
       <c r="H73" t="s">
-        <v>827</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5102,19 +6029,19 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D74" s="2">
         <v>44168.26045138889</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="G74" t="s">
-        <v>589</v>
+        <v>744</v>
       </c>
       <c r="H74" t="s">
-        <v>828</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5125,19 +6052,19 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="D75" s="2">
         <v>44168.2627662037</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>351</v>
+        <v>430</v>
       </c>
       <c r="G75" t="s">
-        <v>590</v>
+        <v>745</v>
       </c>
       <c r="H75" t="s">
-        <v>829</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5148,19 +6075,19 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D76" s="2">
         <v>44168.26612268519</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="G76" t="s">
-        <v>591</v>
+        <v>746</v>
       </c>
       <c r="H76" t="s">
-        <v>830</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5171,19 +6098,19 @@
         <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D77" s="2">
         <v>44168.26646990741</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="G77" t="s">
-        <v>592</v>
+        <v>747</v>
       </c>
       <c r="H77" t="s">
-        <v>831</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5194,19 +6121,19 @@
         <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D78" s="2">
         <v>44168.26678240741</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="G78" t="s">
-        <v>593</v>
+        <v>748</v>
       </c>
       <c r="H78" t="s">
-        <v>832</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5217,19 +6144,19 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D79" s="2">
         <v>44168.26752314815</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="G79" t="s">
-        <v>594</v>
+        <v>749</v>
       </c>
       <c r="H79" t="s">
-        <v>833</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5240,19 +6167,19 @@
         <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D80" s="2">
         <v>44168.26785879629</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="G80" t="s">
-        <v>595</v>
+        <v>750</v>
       </c>
       <c r="H80" t="s">
-        <v>834</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5263,19 +6190,19 @@
         <v>87</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D81" s="2">
         <v>44168.268125</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="G81" t="s">
-        <v>596</v>
+        <v>751</v>
       </c>
       <c r="H81" t="s">
-        <v>835</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5286,19 +6213,19 @@
         <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D82" s="2">
         <v>44168.26850694444</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="G82" t="s">
-        <v>597</v>
+        <v>752</v>
       </c>
       <c r="H82" t="s">
-        <v>836</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5309,19 +6236,19 @@
         <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D83" s="2">
         <v>44168.26869212963</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="G83" t="s">
-        <v>598</v>
+        <v>753</v>
       </c>
       <c r="H83" t="s">
-        <v>837</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5332,19 +6259,19 @@
         <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D84" s="2">
         <v>44168.37050925926</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="G84" t="s">
-        <v>599</v>
+        <v>754</v>
       </c>
       <c r="H84" t="s">
-        <v>838</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5355,19 +6282,22 @@
         <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D85" s="2">
         <v>44168.37760416666</v>
       </c>
+      <c r="E85" s="2">
+        <v>44173.51452546296</v>
+      </c>
       <c r="F85" s="3" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="G85" t="s">
-        <v>600</v>
+        <v>755</v>
       </c>
       <c r="H85" t="s">
-        <v>839</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5378,7 +6308,7 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D86" s="2">
         <v>44168.37846064815</v>
@@ -5387,13 +6317,13 @@
         <v>44172.52945601852</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="G86" t="s">
-        <v>601</v>
+        <v>756</v>
       </c>
       <c r="H86" t="s">
-        <v>840</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5404,19 +6334,19 @@
         <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D87" s="2">
         <v>44168.37902777778</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="G87" t="s">
-        <v>602</v>
+        <v>757</v>
       </c>
       <c r="H87" t="s">
-        <v>841</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5427,7 +6357,7 @@
         <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D88" s="2">
         <v>44168.38280092592</v>
@@ -5436,13 +6366,13 @@
         <v>44172.59211805555</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="G88" t="s">
-        <v>603</v>
+        <v>758</v>
       </c>
       <c r="H88" t="s">
-        <v>842</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5453,19 +6383,19 @@
         <v>95</v>
       </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D89" s="2">
         <v>44168.56138888889</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="G89" t="s">
-        <v>604</v>
+        <v>759</v>
       </c>
       <c r="H89" t="s">
-        <v>843</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5476,19 +6406,22 @@
         <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D90" s="2">
         <v>44168.56385416666</v>
       </c>
+      <c r="E90" s="2">
+        <v>44173.39651620371</v>
+      </c>
       <c r="F90" s="3" t="s">
-        <v>366</v>
+        <v>445</v>
       </c>
       <c r="G90" t="s">
-        <v>605</v>
+        <v>760</v>
       </c>
       <c r="H90" t="s">
-        <v>844</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5499,7 +6432,7 @@
         <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D91" s="2">
         <v>44168.56454861111</v>
@@ -5508,13 +6441,13 @@
         <v>44172.64771990741</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="G91" t="s">
-        <v>606</v>
+        <v>761</v>
       </c>
       <c r="H91" t="s">
-        <v>845</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5525,19 +6458,19 @@
         <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D92" s="2">
         <v>44168.56550925926</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>368</v>
+        <v>447</v>
       </c>
       <c r="G92" t="s">
-        <v>607</v>
+        <v>762</v>
       </c>
       <c r="H92" t="s">
-        <v>846</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5548,19 +6481,19 @@
         <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D93" s="2">
         <v>44168.63456018519</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="G93" t="s">
-        <v>608</v>
+        <v>763</v>
       </c>
       <c r="H93" t="s">
-        <v>847</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5571,19 +6504,19 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="D94" s="2">
         <v>44168.64291666666</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="G94" t="s">
-        <v>609</v>
+        <v>764</v>
       </c>
       <c r="H94" t="s">
-        <v>848</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5594,19 +6527,19 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="D95" s="2">
         <v>44168.64513888889</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="G95" t="s">
-        <v>610</v>
+        <v>765</v>
       </c>
       <c r="H95" t="s">
-        <v>849</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5617,19 +6550,19 @@
         <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D96" s="2">
         <v>44168.64979166666</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="G96" t="s">
-        <v>611</v>
+        <v>766</v>
       </c>
       <c r="H96" t="s">
-        <v>850</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5640,7 +6573,7 @@
         <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D97" s="2">
         <v>44168.65001157407</v>
@@ -5649,13 +6582,13 @@
         <v>44172.48797453703</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="G97" t="s">
-        <v>612</v>
+        <v>767</v>
       </c>
       <c r="H97" t="s">
-        <v>851</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5666,19 +6599,19 @@
         <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D98" s="2">
         <v>44168.65273148148</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="G98" t="s">
-        <v>613</v>
+        <v>768</v>
       </c>
       <c r="H98" t="s">
-        <v>852</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5689,7 +6622,7 @@
         <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="D99" s="2">
         <v>44169.36002314815</v>
@@ -5698,13 +6631,13 @@
         <v>44172.42543981481</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>375</v>
+        <v>454</v>
       </c>
       <c r="G99" t="s">
-        <v>614</v>
+        <v>769</v>
       </c>
       <c r="H99" t="s">
-        <v>853</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5715,19 +6648,19 @@
         <v>106</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D100" s="2">
         <v>44169.3615625</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="G100" t="s">
-        <v>615</v>
+        <v>770</v>
       </c>
       <c r="H100" t="s">
-        <v>854</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5738,7 +6671,7 @@
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D101" s="2">
         <v>44169.36311342593</v>
@@ -5747,13 +6680,13 @@
         <v>44172.39770833333</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="G101" t="s">
-        <v>616</v>
+        <v>771</v>
       </c>
       <c r="H101" t="s">
-        <v>855</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5764,19 +6697,22 @@
         <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D102" s="2">
         <v>44169.36329861111</v>
       </c>
+      <c r="E102" s="2">
+        <v>44173.55628472222</v>
+      </c>
       <c r="F102" s="3" t="s">
-        <v>378</v>
+        <v>457</v>
       </c>
       <c r="G102" t="s">
-        <v>617</v>
+        <v>772</v>
       </c>
       <c r="H102" t="s">
-        <v>856</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5787,19 +6723,19 @@
         <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D103" s="2">
         <v>44169.36495370371</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="G103" t="s">
-        <v>618</v>
+        <v>773</v>
       </c>
       <c r="H103" t="s">
-        <v>857</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5810,19 +6746,19 @@
         <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D104" s="2">
         <v>44169.36657407408</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>380</v>
+        <v>459</v>
       </c>
       <c r="G104" t="s">
-        <v>619</v>
+        <v>774</v>
       </c>
       <c r="H104" t="s">
-        <v>858</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5833,19 +6769,19 @@
         <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D105" s="2">
         <v>44169.36724537037</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>381</v>
+        <v>460</v>
       </c>
       <c r="G105" t="s">
-        <v>620</v>
+        <v>775</v>
       </c>
       <c r="H105" t="s">
-        <v>859</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5856,19 +6792,19 @@
         <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D106" s="2">
         <v>44169.36739583333</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
       <c r="G106" t="s">
-        <v>621</v>
+        <v>776</v>
       </c>
       <c r="H106" t="s">
-        <v>860</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5879,19 +6815,19 @@
         <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D107" s="2">
         <v>44169.36800925926</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>383</v>
+        <v>462</v>
       </c>
       <c r="G107" t="s">
-        <v>622</v>
+        <v>777</v>
       </c>
       <c r="H107" t="s">
-        <v>861</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5902,19 +6838,22 @@
         <v>114</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D108" s="2">
         <v>44169.36972222223</v>
       </c>
+      <c r="E108" s="2">
+        <v>44173.52905092593</v>
+      </c>
       <c r="F108" s="3" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="G108" t="s">
-        <v>623</v>
+        <v>778</v>
       </c>
       <c r="H108" t="s">
-        <v>862</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5925,7 +6864,7 @@
         <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="D109" s="2">
         <v>44169.37415509259</v>
@@ -5934,13 +6873,13 @@
         <v>44172.58519675926</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>385</v>
+        <v>464</v>
       </c>
       <c r="G109" t="s">
-        <v>624</v>
+        <v>779</v>
       </c>
       <c r="H109" t="s">
-        <v>863</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5951,7 +6890,7 @@
         <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D110" s="2">
         <v>44169.37527777778</v>
@@ -5960,13 +6899,13 @@
         <v>44172.61253472222</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="G110" t="s">
-        <v>625</v>
+        <v>780</v>
       </c>
       <c r="H110" t="s">
-        <v>864</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5977,19 +6916,19 @@
         <v>117</v>
       </c>
       <c r="C111" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D111" s="2">
         <v>44169.3790162037</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="G111" t="s">
-        <v>626</v>
+        <v>781</v>
       </c>
       <c r="H111" t="s">
-        <v>865</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6000,19 +6939,19 @@
         <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D112" s="2">
         <v>44169.38958333333</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="G112" t="s">
-        <v>627</v>
+        <v>782</v>
       </c>
       <c r="H112" t="s">
-        <v>866</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6023,7 +6962,7 @@
         <v>119</v>
       </c>
       <c r="C113" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D113" s="2">
         <v>44169.39181712963</v>
@@ -6032,13 +6971,13 @@
         <v>44172.58519675926</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="G113" t="s">
-        <v>628</v>
+        <v>783</v>
       </c>
       <c r="H113" t="s">
-        <v>867</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -6049,7 +6988,7 @@
         <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D114" s="2">
         <v>44169.39200231482</v>
@@ -6058,13 +6997,13 @@
         <v>44172.39770833333</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
       <c r="G114" t="s">
-        <v>629</v>
+        <v>784</v>
       </c>
       <c r="H114" t="s">
-        <v>868</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6075,19 +7014,19 @@
         <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="D115" s="2">
         <v>44169.42633101852</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>391</v>
+        <v>470</v>
       </c>
       <c r="G115" t="s">
-        <v>630</v>
+        <v>785</v>
       </c>
       <c r="H115" t="s">
-        <v>869</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6098,19 +7037,19 @@
         <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="D116" s="2">
         <v>44169.42652777778</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="G116" t="s">
-        <v>631</v>
+        <v>786</v>
       </c>
       <c r="H116" t="s">
-        <v>870</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6121,19 +7060,19 @@
         <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="D117" s="2">
         <v>44169.4268287037</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="G117" t="s">
-        <v>632</v>
+        <v>787</v>
       </c>
       <c r="H117" t="s">
-        <v>871</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -6144,19 +7083,19 @@
         <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="D118" s="2">
         <v>44169.43472222222</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>394</v>
+        <v>473</v>
       </c>
       <c r="G118" t="s">
-        <v>633</v>
+        <v>788</v>
       </c>
       <c r="H118" t="s">
-        <v>872</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -6167,19 +7106,19 @@
         <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="D119" s="2">
         <v>44169.4378125</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
       <c r="G119" t="s">
-        <v>634</v>
+        <v>789</v>
       </c>
       <c r="H119" t="s">
-        <v>873</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -6190,19 +7129,19 @@
         <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="D120" s="2">
         <v>44169.43844907408</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="G120" t="s">
-        <v>635</v>
+        <v>790</v>
       </c>
       <c r="H120" t="s">
-        <v>874</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6213,19 +7152,19 @@
         <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D121" s="2">
         <v>44169.44126157407</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>397</v>
+        <v>476</v>
       </c>
       <c r="G121" t="s">
-        <v>636</v>
+        <v>791</v>
       </c>
       <c r="H121" t="s">
-        <v>875</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6236,7 +7175,7 @@
         <v>128</v>
       </c>
       <c r="C122" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D122" s="2">
         <v>44169.44166666667</v>
@@ -6245,13 +7184,13 @@
         <v>44172.55052083333</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>398</v>
+        <v>477</v>
       </c>
       <c r="G122" t="s">
-        <v>637</v>
+        <v>792</v>
       </c>
       <c r="H122" t="s">
-        <v>876</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6262,7 +7201,7 @@
         <v>129</v>
       </c>
       <c r="C123" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D123" s="2">
         <v>44169.44709490741</v>
@@ -6271,13 +7210,13 @@
         <v>44172.46731481481</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="G123" t="s">
-        <v>638</v>
+        <v>793</v>
       </c>
       <c r="H123" t="s">
-        <v>877</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6288,7 +7227,7 @@
         <v>130</v>
       </c>
       <c r="C124" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D124" s="2">
         <v>44169.4474537037</v>
@@ -6297,13 +7236,13 @@
         <v>44172.54350694444</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="G124" t="s">
-        <v>639</v>
+        <v>794</v>
       </c>
       <c r="H124" t="s">
-        <v>878</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6314,19 +7253,19 @@
         <v>131</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="D125" s="2">
         <v>44169.54765046296</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="G125" t="s">
-        <v>640</v>
+        <v>795</v>
       </c>
       <c r="H125" t="s">
-        <v>879</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6337,19 +7276,19 @@
         <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D126" s="2">
         <v>44169.55365740741</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>402</v>
+        <v>481</v>
       </c>
       <c r="G126" t="s">
-        <v>641</v>
+        <v>796</v>
       </c>
       <c r="H126" t="s">
-        <v>880</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6360,7 +7299,7 @@
         <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D127" s="2">
         <v>44169.55423611111</v>
@@ -6369,13 +7308,13 @@
         <v>44172.661875</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>403</v>
+        <v>482</v>
       </c>
       <c r="G127" t="s">
-        <v>642</v>
+        <v>797</v>
       </c>
       <c r="H127" t="s">
-        <v>881</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6386,7 +7325,7 @@
         <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D128" s="2">
         <v>44169.55640046296</v>
@@ -6395,13 +7334,13 @@
         <v>44172.52945601852</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>404</v>
+        <v>483</v>
       </c>
       <c r="G128" t="s">
-        <v>643</v>
+        <v>798</v>
       </c>
       <c r="H128" t="s">
-        <v>882</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6412,19 +7351,22 @@
         <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D129" s="2">
         <v>44169.55736111111</v>
       </c>
+      <c r="E129" s="2">
+        <v>44173.49375</v>
+      </c>
       <c r="F129" s="3" t="s">
-        <v>405</v>
+        <v>484</v>
       </c>
       <c r="G129" t="s">
-        <v>644</v>
+        <v>799</v>
       </c>
       <c r="H129" t="s">
-        <v>883</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6435,19 +7377,22 @@
         <v>136</v>
       </c>
       <c r="C130" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D130" s="2">
         <v>44169.56736111111</v>
       </c>
+      <c r="E130" s="2">
+        <v>44173.54935185185</v>
+      </c>
       <c r="F130" s="3" t="s">
-        <v>406</v>
+        <v>485</v>
       </c>
       <c r="G130" t="s">
-        <v>645</v>
+        <v>800</v>
       </c>
       <c r="H130" t="s">
-        <v>884</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6458,19 +7403,19 @@
         <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="D131" s="2">
         <v>44169.56824074074</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="G131" t="s">
-        <v>646</v>
+        <v>801</v>
       </c>
       <c r="H131" t="s">
-        <v>885</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6481,19 +7426,19 @@
         <v>138</v>
       </c>
       <c r="C132" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="D132" s="2">
         <v>44169.57638888889</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="G132" t="s">
-        <v>647</v>
+        <v>802</v>
       </c>
       <c r="H132" t="s">
-        <v>886</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6504,7 +7449,7 @@
         <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="D133" s="2">
         <v>44169.57664351852</v>
@@ -6513,13 +7458,13 @@
         <v>44172.56440972222</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="G133" t="s">
-        <v>648</v>
+        <v>803</v>
       </c>
       <c r="H133" t="s">
-        <v>887</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6530,7 +7475,7 @@
         <v>140</v>
       </c>
       <c r="C134" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D134" s="2">
         <v>44169.57831018518</v>
@@ -6539,13 +7484,13 @@
         <v>44172.58519675926</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>410</v>
+        <v>489</v>
       </c>
       <c r="G134" t="s">
-        <v>649</v>
+        <v>804</v>
       </c>
       <c r="H134" t="s">
-        <v>888</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6556,7 +7501,7 @@
         <v>141</v>
       </c>
       <c r="C135" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D135" s="2">
         <v>44169.57871527778</v>
@@ -6565,13 +7510,13 @@
         <v>44172.37688657407</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>411</v>
+        <v>490</v>
       </c>
       <c r="G135" t="s">
-        <v>650</v>
+        <v>805</v>
       </c>
       <c r="H135" t="s">
-        <v>889</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6582,19 +7527,19 @@
         <v>142</v>
       </c>
       <c r="C136" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D136" s="2">
         <v>44169.57982638889</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>412</v>
+        <v>491</v>
       </c>
       <c r="G136" t="s">
-        <v>651</v>
+        <v>806</v>
       </c>
       <c r="H136" t="s">
-        <v>890</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6605,7 +7550,7 @@
         <v>143</v>
       </c>
       <c r="C137" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D137" s="2">
         <v>44169.58009259259</v>
@@ -6614,13 +7559,13 @@
         <v>44172.48101851852</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>413</v>
+        <v>492</v>
       </c>
       <c r="G137" t="s">
-        <v>652</v>
+        <v>807</v>
       </c>
       <c r="H137" t="s">
-        <v>891</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6631,19 +7576,19 @@
         <v>144</v>
       </c>
       <c r="C138" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D138" s="2">
         <v>44169.58046296296</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>414</v>
+        <v>493</v>
       </c>
       <c r="G138" t="s">
-        <v>653</v>
+        <v>808</v>
       </c>
       <c r="H138" t="s">
-        <v>892</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6654,19 +7599,19 @@
         <v>145</v>
       </c>
       <c r="C139" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D139" s="2">
         <v>44169.58063657407</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>415</v>
+        <v>494</v>
       </c>
       <c r="G139" t="s">
-        <v>654</v>
+        <v>809</v>
       </c>
       <c r="H139" t="s">
-        <v>893</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6677,7 +7622,7 @@
         <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D140" s="2">
         <v>44169.58083333333</v>
@@ -6686,13 +7631,13 @@
         <v>44172.661875</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>416</v>
+        <v>495</v>
       </c>
       <c r="G140" t="s">
-        <v>655</v>
+        <v>810</v>
       </c>
       <c r="H140" t="s">
-        <v>894</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6703,7 +7648,7 @@
         <v>147</v>
       </c>
       <c r="C141" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="D141" s="2">
         <v>44169.61425925926</v>
@@ -6712,13 +7657,13 @@
         <v>44172.62685185186</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>417</v>
+        <v>496</v>
       </c>
       <c r="G141" t="s">
-        <v>656</v>
+        <v>811</v>
       </c>
       <c r="H141" t="s">
-        <v>895</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6729,7 +7674,7 @@
         <v>148</v>
       </c>
       <c r="C142" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D142" s="2">
         <v>44169.61520833334</v>
@@ -6738,13 +7683,13 @@
         <v>44172.64771990741</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>418</v>
+        <v>497</v>
       </c>
       <c r="G142" t="s">
-        <v>657</v>
+        <v>812</v>
       </c>
       <c r="H142" t="s">
-        <v>896</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6755,19 +7700,22 @@
         <v>149</v>
       </c>
       <c r="C143" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D143" s="2">
         <v>44169.61887731482</v>
       </c>
+      <c r="E143" s="2">
+        <v>44173.57486111111</v>
+      </c>
       <c r="F143" s="3" t="s">
-        <v>419</v>
+        <v>498</v>
       </c>
       <c r="G143" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="H143" t="s">
-        <v>897</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6778,19 +7726,19 @@
         <v>150</v>
       </c>
       <c r="C144" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D144" s="2">
         <v>44169.6190625</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="G144" t="s">
-        <v>659</v>
+        <v>814</v>
       </c>
       <c r="H144" t="s">
-        <v>898</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6801,19 +7749,19 @@
         <v>151</v>
       </c>
       <c r="C145" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D145" s="2">
         <v>44169.61944444444</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>421</v>
+        <v>500</v>
       </c>
       <c r="G145" t="s">
-        <v>660</v>
+        <v>815</v>
       </c>
       <c r="H145" t="s">
-        <v>899</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6824,19 +7772,19 @@
         <v>152</v>
       </c>
       <c r="C146" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D146" s="2">
         <v>44169.61978009259</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="G146" t="s">
-        <v>661</v>
+        <v>816</v>
       </c>
       <c r="H146" t="s">
-        <v>900</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6847,19 +7795,19 @@
         <v>153</v>
       </c>
       <c r="C147" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="D147" s="2">
         <v>44169.62078703703</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>423</v>
+        <v>502</v>
       </c>
       <c r="G147" t="s">
-        <v>662</v>
+        <v>817</v>
       </c>
       <c r="H147" t="s">
-        <v>901</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6870,7 +7818,7 @@
         <v>154</v>
       </c>
       <c r="C148" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="D148" s="2">
         <v>44169.62101851852</v>
@@ -6879,13 +7827,13 @@
         <v>44172.45366898148</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="G148" t="s">
-        <v>663</v>
+        <v>818</v>
       </c>
       <c r="H148" t="s">
-        <v>902</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6896,19 +7844,19 @@
         <v>155</v>
       </c>
       <c r="C149" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="D149" s="2">
         <v>44169.62621527778</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>425</v>
+        <v>504</v>
       </c>
       <c r="G149" t="s">
-        <v>664</v>
+        <v>819</v>
       </c>
       <c r="H149" t="s">
-        <v>903</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6919,19 +7867,19 @@
         <v>156</v>
       </c>
       <c r="C150" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="D150" s="2">
         <v>44169.62827546296</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>426</v>
+        <v>505</v>
       </c>
       <c r="G150" t="s">
-        <v>665</v>
+        <v>820</v>
       </c>
       <c r="H150" t="s">
-        <v>904</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6942,7 +7890,7 @@
         <v>157</v>
       </c>
       <c r="C151" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="D151" s="2">
         <v>44169.62868055556</v>
@@ -6951,13 +7899,13 @@
         <v>44172.56440972222</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="G151" t="s">
-        <v>666</v>
+        <v>821</v>
       </c>
       <c r="H151" t="s">
-        <v>905</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6968,7 +7916,7 @@
         <v>158</v>
       </c>
       <c r="C152" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="D152" s="2">
         <v>44169.62918981481</v>
@@ -6977,13 +7925,13 @@
         <v>44172.39770833333</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="G152" t="s">
-        <v>667</v>
+        <v>822</v>
       </c>
       <c r="H152" t="s">
-        <v>906</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6994,19 +7942,22 @@
         <v>159</v>
       </c>
       <c r="C153" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="D153" s="2">
         <v>44169.62980324074</v>
       </c>
+      <c r="E153" s="2">
+        <v>44173.57486111111</v>
+      </c>
       <c r="F153" s="3" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="G153" t="s">
-        <v>668</v>
+        <v>823</v>
       </c>
       <c r="H153" t="s">
-        <v>907</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7017,7 +7968,7 @@
         <v>160</v>
       </c>
       <c r="C154" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D154" s="2">
         <v>44169.63193287037</v>
@@ -7026,13 +7977,13 @@
         <v>44172.37688657407</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="G154" t="s">
-        <v>669</v>
+        <v>824</v>
       </c>
       <c r="H154" t="s">
-        <v>908</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -7043,19 +7994,19 @@
         <v>161</v>
       </c>
       <c r="C155" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="D155" s="2">
         <v>44169.63460648148</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>431</v>
+        <v>510</v>
       </c>
       <c r="G155" t="s">
-        <v>670</v>
+        <v>825</v>
       </c>
       <c r="H155" t="s">
-        <v>909</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -7066,7 +8017,7 @@
         <v>162</v>
       </c>
       <c r="C156" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="D156" s="2">
         <v>44169.63493055556</v>
@@ -7075,13 +8026,13 @@
         <v>44172.59908564815</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>432</v>
+        <v>511</v>
       </c>
       <c r="G156" t="s">
-        <v>671</v>
+        <v>826</v>
       </c>
       <c r="H156" t="s">
-        <v>910</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -7092,7 +8043,7 @@
         <v>163</v>
       </c>
       <c r="C157" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D157" s="2">
         <v>44169.64019675926</v>
@@ -7101,13 +8052,13 @@
         <v>44172.62685185186</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>433</v>
+        <v>512</v>
       </c>
       <c r="G157" t="s">
-        <v>672</v>
+        <v>827</v>
       </c>
       <c r="H157" t="s">
-        <v>911</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -7118,19 +8069,19 @@
         <v>164</v>
       </c>
       <c r="C158" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="D158" s="2">
         <v>44169.64153935185</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>434</v>
+        <v>513</v>
       </c>
       <c r="G158" t="s">
-        <v>673</v>
+        <v>828</v>
       </c>
       <c r="H158" t="s">
-        <v>912</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -7141,19 +8092,19 @@
         <v>165</v>
       </c>
       <c r="C159" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="D159" s="2">
         <v>44169.64171296296</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>435</v>
+        <v>514</v>
       </c>
       <c r="G159" t="s">
-        <v>674</v>
+        <v>829</v>
       </c>
       <c r="H159" t="s">
-        <v>913</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7164,7 +8115,7 @@
         <v>166</v>
       </c>
       <c r="C160" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D160" s="2">
         <v>44169.64542824074</v>
@@ -7173,13 +8124,13 @@
         <v>44172.64079861111</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>436</v>
+        <v>515</v>
       </c>
       <c r="G160" t="s">
-        <v>675</v>
+        <v>830</v>
       </c>
       <c r="H160" t="s">
-        <v>914</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -7190,19 +8141,19 @@
         <v>167</v>
       </c>
       <c r="C161" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D161" s="2">
         <v>44169.64560185185</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>437</v>
+        <v>516</v>
       </c>
       <c r="G161" t="s">
-        <v>676</v>
+        <v>831</v>
       </c>
       <c r="H161" t="s">
-        <v>915</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -7213,7 +8164,7 @@
         <v>168</v>
       </c>
       <c r="C162" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="D162" s="2">
         <v>44172.35864583333</v>
@@ -7222,13 +8173,13 @@
         <v>44172.57832175926</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>438</v>
+        <v>517</v>
       </c>
       <c r="G162" t="s">
-        <v>677</v>
+        <v>832</v>
       </c>
       <c r="H162" t="s">
-        <v>916</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7239,7 +8190,7 @@
         <v>169</v>
       </c>
       <c r="C163" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D163" s="2">
         <v>44172.3622337963</v>
@@ -7248,13 +8199,13 @@
         <v>44172.42543981481</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>439</v>
+        <v>518</v>
       </c>
       <c r="G163" t="s">
-        <v>678</v>
+        <v>833</v>
       </c>
       <c r="H163" t="s">
-        <v>917</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7265,22 +8216,19 @@
         <v>170</v>
       </c>
       <c r="C164" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D164" s="2">
         <v>44172.36599537037</v>
       </c>
-      <c r="E164" s="2">
-        <v>44172.64079861111</v>
-      </c>
       <c r="F164" s="3" t="s">
-        <v>440</v>
+        <v>519</v>
       </c>
       <c r="G164" t="s">
-        <v>679</v>
+        <v>834</v>
       </c>
       <c r="H164" t="s">
-        <v>918</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7291,7 +8239,7 @@
         <v>171</v>
       </c>
       <c r="C165" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="D165" s="2">
         <v>44172.37116898148</v>
@@ -7300,13 +8248,13 @@
         <v>44172.44670138889</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>441</v>
+        <v>520</v>
       </c>
       <c r="G165" t="s">
-        <v>680</v>
+        <v>835</v>
       </c>
       <c r="H165" t="s">
-        <v>919</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7317,19 +8265,22 @@
         <v>172</v>
       </c>
       <c r="C166" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D166" s="2">
         <v>44172.37363425926</v>
       </c>
+      <c r="E166" s="2">
+        <v>44173.43817129629</v>
+      </c>
       <c r="F166" s="3" t="s">
-        <v>442</v>
+        <v>521</v>
       </c>
       <c r="G166" t="s">
-        <v>681</v>
+        <v>836</v>
       </c>
       <c r="H166" t="s">
-        <v>920</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7340,19 +8291,19 @@
         <v>173</v>
       </c>
       <c r="C167" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D167" s="2">
         <v>44172.37380787037</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>443</v>
+        <v>522</v>
       </c>
       <c r="G167" t="s">
-        <v>682</v>
+        <v>837</v>
       </c>
       <c r="H167" t="s">
-        <v>921</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7363,7 +8314,7 @@
         <v>174</v>
       </c>
       <c r="C168" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D168" s="2">
         <v>44172.37664351852</v>
@@ -7372,13 +8323,13 @@
         <v>44172.64771990741</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>444</v>
+        <v>523</v>
       </c>
       <c r="G168" t="s">
-        <v>683</v>
+        <v>838</v>
       </c>
       <c r="H168" t="s">
-        <v>922</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7389,7 +8340,7 @@
         <v>175</v>
       </c>
       <c r="C169" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D169" s="2">
         <v>44172.37701388889</v>
@@ -7398,13 +8349,13 @@
         <v>44172.68248842593</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>445</v>
+        <v>524</v>
       </c>
       <c r="G169" t="s">
-        <v>684</v>
+        <v>839</v>
       </c>
       <c r="H169" t="s">
-        <v>923</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7415,7 +8366,7 @@
         <v>176</v>
       </c>
       <c r="C170" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D170" s="2">
         <v>44172.3790162037</v>
@@ -7424,13 +8375,13 @@
         <v>44172.49484953703</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>446</v>
+        <v>525</v>
       </c>
       <c r="G170" t="s">
-        <v>685</v>
+        <v>840</v>
       </c>
       <c r="H170" t="s">
-        <v>924</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7441,7 +8392,7 @@
         <v>177</v>
       </c>
       <c r="C171" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D171" s="2">
         <v>44172.37978009259</v>
@@ -7450,13 +8401,13 @@
         <v>44172.67570601852</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>447</v>
+        <v>526</v>
       </c>
       <c r="G171" t="s">
-        <v>686</v>
+        <v>841</v>
       </c>
       <c r="H171" t="s">
-        <v>925</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7467,19 +8418,19 @@
         <v>178</v>
       </c>
       <c r="C172" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D172" s="2">
         <v>44172.3803125</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>448</v>
+        <v>527</v>
       </c>
       <c r="G172" t="s">
-        <v>687</v>
+        <v>842</v>
       </c>
       <c r="H172" t="s">
-        <v>926</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7490,7 +8441,7 @@
         <v>179</v>
       </c>
       <c r="C173" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D173" s="2">
         <v>44172.38069444444</v>
@@ -7499,13 +8450,13 @@
         <v>44172.52945601852</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="G173" t="s">
-        <v>688</v>
+        <v>843</v>
       </c>
       <c r="H173" t="s">
-        <v>927</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7516,7 +8467,7 @@
         <v>180</v>
       </c>
       <c r="C174" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D174" s="2">
         <v>44172.38094907408</v>
@@ -7525,13 +8476,13 @@
         <v>44172.46731481481</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="G174" t="s">
-        <v>689</v>
+        <v>844</v>
       </c>
       <c r="H174" t="s">
-        <v>928</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7542,7 +8493,7 @@
         <v>181</v>
       </c>
       <c r="C175" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D175" s="2">
         <v>44172.3828587963</v>
@@ -7551,13 +8502,13 @@
         <v>44172.5575462963</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>451</v>
+        <v>530</v>
       </c>
       <c r="G175" t="s">
-        <v>690</v>
+        <v>845</v>
       </c>
       <c r="H175" t="s">
-        <v>929</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7568,19 +8519,19 @@
         <v>182</v>
       </c>
       <c r="C176" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D176" s="2">
         <v>44172.38331018519</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="G176" t="s">
-        <v>691</v>
+        <v>846</v>
       </c>
       <c r="H176" t="s">
-        <v>930</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7591,19 +8542,19 @@
         <v>183</v>
       </c>
       <c r="C177" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D177" s="2">
         <v>44172.38540509259</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>453</v>
+        <v>532</v>
       </c>
       <c r="G177" t="s">
-        <v>692</v>
+        <v>847</v>
       </c>
       <c r="H177" t="s">
-        <v>931</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7614,7 +8565,7 @@
         <v>184</v>
       </c>
       <c r="C178" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="D178" s="2">
         <v>44172.38704861111</v>
@@ -7623,13 +8574,13 @@
         <v>44172.5575462963</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>454</v>
+        <v>533</v>
       </c>
       <c r="G178" t="s">
-        <v>693</v>
+        <v>848</v>
       </c>
       <c r="H178" t="s">
-        <v>932</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7640,7 +8591,7 @@
         <v>185</v>
       </c>
       <c r="C179" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="D179" s="2">
         <v>44172.3872337963</v>
@@ -7649,13 +8600,13 @@
         <v>44172.43252314815</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>455</v>
+        <v>534</v>
       </c>
       <c r="G179" t="s">
-        <v>694</v>
+        <v>849</v>
       </c>
       <c r="H179" t="s">
-        <v>933</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7666,7 +8617,7 @@
         <v>186</v>
       </c>
       <c r="C180" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="D180" s="2">
         <v>44172.38748842593</v>
@@ -7675,13 +8626,13 @@
         <v>44172.43950231482</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>456</v>
+        <v>535</v>
       </c>
       <c r="G180" t="s">
-        <v>695</v>
+        <v>850</v>
       </c>
       <c r="H180" t="s">
-        <v>934</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7692,19 +8643,19 @@
         <v>187</v>
       </c>
       <c r="C181" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="D181" s="2">
         <v>44172.38975694445</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>457</v>
+        <v>536</v>
       </c>
       <c r="G181" t="s">
-        <v>696</v>
+        <v>851</v>
       </c>
       <c r="H181" t="s">
-        <v>935</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7715,7 +8666,7 @@
         <v>188</v>
       </c>
       <c r="C182" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="D182" s="2">
         <v>44172.39078703704</v>
@@ -7724,13 +8675,13 @@
         <v>44172.58519675926</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="G182" t="s">
-        <v>697</v>
+        <v>852</v>
       </c>
       <c r="H182" t="s">
-        <v>936</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7741,19 +8692,19 @@
         <v>189</v>
       </c>
       <c r="C183" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="D183" s="2">
         <v>44172.42251157408</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="G183" t="s">
-        <v>698</v>
+        <v>853</v>
       </c>
       <c r="H183" t="s">
-        <v>937</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7764,19 +8715,22 @@
         <v>190</v>
       </c>
       <c r="C184" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="D184" s="2">
         <v>44172.42290509259</v>
       </c>
+      <c r="E184" s="2">
+        <v>44173.39651620371</v>
+      </c>
       <c r="F184" s="3" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="G184" t="s">
-        <v>699</v>
+        <v>854</v>
       </c>
       <c r="H184" t="s">
-        <v>938</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7787,7 +8741,7 @@
         <v>191</v>
       </c>
       <c r="C185" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="D185" s="2">
         <v>44172.42689814815</v>
@@ -7796,13 +8750,13 @@
         <v>44172.46030092592</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>461</v>
+        <v>540</v>
       </c>
       <c r="G185" t="s">
-        <v>700</v>
+        <v>855</v>
       </c>
       <c r="H185" t="s">
-        <v>939</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7813,19 +8767,19 @@
         <v>192</v>
       </c>
       <c r="C186" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="D186" s="2">
         <v>44172.43039351852</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>462</v>
+        <v>541</v>
       </c>
       <c r="G186" t="s">
-        <v>701</v>
+        <v>856</v>
       </c>
       <c r="H186" t="s">
-        <v>940</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7836,19 +8790,19 @@
         <v>193</v>
       </c>
       <c r="C187" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="D187" s="2">
         <v>44172.43502314815</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="G187" t="s">
-        <v>702</v>
+        <v>857</v>
       </c>
       <c r="H187" t="s">
-        <v>941</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7859,7 +8813,7 @@
         <v>194</v>
       </c>
       <c r="C188" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="D188" s="2">
         <v>44172.43559027778</v>
@@ -7868,13 +8822,13 @@
         <v>44172.57832175926</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>464</v>
+        <v>543</v>
       </c>
       <c r="G188" t="s">
-        <v>703</v>
+        <v>858</v>
       </c>
       <c r="H188" t="s">
-        <v>942</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7885,19 +8839,19 @@
         <v>195</v>
       </c>
       <c r="C189" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D189" s="2">
         <v>44172.43943287037</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>465</v>
+        <v>544</v>
       </c>
       <c r="G189" t="s">
-        <v>704</v>
+        <v>859</v>
       </c>
       <c r="H189" t="s">
-        <v>943</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7908,7 +8862,7 @@
         <v>196</v>
       </c>
       <c r="C190" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="D190" s="2">
         <v>44172.44055555556</v>
@@ -7917,13 +8871,13 @@
         <v>44172.5575462963</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>466</v>
+        <v>545</v>
       </c>
       <c r="G190" t="s">
-        <v>705</v>
+        <v>860</v>
       </c>
       <c r="H190" t="s">
-        <v>944</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7934,7 +8888,7 @@
         <v>197</v>
       </c>
       <c r="C191" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="D191" s="2">
         <v>44172.44206018518</v>
@@ -7943,13 +8897,13 @@
         <v>44172.55052083333</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>467</v>
+        <v>546</v>
       </c>
       <c r="G191" t="s">
-        <v>706</v>
+        <v>861</v>
       </c>
       <c r="H191" t="s">
-        <v>945</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7960,19 +8914,19 @@
         <v>198</v>
       </c>
       <c r="C192" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D192" s="2">
         <v>44172.44471064815</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>468</v>
+        <v>547</v>
       </c>
       <c r="G192" t="s">
-        <v>707</v>
+        <v>862</v>
       </c>
       <c r="H192" t="s">
-        <v>946</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7983,7 +8937,7 @@
         <v>199</v>
       </c>
       <c r="C193" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D193" s="2">
         <v>44172.44600694445</v>
@@ -7992,13 +8946,13 @@
         <v>44172.5365625</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>469</v>
+        <v>548</v>
       </c>
       <c r="G193" t="s">
-        <v>708</v>
+        <v>863</v>
       </c>
       <c r="H193" t="s">
-        <v>947</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -8009,19 +8963,19 @@
         <v>200</v>
       </c>
       <c r="C194" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D194" s="2">
         <v>44172.54777777778</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>470</v>
+        <v>549</v>
       </c>
       <c r="G194" t="s">
-        <v>709</v>
+        <v>864</v>
       </c>
       <c r="H194" t="s">
-        <v>948</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -8032,19 +8986,22 @@
         <v>201</v>
       </c>
       <c r="C195" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D195" s="2">
         <v>44172.54819444445</v>
       </c>
+      <c r="E195" s="2">
+        <v>44173.42431712963</v>
+      </c>
       <c r="F195" s="3" t="s">
-        <v>471</v>
+        <v>550</v>
       </c>
       <c r="G195" t="s">
-        <v>710</v>
+        <v>865</v>
       </c>
       <c r="H195" t="s">
-        <v>949</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -8055,7 +9012,7 @@
         <v>202</v>
       </c>
       <c r="C196" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D196" s="2">
         <v>44172.54844907407</v>
@@ -8064,13 +9021,13 @@
         <v>44172.67570601852</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>472</v>
+        <v>551</v>
       </c>
       <c r="G196" t="s">
-        <v>711</v>
+        <v>866</v>
       </c>
       <c r="H196" t="s">
-        <v>950</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -8081,7 +9038,7 @@
         <v>203</v>
       </c>
       <c r="C197" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D197" s="2">
         <v>44172.54872685186</v>
@@ -8090,13 +9047,13 @@
         <v>44172.55052083333</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>473</v>
+        <v>552</v>
       </c>
       <c r="G197" t="s">
-        <v>712</v>
+        <v>867</v>
       </c>
       <c r="H197" t="s">
-        <v>951</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -8107,19 +9064,22 @@
         <v>204</v>
       </c>
       <c r="C198" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D198" s="2">
         <v>44172.5502662037</v>
       </c>
+      <c r="E198" s="2">
+        <v>44173.57486111111</v>
+      </c>
       <c r="F198" s="3" t="s">
-        <v>474</v>
+        <v>553</v>
       </c>
       <c r="G198" t="s">
-        <v>713</v>
+        <v>868</v>
       </c>
       <c r="H198" t="s">
-        <v>952</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -8130,19 +9090,19 @@
         <v>205</v>
       </c>
       <c r="C199" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D199" s="2">
         <v>44172.55082175926</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>475</v>
+        <v>554</v>
       </c>
       <c r="G199" t="s">
-        <v>714</v>
+        <v>869</v>
       </c>
       <c r="H199" t="s">
-        <v>953</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8153,19 +9113,19 @@
         <v>206</v>
       </c>
       <c r="C200" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="D200" s="2">
         <v>44172.55105324074</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>476</v>
+        <v>555</v>
       </c>
       <c r="G200" t="s">
-        <v>715</v>
+        <v>870</v>
       </c>
       <c r="H200" t="s">
-        <v>954</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -8176,7 +9136,7 @@
         <v>207</v>
       </c>
       <c r="C201" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D201" s="2">
         <v>44172.5522337963</v>
@@ -8185,13 +9145,13 @@
         <v>44172.61253472222</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="G201" t="s">
-        <v>716</v>
+        <v>871</v>
       </c>
       <c r="H201" t="s">
-        <v>955</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -8202,7 +9162,7 @@
         <v>208</v>
       </c>
       <c r="C202" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D202" s="2">
         <v>44172.55321759259</v>
@@ -8211,13 +9171,13 @@
         <v>44172.61253472222</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="G202" t="s">
-        <v>717</v>
+        <v>872</v>
       </c>
       <c r="H202" t="s">
-        <v>956</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -8228,19 +9188,19 @@
         <v>209</v>
       </c>
       <c r="C203" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="D203" s="2">
         <v>44172.55681712963</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>479</v>
+        <v>558</v>
       </c>
       <c r="G203" t="s">
-        <v>718</v>
+        <v>873</v>
       </c>
       <c r="H203" t="s">
-        <v>957</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8251,19 +9211,19 @@
         <v>103</v>
       </c>
       <c r="C204" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="D204" s="2">
         <v>44172.55990740741</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>480</v>
+        <v>559</v>
       </c>
       <c r="G204" t="s">
-        <v>719</v>
+        <v>874</v>
       </c>
       <c r="H204" t="s">
-        <v>958</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8274,7 +9234,7 @@
         <v>210</v>
       </c>
       <c r="C205" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="D205" s="2">
         <v>44172.56100694444</v>
@@ -8283,13 +9243,13 @@
         <v>44172.62685185186</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
       <c r="G205" t="s">
-        <v>720</v>
+        <v>875</v>
       </c>
       <c r="H205" t="s">
-        <v>959</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8300,22 +9260,19 @@
         <v>211</v>
       </c>
       <c r="C206" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="D206" s="2">
         <v>44172.56277777778</v>
       </c>
-      <c r="E206" s="2">
-        <v>44172.64771990741</v>
-      </c>
       <c r="F206" s="3" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="G206" t="s">
-        <v>721</v>
+        <v>876</v>
       </c>
       <c r="H206" t="s">
-        <v>960</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8326,19 +9283,22 @@
         <v>212</v>
       </c>
       <c r="C207" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="D207" s="2">
         <v>44172.56363425926</v>
       </c>
+      <c r="E207" s="2">
+        <v>44173.37569444445</v>
+      </c>
       <c r="F207" s="3" t="s">
-        <v>483</v>
+        <v>562</v>
       </c>
       <c r="G207" t="s">
-        <v>722</v>
+        <v>877</v>
       </c>
       <c r="H207" t="s">
-        <v>961</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8349,19 +9309,22 @@
         <v>213</v>
       </c>
       <c r="C208" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="D208" s="2">
         <v>44172.56380787037</v>
       </c>
+      <c r="E208" s="2">
+        <v>44173.57486111111</v>
+      </c>
       <c r="F208" s="3" t="s">
-        <v>484</v>
+        <v>563</v>
       </c>
       <c r="G208" t="s">
-        <v>723</v>
+        <v>878</v>
       </c>
       <c r="H208" t="s">
-        <v>962</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8372,19 +9335,22 @@
         <v>214</v>
       </c>
       <c r="C209" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D209" s="2">
         <v>44172.56771990741</v>
       </c>
+      <c r="E209" s="2">
+        <v>44173.61194444444</v>
+      </c>
       <c r="F209" s="3" t="s">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="G209" t="s">
-        <v>724</v>
+        <v>879</v>
       </c>
       <c r="H209" t="s">
-        <v>963</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8395,19 +9361,19 @@
         <v>215</v>
       </c>
       <c r="C210" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="D210" s="2">
         <v>44172.56892361111</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
       <c r="G210" t="s">
-        <v>725</v>
+        <v>880</v>
       </c>
       <c r="H210" t="s">
-        <v>964</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8418,19 +9384,19 @@
         <v>216</v>
       </c>
       <c r="C211" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="D211" s="2">
         <v>44172.57067129629</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="G211" t="s">
-        <v>726</v>
+        <v>881</v>
       </c>
       <c r="H211" t="s">
-        <v>965</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8441,19 +9407,22 @@
         <v>217</v>
       </c>
       <c r="C212" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D212" s="2">
         <v>44172.57314814815</v>
       </c>
+      <c r="E212" s="2">
+        <v>44173.44517361111</v>
+      </c>
       <c r="F212" s="3" t="s">
-        <v>488</v>
+        <v>567</v>
       </c>
       <c r="G212" t="s">
-        <v>727</v>
+        <v>882</v>
       </c>
       <c r="H212" t="s">
-        <v>966</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8464,19 +9433,19 @@
         <v>218</v>
       </c>
       <c r="C213" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D213" s="2">
         <v>44172.5735300926</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>489</v>
+        <v>568</v>
       </c>
       <c r="G213" t="s">
-        <v>728</v>
+        <v>883</v>
       </c>
       <c r="H213" t="s">
-        <v>967</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8487,7 +9456,7 @@
         <v>219</v>
       </c>
       <c r="C214" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D214" s="2">
         <v>44172.57375</v>
@@ -8496,13 +9465,13 @@
         <v>44172.6547337963</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="G214" t="s">
-        <v>729</v>
+        <v>884</v>
       </c>
       <c r="H214" t="s">
-        <v>968</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8513,19 +9482,22 @@
         <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="D215" s="2">
         <v>44172.57631944444</v>
       </c>
+      <c r="E215" s="2">
+        <v>44173.57486111111</v>
+      </c>
       <c r="F215" s="3" t="s">
-        <v>491</v>
+        <v>570</v>
       </c>
       <c r="G215" t="s">
-        <v>730</v>
+        <v>885</v>
       </c>
       <c r="H215" t="s">
-        <v>969</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8536,19 +9508,19 @@
         <v>221</v>
       </c>
       <c r="C216" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D216" s="2">
         <v>44172.62869212963</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>492</v>
+        <v>571</v>
       </c>
       <c r="G216" t="s">
-        <v>731</v>
+        <v>886</v>
       </c>
       <c r="H216" t="s">
-        <v>970</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8559,19 +9531,22 @@
         <v>222</v>
       </c>
       <c r="C217" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D217" s="2">
         <v>44172.62909722222</v>
       </c>
+      <c r="E217" s="2">
+        <v>44173.37569444445</v>
+      </c>
       <c r="F217" s="3" t="s">
-        <v>493</v>
+        <v>572</v>
       </c>
       <c r="G217" t="s">
-        <v>732</v>
+        <v>887</v>
       </c>
       <c r="H217" t="s">
-        <v>971</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8582,19 +9557,22 @@
         <v>223</v>
       </c>
       <c r="C218" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="D218" s="2">
         <v>44172.6321875</v>
       </c>
+      <c r="E218" s="2">
+        <v>44173.41038194444</v>
+      </c>
       <c r="F218" s="3" t="s">
-        <v>494</v>
+        <v>573</v>
       </c>
       <c r="G218" t="s">
-        <v>733</v>
+        <v>888</v>
       </c>
       <c r="H218" t="s">
-        <v>972</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8605,7 +9583,7 @@
         <v>224</v>
       </c>
       <c r="C219" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="D219" s="2">
         <v>44172.63245370371</v>
@@ -8614,13 +9592,13 @@
         <v>44172.67570601852</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>495</v>
+        <v>574</v>
       </c>
       <c r="G219" t="s">
-        <v>734</v>
+        <v>889</v>
       </c>
       <c r="H219" t="s">
-        <v>973</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8631,19 +9609,19 @@
         <v>225</v>
       </c>
       <c r="C220" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="D220" s="2">
         <v>44172.63268518518</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>496</v>
+        <v>575</v>
       </c>
       <c r="G220" t="s">
-        <v>735</v>
+        <v>890</v>
       </c>
       <c r="H220" t="s">
-        <v>974</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8654,19 +9632,19 @@
         <v>226</v>
       </c>
       <c r="C221" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D221" s="2">
         <v>44172.63805555556</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>497</v>
+        <v>576</v>
       </c>
       <c r="G221" t="s">
-        <v>736</v>
+        <v>891</v>
       </c>
       <c r="H221" t="s">
-        <v>975</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8677,19 +9655,22 @@
         <v>227</v>
       </c>
       <c r="C222" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="D222" s="2">
         <v>44172.64033564815</v>
       </c>
+      <c r="E222" s="2">
+        <v>44173.57486111111</v>
+      </c>
       <c r="F222" s="3" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="G222" t="s">
-        <v>737</v>
+        <v>892</v>
       </c>
       <c r="H222" t="s">
-        <v>976</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8700,19 +9681,22 @@
         <v>228</v>
       </c>
       <c r="C223" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="D223" s="2">
         <v>44172.64112268519</v>
       </c>
+      <c r="E223" s="2">
+        <v>44173.50768518518</v>
+      </c>
       <c r="F223" s="3" t="s">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="G223" t="s">
-        <v>738</v>
+        <v>893</v>
       </c>
       <c r="H223" t="s">
-        <v>977</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8723,19 +9707,22 @@
         <v>229</v>
       </c>
       <c r="C224" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="D224" s="2">
         <v>44172.64208333333</v>
       </c>
+      <c r="E224" s="2">
+        <v>44173.57747685185</v>
+      </c>
       <c r="F224" s="3" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
       <c r="G224" t="s">
-        <v>739</v>
+        <v>894</v>
       </c>
       <c r="H224" t="s">
-        <v>978</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8746,19 +9733,22 @@
         <v>230</v>
       </c>
       <c r="C225" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="D225" s="2">
         <v>44172.64552083334</v>
       </c>
+      <c r="E225" s="2">
+        <v>44173.40342592593</v>
+      </c>
       <c r="F225" s="3" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="G225" t="s">
-        <v>740</v>
+        <v>895</v>
       </c>
       <c r="H225" t="s">
-        <v>979</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8769,7 +9759,7 @@
         <v>231</v>
       </c>
       <c r="C226" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="D226" s="2">
         <v>44172.64744212963</v>
@@ -8778,13 +9768,13 @@
         <v>44172.68947916666</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
       <c r="G226" t="s">
-        <v>741</v>
+        <v>896</v>
       </c>
       <c r="H226" t="s">
-        <v>980</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8795,7 +9785,7 @@
         <v>232</v>
       </c>
       <c r="C227" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="D227" s="2">
         <v>44172.65415509259</v>
@@ -8804,13 +9794,13 @@
         <v>44172.68248842593</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>503</v>
+        <v>582</v>
       </c>
       <c r="G227" t="s">
-        <v>742</v>
+        <v>897</v>
       </c>
       <c r="H227" t="s">
-        <v>981</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8821,19 +9811,19 @@
         <v>233</v>
       </c>
       <c r="C228" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="D228" s="2">
         <v>44172.65469907408</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>504</v>
+        <v>583</v>
       </c>
       <c r="G228" t="s">
-        <v>743</v>
+        <v>898</v>
       </c>
       <c r="H228" t="s">
-        <v>982</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8844,19 +9834,19 @@
         <v>234</v>
       </c>
       <c r="C229" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D229" s="2">
         <v>44172.65680555555</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>505</v>
+        <v>584</v>
       </c>
       <c r="G229" t="s">
-        <v>744</v>
+        <v>899</v>
       </c>
       <c r="H229" t="s">
-        <v>983</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8867,19 +9857,19 @@
         <v>235</v>
       </c>
       <c r="C230" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D230" s="2">
         <v>44172.6571412037</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>506</v>
+        <v>585</v>
       </c>
       <c r="G230" t="s">
-        <v>745</v>
+        <v>900</v>
       </c>
       <c r="H230" t="s">
-        <v>984</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8890,19 +9880,22 @@
         <v>236</v>
       </c>
       <c r="C231" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D231" s="2">
         <v>44172.65737268519</v>
       </c>
+      <c r="E231" s="2">
+        <v>44173.61194444444</v>
+      </c>
       <c r="F231" s="3" t="s">
-        <v>507</v>
+        <v>586</v>
       </c>
       <c r="G231" t="s">
-        <v>746</v>
+        <v>901</v>
       </c>
       <c r="H231" t="s">
-        <v>985</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8913,19 +9906,22 @@
         <v>237</v>
       </c>
       <c r="C232" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D232" s="2">
         <v>44172.65777777778</v>
       </c>
+      <c r="E232" s="2">
+        <v>44173.40342592593</v>
+      </c>
       <c r="F232" s="3" t="s">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="G232" t="s">
-        <v>747</v>
+        <v>902</v>
       </c>
       <c r="H232" t="s">
-        <v>986</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8936,19 +9932,19 @@
         <v>238</v>
       </c>
       <c r="C233" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D233" s="2">
         <v>44172.65846064815</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>509</v>
+        <v>588</v>
       </c>
       <c r="G233" t="s">
-        <v>748</v>
+        <v>903</v>
       </c>
       <c r="H233" t="s">
-        <v>987</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8959,19 +9955,22 @@
         <v>239</v>
       </c>
       <c r="C234" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D234" s="2">
         <v>44172.65863425926</v>
       </c>
+      <c r="E234" s="2">
+        <v>44173.54935185185</v>
+      </c>
       <c r="F234" s="3" t="s">
-        <v>510</v>
+        <v>589</v>
       </c>
       <c r="G234" t="s">
-        <v>749</v>
+        <v>904</v>
       </c>
       <c r="H234" t="s">
-        <v>988</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8982,19 +9981,19 @@
         <v>240</v>
       </c>
       <c r="C235" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D235" s="2">
         <v>44172.65884259259</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>511</v>
+        <v>590</v>
       </c>
       <c r="G235" t="s">
-        <v>750</v>
+        <v>905</v>
       </c>
       <c r="H235" t="s">
-        <v>989</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -9005,19 +10004,22 @@
         <v>241</v>
       </c>
       <c r="C236" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D236" s="2">
         <v>44172.65940972222</v>
       </c>
+      <c r="E236" s="2">
+        <v>44173.57486111111</v>
+      </c>
       <c r="F236" s="3" t="s">
-        <v>512</v>
+        <v>591</v>
       </c>
       <c r="G236" t="s">
-        <v>751</v>
+        <v>906</v>
       </c>
       <c r="H236" t="s">
-        <v>990</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9028,19 +10030,22 @@
         <v>242</v>
       </c>
       <c r="C237" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D237" s="2">
         <v>44172.65984953703</v>
       </c>
+      <c r="E237" s="2">
+        <v>44173.39651620371</v>
+      </c>
       <c r="F237" s="3" t="s">
-        <v>513</v>
+        <v>592</v>
       </c>
       <c r="G237" t="s">
-        <v>752</v>
+        <v>907</v>
       </c>
       <c r="H237" t="s">
-        <v>991</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -9051,19 +10056,19 @@
         <v>243</v>
       </c>
       <c r="C238" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D238" s="2">
         <v>44172.66041666667</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>514</v>
+        <v>593</v>
       </c>
       <c r="G238" t="s">
-        <v>753</v>
+        <v>908</v>
       </c>
       <c r="H238" t="s">
-        <v>992</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -9074,19 +10079,19 @@
         <v>244</v>
       </c>
       <c r="C239" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D239" s="2">
         <v>44172.66078703704</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>515</v>
+        <v>594</v>
       </c>
       <c r="G239" t="s">
-        <v>754</v>
+        <v>909</v>
       </c>
       <c r="H239" t="s">
-        <v>993</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -9097,19 +10102,1809 @@
         <v>245</v>
       </c>
       <c r="C240" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="D240" s="2">
         <v>44172.66109953704</v>
       </c>
+      <c r="E240" s="2">
+        <v>44173.40342592593</v>
+      </c>
       <c r="F240" s="3" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="G240" t="s">
-        <v>755</v>
+        <v>910</v>
       </c>
       <c r="H240" t="s">
-        <v>994</v>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>246</v>
+      </c>
+      <c r="C241" t="s">
+        <v>352</v>
+      </c>
+      <c r="D241" s="2">
+        <v>44173.25623842593</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="G241" t="s">
+        <v>911</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>247</v>
+      </c>
+      <c r="C242" t="s">
+        <v>352</v>
+      </c>
+      <c r="D242" s="2">
+        <v>44173.25653935185</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="G242" t="s">
+        <v>912</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>248</v>
+      </c>
+      <c r="C243" t="s">
+        <v>352</v>
+      </c>
+      <c r="D243" s="2">
+        <v>44173.25700231481</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G243" t="s">
+        <v>913</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>249</v>
+      </c>
+      <c r="C244" t="s">
+        <v>352</v>
+      </c>
+      <c r="D244" s="2">
+        <v>44173.25739583333</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G244" t="s">
+        <v>914</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>250</v>
+      </c>
+      <c r="C245" t="s">
+        <v>326</v>
+      </c>
+      <c r="D245" s="2">
+        <v>44173.26005787037</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G245" t="s">
+        <v>915</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>251</v>
+      </c>
+      <c r="C246" t="s">
+        <v>326</v>
+      </c>
+      <c r="D246" s="2">
+        <v>44173.26030092593</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="G246" t="s">
+        <v>916</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>252</v>
+      </c>
+      <c r="C247" t="s">
+        <v>326</v>
+      </c>
+      <c r="D247" s="2">
+        <v>44173.26050925926</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G247" t="s">
+        <v>917</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>253</v>
+      </c>
+      <c r="C248" t="s">
+        <v>326</v>
+      </c>
+      <c r="D248" s="2">
+        <v>44173.26078703703</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="G248" t="s">
+        <v>918</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>254</v>
+      </c>
+      <c r="C249" t="s">
+        <v>326</v>
+      </c>
+      <c r="D249" s="2">
+        <v>44173.26122685185</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G249" t="s">
+        <v>919</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>255</v>
+      </c>
+      <c r="C250" t="s">
+        <v>326</v>
+      </c>
+      <c r="D250" s="2">
+        <v>44173.2614699074</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="G250" t="s">
+        <v>920</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>256</v>
+      </c>
+      <c r="C251" t="s">
+        <v>326</v>
+      </c>
+      <c r="D251" s="2">
+        <v>44173.26168981481</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G251" t="s">
+        <v>921</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>257</v>
+      </c>
+      <c r="C252" t="s">
+        <v>326</v>
+      </c>
+      <c r="D252" s="2">
+        <v>44173.26206018519</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="G252" t="s">
+        <v>922</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>258</v>
+      </c>
+      <c r="C253" t="s">
+        <v>326</v>
+      </c>
+      <c r="D253" s="2">
+        <v>44173.26234953704</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G253" t="s">
+        <v>923</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>259</v>
+      </c>
+      <c r="C254" t="s">
+        <v>326</v>
+      </c>
+      <c r="D254" s="2">
+        <v>44173.26269675926</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G254" t="s">
+        <v>924</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>260</v>
+      </c>
+      <c r="C255" t="s">
+        <v>326</v>
+      </c>
+      <c r="D255" s="2">
+        <v>44173.26292824074</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G255" t="s">
+        <v>925</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>261</v>
+      </c>
+      <c r="C256" t="s">
+        <v>326</v>
+      </c>
+      <c r="D256" s="2">
+        <v>44173.26328703704</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="G256" t="s">
+        <v>926</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>262</v>
+      </c>
+      <c r="C257" t="s">
+        <v>326</v>
+      </c>
+      <c r="D257" s="2">
+        <v>44173.26664351852</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G257" t="s">
+        <v>927</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>263</v>
+      </c>
+      <c r="C258" t="s">
+        <v>326</v>
+      </c>
+      <c r="D258" s="2">
+        <v>44173.26681712963</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G258" t="s">
+        <v>928</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>264</v>
+      </c>
+      <c r="C259" t="s">
+        <v>330</v>
+      </c>
+      <c r="D259" s="2">
+        <v>44173.2696875</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="G259" t="s">
+        <v>929</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>265</v>
+      </c>
+      <c r="C260" t="s">
+        <v>330</v>
+      </c>
+      <c r="D260" s="2">
+        <v>44173.2699537037</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G260" t="s">
+        <v>930</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>266</v>
+      </c>
+      <c r="C261" t="s">
+        <v>330</v>
+      </c>
+      <c r="D261" s="2">
+        <v>44173.27015046297</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G261" t="s">
+        <v>931</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>267</v>
+      </c>
+      <c r="C262" t="s">
+        <v>330</v>
+      </c>
+      <c r="D262" s="2">
+        <v>44173.2705324074</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G262" t="s">
+        <v>932</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>268</v>
+      </c>
+      <c r="C263" t="s">
+        <v>330</v>
+      </c>
+      <c r="D263" s="2">
+        <v>44173.27082175926</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G263" t="s">
+        <v>933</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>269</v>
+      </c>
+      <c r="C264" t="s">
+        <v>330</v>
+      </c>
+      <c r="D264" s="2">
+        <v>44173.27100694444</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G264" t="s">
+        <v>934</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>270</v>
+      </c>
+      <c r="C265" t="s">
+        <v>330</v>
+      </c>
+      <c r="D265" s="2">
+        <v>44173.27120370371</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G265" t="s">
+        <v>935</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>271</v>
+      </c>
+      <c r="C266" t="s">
+        <v>330</v>
+      </c>
+      <c r="D266" s="2">
+        <v>44173.27136574074</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G266" t="s">
+        <v>936</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>272</v>
+      </c>
+      <c r="C267" t="s">
+        <v>330</v>
+      </c>
+      <c r="D267" s="2">
+        <v>44173.27166666667</v>
+      </c>
+      <c r="E267" s="2">
+        <v>44173.52155092593</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G267" t="s">
+        <v>937</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>273</v>
+      </c>
+      <c r="C268" t="s">
+        <v>330</v>
+      </c>
+      <c r="D268" s="2">
+        <v>44173.271875</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="G268" t="s">
+        <v>938</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>274</v>
+      </c>
+      <c r="C269" t="s">
+        <v>320</v>
+      </c>
+      <c r="D269" s="2">
+        <v>44173.34310185185</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G269" t="s">
+        <v>939</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>275</v>
+      </c>
+      <c r="C270" t="s">
+        <v>320</v>
+      </c>
+      <c r="D270" s="2">
+        <v>44173.34365740741</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G270" t="s">
+        <v>940</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>276</v>
+      </c>
+      <c r="C271" t="s">
+        <v>320</v>
+      </c>
+      <c r="D271" s="2">
+        <v>44173.34423611111</v>
+      </c>
+      <c r="E271" s="2">
+        <v>44173.40342592593</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G271" t="s">
+        <v>941</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>277</v>
+      </c>
+      <c r="C272" t="s">
+        <v>321</v>
+      </c>
+      <c r="D272" s="2">
+        <v>44173.34567129629</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G272" t="s">
+        <v>942</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>278</v>
+      </c>
+      <c r="C273" t="s">
+        <v>336</v>
+      </c>
+      <c r="D273" s="2">
+        <v>44173.3480787037</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G273" t="s">
+        <v>943</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>279</v>
+      </c>
+      <c r="C274" t="s">
+        <v>329</v>
+      </c>
+      <c r="D274" s="2">
+        <v>44173.35212962963</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G274" t="s">
+        <v>944</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>280</v>
+      </c>
+      <c r="C275" t="s">
+        <v>353</v>
+      </c>
+      <c r="D275" s="2">
+        <v>44173.35421296296</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="G275" t="s">
+        <v>945</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>281</v>
+      </c>
+      <c r="C276" t="s">
+        <v>347</v>
+      </c>
+      <c r="D276" s="2">
+        <v>44173.36035879629</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G276" t="s">
+        <v>946</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>282</v>
+      </c>
+      <c r="C277" t="s">
+        <v>323</v>
+      </c>
+      <c r="D277" s="2">
+        <v>44173.36707175926</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G277" t="s">
+        <v>947</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>283</v>
+      </c>
+      <c r="C278" t="s">
+        <v>352</v>
+      </c>
+      <c r="D278" s="2">
+        <v>44173.36971064815</v>
+      </c>
+      <c r="E278" s="2">
+        <v>44173.53230324074</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G278" t="s">
+        <v>948</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>284</v>
+      </c>
+      <c r="C279" t="s">
+        <v>354</v>
+      </c>
+      <c r="D279" s="2">
+        <v>44173.42226851852</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G279" t="s">
+        <v>949</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>285</v>
+      </c>
+      <c r="C280" t="s">
+        <v>326</v>
+      </c>
+      <c r="D280" s="2">
+        <v>44173.4246875</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G280" t="s">
+        <v>950</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>286</v>
+      </c>
+      <c r="C281" t="s">
+        <v>326</v>
+      </c>
+      <c r="D281" s="2">
+        <v>44173.42483796296</v>
+      </c>
+      <c r="E281" s="2">
+        <v>44173.59802083333</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="G281" t="s">
+        <v>951</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>287</v>
+      </c>
+      <c r="C282" t="s">
+        <v>326</v>
+      </c>
+      <c r="D282" s="2">
+        <v>44173.42501157407</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G282" t="s">
+        <v>952</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>288</v>
+      </c>
+      <c r="C283" t="s">
+        <v>330</v>
+      </c>
+      <c r="D283" s="2">
+        <v>44173.42709490741</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G283" t="s">
+        <v>953</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>289</v>
+      </c>
+      <c r="C284" t="s">
+        <v>355</v>
+      </c>
+      <c r="D284" s="2">
+        <v>44173.43037037037</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="G284" t="s">
+        <v>954</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>290</v>
+      </c>
+      <c r="C285" t="s">
+        <v>355</v>
+      </c>
+      <c r="D285" s="2">
+        <v>44173.43160879629</v>
+      </c>
+      <c r="E285" s="2">
+        <v>44173.55628472222</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G285" t="s">
+        <v>955</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>291</v>
+      </c>
+      <c r="C286" t="s">
+        <v>324</v>
+      </c>
+      <c r="D286" s="2">
+        <v>44173.43505787037</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G286" t="s">
+        <v>956</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>292</v>
+      </c>
+      <c r="C287" t="s">
+        <v>339</v>
+      </c>
+      <c r="D287" s="2">
+        <v>44173.43681712963</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G287" t="s">
+        <v>957</v>
+      </c>
+      <c r="H287" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>293</v>
+      </c>
+      <c r="C288" t="s">
+        <v>339</v>
+      </c>
+      <c r="D288" s="2">
+        <v>44173.43728009259</v>
+      </c>
+      <c r="E288" s="2">
+        <v>44173.56142361111</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="G288" t="s">
+        <v>958</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>294</v>
+      </c>
+      <c r="C289" t="s">
+        <v>356</v>
+      </c>
+      <c r="D289" s="2">
+        <v>44173.43989583333</v>
+      </c>
+      <c r="E289" s="2">
+        <v>44173.59109953704</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="G289" t="s">
+        <v>959</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>295</v>
+      </c>
+      <c r="C290" t="s">
+        <v>351</v>
+      </c>
+      <c r="D290" s="2">
+        <v>44173.44342592593</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="G290" t="s">
+        <v>960</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>296</v>
+      </c>
+      <c r="C291" t="s">
+        <v>351</v>
+      </c>
+      <c r="D291" s="2">
+        <v>44173.4437962963</v>
+      </c>
+      <c r="E291" s="2">
+        <v>44173.5425</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="G291" t="s">
+        <v>961</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>297</v>
+      </c>
+      <c r="C292" t="s">
+        <v>351</v>
+      </c>
+      <c r="D292" s="2">
+        <v>44173.44494212963</v>
+      </c>
+      <c r="E292" s="2">
+        <v>44173.52905092593</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G292" t="s">
+        <v>962</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>298</v>
+      </c>
+      <c r="C293" t="s">
+        <v>352</v>
+      </c>
+      <c r="D293" s="2">
+        <v>44173.54556712963</v>
+      </c>
+      <c r="E293" s="2">
+        <v>44173.61878472222</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G293" t="s">
+        <v>963</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>299</v>
+      </c>
+      <c r="C294" t="s">
+        <v>320</v>
+      </c>
+      <c r="D294" s="2">
+        <v>44173.54936342593</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G294" t="s">
+        <v>964</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>300</v>
+      </c>
+      <c r="C295" t="s">
+        <v>321</v>
+      </c>
+      <c r="D295" s="2">
+        <v>44173.55069444444</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G295" t="s">
+        <v>965</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>301</v>
+      </c>
+      <c r="C296" t="s">
+        <v>321</v>
+      </c>
+      <c r="D296" s="2">
+        <v>44173.55094907407</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G296" t="s">
+        <v>966</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>302</v>
+      </c>
+      <c r="C297" t="s">
+        <v>329</v>
+      </c>
+      <c r="D297" s="2">
+        <v>44173.55399305555</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G297" t="s">
+        <v>967</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>303</v>
+      </c>
+      <c r="C298" t="s">
+        <v>329</v>
+      </c>
+      <c r="D298" s="2">
+        <v>44173.55425925926</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="G298" t="s">
+        <v>968</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>304</v>
+      </c>
+      <c r="C299" t="s">
+        <v>344</v>
+      </c>
+      <c r="D299" s="2">
+        <v>44173.55621527778</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="G299" t="s">
+        <v>969</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>70</v>
+      </c>
+      <c r="C300" t="s">
+        <v>343</v>
+      </c>
+      <c r="D300" s="2">
+        <v>44173.56090277778</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="G300" t="s">
+        <v>970</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>305</v>
+      </c>
+      <c r="C301" t="s">
+        <v>343</v>
+      </c>
+      <c r="D301" s="2">
+        <v>44173.56151620371</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G301" t="s">
+        <v>971</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>306</v>
+      </c>
+      <c r="C302" t="s">
+        <v>343</v>
+      </c>
+      <c r="D302" s="2">
+        <v>44173.5624537037</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="G302" t="s">
+        <v>972</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>154</v>
+      </c>
+      <c r="C303" t="s">
+        <v>343</v>
+      </c>
+      <c r="D303" s="2">
+        <v>44173.56390046296</v>
+      </c>
+      <c r="E303" s="2">
+        <v>44173.61878472222</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="G303" t="s">
+        <v>973</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>307</v>
+      </c>
+      <c r="C304" t="s">
+        <v>343</v>
+      </c>
+      <c r="D304" s="2">
+        <v>44173.56428240741</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="G304" t="s">
+        <v>974</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>308</v>
+      </c>
+      <c r="C305" t="s">
+        <v>355</v>
+      </c>
+      <c r="D305" s="2">
+        <v>44173.56673611111</v>
+      </c>
+      <c r="E305" s="2">
+        <v>44173.60494212963</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="G305" t="s">
+        <v>975</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>309</v>
+      </c>
+      <c r="C306" t="s">
+        <v>355</v>
+      </c>
+      <c r="D306" s="2">
+        <v>44173.56697916667</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="G306" t="s">
+        <v>976</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>310</v>
+      </c>
+      <c r="C307" t="s">
+        <v>355</v>
+      </c>
+      <c r="D307" s="2">
+        <v>44173.5674074074</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="G307" t="s">
+        <v>977</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>311</v>
+      </c>
+      <c r="C308" t="s">
+        <v>355</v>
+      </c>
+      <c r="D308" s="2">
+        <v>44173.56780092593</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G308" t="s">
+        <v>978</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>312</v>
+      </c>
+      <c r="C309" t="s">
+        <v>355</v>
+      </c>
+      <c r="D309" s="2">
+        <v>44173.56822916667</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G309" t="s">
+        <v>979</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>313</v>
+      </c>
+      <c r="C310" t="s">
+        <v>355</v>
+      </c>
+      <c r="D310" s="2">
+        <v>44173.56931712963</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G310" t="s">
+        <v>980</v>
+      </c>
+      <c r="H310" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>314</v>
+      </c>
+      <c r="C311" t="s">
+        <v>347</v>
+      </c>
+      <c r="D311" s="2">
+        <v>44173.5721875</v>
+      </c>
+      <c r="E311" s="2">
+        <v>44173.59109953704</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G311" t="s">
+        <v>981</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>315</v>
+      </c>
+      <c r="C312" t="s">
+        <v>339</v>
+      </c>
+      <c r="D312" s="2">
+        <v>44173.57516203704</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G312" t="s">
+        <v>982</v>
+      </c>
+      <c r="H312" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>316</v>
+      </c>
+      <c r="C313" t="s">
+        <v>339</v>
+      </c>
+      <c r="D313" s="2">
+        <v>44173.57537037037</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G313" t="s">
+        <v>983</v>
+      </c>
+      <c r="H313" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>317</v>
+      </c>
+      <c r="C314" t="s">
+        <v>339</v>
+      </c>
+      <c r="D314" s="2">
+        <v>44173.57570601852</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="G314" t="s">
+        <v>984</v>
+      </c>
+      <c r="H314" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>318</v>
+      </c>
+      <c r="C315" t="s">
+        <v>339</v>
+      </c>
+      <c r="D315" s="2">
+        <v>44173.57616898148</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G315" t="s">
+        <v>985</v>
+      </c>
+      <c r="H315" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>319</v>
+      </c>
+      <c r="C316" t="s">
+        <v>339</v>
+      </c>
+      <c r="D316" s="2">
+        <v>44173.57777777778</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G316" t="s">
+        <v>986</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1301</v>
       </c>
     </row>
   </sheetData>
@@ -9353,6 +12148,82 @@
     <hyperlink ref="F238" r:id="rId237"/>
     <hyperlink ref="F239" r:id="rId238"/>
     <hyperlink ref="F240" r:id="rId239"/>
+    <hyperlink ref="F241" r:id="rId240"/>
+    <hyperlink ref="F242" r:id="rId241"/>
+    <hyperlink ref="F243" r:id="rId242"/>
+    <hyperlink ref="F244" r:id="rId243"/>
+    <hyperlink ref="F245" r:id="rId244"/>
+    <hyperlink ref="F246" r:id="rId245"/>
+    <hyperlink ref="F247" r:id="rId246"/>
+    <hyperlink ref="F248" r:id="rId247"/>
+    <hyperlink ref="F249" r:id="rId248"/>
+    <hyperlink ref="F250" r:id="rId249"/>
+    <hyperlink ref="F251" r:id="rId250"/>
+    <hyperlink ref="F252" r:id="rId251"/>
+    <hyperlink ref="F253" r:id="rId252"/>
+    <hyperlink ref="F254" r:id="rId253"/>
+    <hyperlink ref="F255" r:id="rId254"/>
+    <hyperlink ref="F256" r:id="rId255"/>
+    <hyperlink ref="F257" r:id="rId256"/>
+    <hyperlink ref="F258" r:id="rId257"/>
+    <hyperlink ref="F259" r:id="rId258"/>
+    <hyperlink ref="F260" r:id="rId259"/>
+    <hyperlink ref="F261" r:id="rId260"/>
+    <hyperlink ref="F262" r:id="rId261"/>
+    <hyperlink ref="F263" r:id="rId262"/>
+    <hyperlink ref="F264" r:id="rId263"/>
+    <hyperlink ref="F265" r:id="rId264"/>
+    <hyperlink ref="F266" r:id="rId265"/>
+    <hyperlink ref="F267" r:id="rId266"/>
+    <hyperlink ref="F268" r:id="rId267"/>
+    <hyperlink ref="F269" r:id="rId268"/>
+    <hyperlink ref="F270" r:id="rId269"/>
+    <hyperlink ref="F271" r:id="rId270"/>
+    <hyperlink ref="F272" r:id="rId271"/>
+    <hyperlink ref="F273" r:id="rId272"/>
+    <hyperlink ref="F274" r:id="rId273"/>
+    <hyperlink ref="F275" r:id="rId274"/>
+    <hyperlink ref="F276" r:id="rId275"/>
+    <hyperlink ref="F277" r:id="rId276"/>
+    <hyperlink ref="F278" r:id="rId277"/>
+    <hyperlink ref="F279" r:id="rId278"/>
+    <hyperlink ref="F280" r:id="rId279"/>
+    <hyperlink ref="F281" r:id="rId280"/>
+    <hyperlink ref="F282" r:id="rId281"/>
+    <hyperlink ref="F283" r:id="rId282"/>
+    <hyperlink ref="F284" r:id="rId283"/>
+    <hyperlink ref="F285" r:id="rId284"/>
+    <hyperlink ref="F286" r:id="rId285"/>
+    <hyperlink ref="F287" r:id="rId286"/>
+    <hyperlink ref="F288" r:id="rId287"/>
+    <hyperlink ref="F289" r:id="rId288"/>
+    <hyperlink ref="F290" r:id="rId289"/>
+    <hyperlink ref="F291" r:id="rId290"/>
+    <hyperlink ref="F292" r:id="rId291"/>
+    <hyperlink ref="F293" r:id="rId292"/>
+    <hyperlink ref="F294" r:id="rId293"/>
+    <hyperlink ref="F295" r:id="rId294"/>
+    <hyperlink ref="F296" r:id="rId295"/>
+    <hyperlink ref="F297" r:id="rId296"/>
+    <hyperlink ref="F298" r:id="rId297"/>
+    <hyperlink ref="F299" r:id="rId298"/>
+    <hyperlink ref="F300" r:id="rId299"/>
+    <hyperlink ref="F301" r:id="rId300"/>
+    <hyperlink ref="F302" r:id="rId301"/>
+    <hyperlink ref="F303" r:id="rId302"/>
+    <hyperlink ref="F304" r:id="rId303"/>
+    <hyperlink ref="F305" r:id="rId304"/>
+    <hyperlink ref="F306" r:id="rId305"/>
+    <hyperlink ref="F307" r:id="rId306"/>
+    <hyperlink ref="F308" r:id="rId307"/>
+    <hyperlink ref="F309" r:id="rId308"/>
+    <hyperlink ref="F310" r:id="rId309"/>
+    <hyperlink ref="F311" r:id="rId310"/>
+    <hyperlink ref="F312" r:id="rId311"/>
+    <hyperlink ref="F313" r:id="rId312"/>
+    <hyperlink ref="F314" r:id="rId313"/>
+    <hyperlink ref="F315" r:id="rId314"/>
+    <hyperlink ref="F316" r:id="rId315"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/datas.xlsx
+++ b/src/datas.xlsx
@@ -10002,6 +10002,9 @@
       <c r="D192" s="2">
         <v>44172.44471064815</v>
       </c>
+      <c r="E192" s="2">
+        <v>44174.69006944444</v>
+      </c>
       <c r="F192" s="3" t="s">
         <v>634</v>
       </c>
@@ -10354,6 +10357,9 @@
       <c r="D206" s="2">
         <v>44172.56277777778</v>
       </c>
+      <c r="E206" s="2">
+        <v>44174.69006944444</v>
+      </c>
       <c r="F206" s="3" t="s">
         <v>648</v>
       </c>
@@ -10481,6 +10487,9 @@
       <c r="D211" s="2">
         <v>44172.57067129629</v>
       </c>
+      <c r="E211" s="2">
+        <v>44174.69006944444</v>
+      </c>
       <c r="F211" s="3" t="s">
         <v>653</v>
       </c>
@@ -10729,6 +10738,9 @@
       <c r="D221" s="2">
         <v>44172.63805555556</v>
       </c>
+      <c r="E221" s="2">
+        <v>44174.69006944444</v>
+      </c>
       <c r="F221" s="3" t="s">
         <v>663</v>
       </c>
@@ -11657,6 +11669,9 @@
       <c r="D259" s="2">
         <v>44173.2696875</v>
       </c>
+      <c r="E259" s="2">
+        <v>44174.69006944444</v>
+      </c>
       <c r="F259" s="3" t="s">
         <v>701</v>
       </c>
@@ -12821,6 +12836,9 @@
       <c r="D307" s="2">
         <v>44173.5674074074</v>
       </c>
+      <c r="E307" s="2">
+        <v>44174.69006944444</v>
+      </c>
       <c r="F307" s="3" t="s">
         <v>749</v>
       </c>
@@ -13418,6 +13436,9 @@
       <c r="D331" s="2">
         <v>44173.65393518518</v>
       </c>
+      <c r="E331" s="2">
+        <v>44174.67746527777</v>
+      </c>
       <c r="F331" s="3" t="s">
         <v>773</v>
       </c>
@@ -14259,6 +14280,9 @@
       <c r="D366" s="2">
         <v>44174.55025462963</v>
       </c>
+      <c r="E366" s="2">
+        <v>44174.67746527777</v>
+      </c>
       <c r="F366" s="3" t="s">
         <v>808</v>
       </c>
@@ -14282,6 +14306,9 @@
       <c r="D367" s="2">
         <v>44174.55072916667</v>
       </c>
+      <c r="E367" s="2">
+        <v>44174.67746527777</v>
+      </c>
       <c r="F367" s="3" t="s">
         <v>809</v>
       </c>
@@ -14987,6 +15014,9 @@
       <c r="D397" s="2">
         <v>44174.65302083334</v>
       </c>
+      <c r="E397" s="2">
+        <v>44174.67746527777</v>
+      </c>
       <c r="F397" s="3" t="s">
         <v>839</v>
       </c>
@@ -15009,6 +15039,9 @@
       </c>
       <c r="D398" s="2">
         <v>44174.65357638889</v>
+      </c>
+      <c r="E398" s="2">
+        <v>44174.67746527777</v>
       </c>
       <c r="F398" s="3" t="s">
         <v>840</v>

--- a/src/datas.xlsx
+++ b/src/datas.xlsx
@@ -14600,6 +14600,9 @@
       <c r="D379" s="2">
         <v>44174.62725694444</v>
       </c>
+      <c r="E379" s="2">
+        <v>44174.69523148148</v>
+      </c>
       <c r="F379" s="3" t="s">
         <v>821</v>
       </c>
@@ -14623,6 +14626,9 @@
       <c r="D380" s="2">
         <v>44174.62771990741</v>
       </c>
+      <c r="E380" s="2">
+        <v>44174.69523148148</v>
+      </c>
       <c r="F380" s="3" t="s">
         <v>822</v>
       </c>
@@ -14852,6 +14858,9 @@
       </c>
       <c r="D390" s="2">
         <v>44174.6442824074</v>
+      </c>
+      <c r="E390" s="2">
+        <v>44174.70914351852</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>832</v>
